--- a/analysis/processed_results/updated_averages_results_v1.xlsx
+++ b/analysis/processed_results/updated_averages_results_v1.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\EnergyMeasuring4SciModels3\analysis\processed_results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B0A2C538-EBA5-4442-8796-6FE7441DB3DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A917B072-827A-45DE-A199-997CA61E77A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{3B5D3ECC-AD6B-47D6-83FA-DA98FE8FEBEB}"/>
   </bookViews>
@@ -5856,8 +5856,8 @@
   <dimension ref="A1:AT53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="W1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AL7" sqref="AL7"/>
+      <pane xSplit="1" topLeftCell="AA1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AL4" sqref="AL4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5886,8 +5886,8 @@
     <col min="33" max="33" width="21.7109375" hidden="1" customWidth="1"/>
     <col min="34" max="34" width="17.7109375" hidden="1" customWidth="1"/>
     <col min="35" max="35" width="21.85546875" hidden="1" customWidth="1"/>
-    <col min="36" max="36" width="62.140625" hidden="1" customWidth="1"/>
-    <col min="37" max="37" width="56.140625" hidden="1" customWidth="1"/>
+    <col min="36" max="36" width="62.140625" customWidth="1"/>
+    <col min="37" max="37" width="56.140625" customWidth="1"/>
     <col min="38" max="38" width="16.5703125" customWidth="1"/>
     <col min="39" max="39" width="70.28515625" customWidth="1"/>
     <col min="40" max="40" width="96" customWidth="1"/>
@@ -6041,211 +6041,212 @@
     </row>
     <row r="2" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>1181</v>
+        <v>189</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>1182</v>
+        <v>190</v>
       </c>
       <c r="C2" s="3">
         <f xml:space="preserve"> B2 - I2</f>
-        <v>6.3875233968731919</v>
-      </c>
-      <c r="D2" s="2">
-        <v>216.439360046476</v>
+        <v>75.012593078661183</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>191</v>
       </c>
       <c r="E2" s="9">
         <f xml:space="preserve"> C2 / B2</f>
-        <v>6.0394522261870462E-2</v>
+        <v>0.43014678870303585</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>1183</v>
+        <v>192</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>1184</v>
+        <v>193</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>1185</v>
+        <v>194</v>
       </c>
       <c r="I2" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>1186</v>
+        <v>195</v>
       </c>
       <c r="K2" s="3">
         <f xml:space="preserve"> J2 - I2</f>
-        <v>9.4102493287781925</v>
+        <v>13.2088343300952</v>
       </c>
       <c r="L2" s="3">
         <f xml:space="preserve"> $J2 - B2</f>
-        <v>3.0227259319050006</v>
+        <v>-61.803758748565983</v>
       </c>
       <c r="M2" s="3">
         <f xml:space="preserve"> $J2 / B2</f>
-        <v>1.0285801048768501</v>
-      </c>
-      <c r="N2" s="8">
+        <v>0.64559699559252592</v>
+      </c>
+      <c r="N2" s="3">
         <f xml:space="preserve"> $K2 / C2</f>
-        <v>1.4732234614412025</v>
+        <v>0.17608822449643746</v>
       </c>
       <c r="O2" s="3">
         <f xml:space="preserve"> $J2 - F2</f>
-        <v>-104.83563181545999</v>
+        <v>-0.42388102236598968</v>
       </c>
       <c r="P2" s="3">
         <f xml:space="preserve"> $J2 / F2</f>
-        <v>0.50924621768424039</v>
+        <v>0.99624912207021554</v>
       </c>
       <c r="Q2" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R2" s="3" t="s">
         <v>1212</v>
       </c>
       <c r="S2">
-        <v>69.400781249999994</v>
+        <v>58.465625000000003</v>
       </c>
       <c r="T2" s="1" t="s">
-        <v>1187</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>1188</v>
+        <v>196</v>
+      </c>
+      <c r="U2">
+        <v>53.577343749999997</v>
       </c>
       <c r="V2" s="1" t="s">
-        <v>1189</v>
+        <v>197</v>
       </c>
       <c r="W2" s="1" t="s">
-        <v>1190</v>
+        <v>198</v>
       </c>
       <c r="X2" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y2">
-        <v>74.419921875</v>
+      <c r="Y2" s="1" t="s">
+        <v>199</v>
       </c>
       <c r="Z2">
-        <v>8.5498999999999992</v>
+        <v>9.4375</v>
       </c>
       <c r="AA2" s="3">
         <f xml:space="preserve"> Z2 - AH2</f>
-        <v>6.666666666887977E-5</v>
+        <v>0.88766666666666971</v>
       </c>
       <c r="AB2" s="3">
         <f xml:space="preserve"> C2 / AA2</f>
-        <v>95812.850949917221</v>
+        <v>84.505362086362297</v>
       </c>
       <c r="AC2" s="3">
         <f xml:space="preserve"> B2 / Z2</f>
-        <v>12.37012016577118</v>
-      </c>
-      <c r="AD2">
-        <v>18.253299999999999</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>1191</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>1192</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>1193</v>
+        <v>18.47823683042278</v>
+      </c>
+      <c r="AD2" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AE2">
+        <v>8.9966000000000008</v>
+      </c>
+      <c r="AF2">
+        <v>8.9901</v>
+      </c>
+      <c r="AG2">
+        <v>8.9366000000000003</v>
       </c>
       <c r="AH2" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI2">
-        <v>9.7098999999999993</v>
+        <v>9.5565999999999995</v>
       </c>
       <c r="AJ2" t="s">
-        <v>1194</v>
+        <v>201</v>
       </c>
       <c r="AK2" t="s">
-        <v>1595</v>
-      </c>
-      <c r="AL2" s="7" t="s">
-        <v>1228</v>
+        <v>1257</v>
+      </c>
+      <c r="AL2" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK2, Classification!A:B, 2, FALSE)</f>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM2" t="s">
-        <v>1195</v>
+        <v>202</v>
       </c>
       <c r="AN2" t="s">
-        <v>1196</v>
+        <v>203</v>
       </c>
       <c r="AO2" t="s">
-        <v>1197</v>
+        <v>204</v>
       </c>
       <c r="AP2" t="s">
-        <v>1198</v>
+        <v>205</v>
       </c>
       <c r="AQ2" t="s">
-        <v>1199</v>
+        <v>206</v>
       </c>
       <c r="AR2" t="s">
-        <v>1200</v>
+        <v>207</v>
       </c>
       <c r="AS2" t="s">
-        <v>1201</v>
+        <v>208</v>
       </c>
       <c r="AT2" t="s">
-        <v>1202</v>
+        <v>209</v>
       </c>
     </row>
     <row r="3" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>562</v>
+        <v>925</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>563</v>
+        <v>926</v>
       </c>
       <c r="C3" s="3">
         <f xml:space="preserve"> B3 - I3</f>
-        <v>6.5891021728942007</v>
+        <v>113.86017557774619</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>564</v>
+        <v>927</v>
       </c>
       <c r="E3" s="9">
         <f xml:space="preserve"> C3 / B3</f>
-        <v>6.2181949770707762E-2</v>
+        <v>0.53396333749746971</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>565</v>
+        <v>928</v>
       </c>
       <c r="G3" s="3" t="s">
-        <v>566</v>
+        <v>929</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>567</v>
+        <v>930</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>568</v>
+        <v>931</v>
       </c>
       <c r="K3" s="3">
         <f xml:space="preserve"> J3 - I3</f>
-        <v>7.8106201171191998</v>
+        <v>115.60016377768619</v>
       </c>
       <c r="L3" s="3">
         <f xml:space="preserve"> $J3 - B3</f>
-        <v>1.221517944224999</v>
+        <v>1.7399881999400009</v>
       </c>
       <c r="M3" s="3">
         <f xml:space="preserve"> $J3 / B3</f>
-        <v>1.0115275746920849</v>
+        <v>1.0081599198467051</v>
       </c>
       <c r="N3" s="3">
         <f xml:space="preserve"> $K3 / C3</f>
-        <v>1.1853845808082923</v>
+        <v>1.0152817979694042</v>
       </c>
       <c r="O3" s="3">
         <f xml:space="preserve"> $J3 - F3</f>
-        <v>-111.27218882249399</v>
+        <v>6.4333455403329936</v>
       </c>
       <c r="P3" s="3">
         <f xml:space="preserve"> $J3 / F3</f>
-        <v>0.49064856648637067</v>
+        <v>1.0308490735009834</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>1210</v>
@@ -6253,396 +6254,397 @@
       <c r="R3" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="S3">
-        <v>58.617968750000003</v>
+      <c r="S3" s="1" t="s">
+        <v>932</v>
       </c>
       <c r="T3" s="1" t="s">
-        <v>569</v>
-      </c>
-      <c r="U3">
-        <v>124.35312500000001</v>
-      </c>
-      <c r="V3">
-        <v>110.240234375</v>
-      </c>
-      <c r="W3">
-        <v>107.7296875</v>
+        <v>933</v>
+      </c>
+      <c r="U3" s="1" t="s">
+        <v>934</v>
+      </c>
+      <c r="V3" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="W3" s="1" t="s">
+        <v>936</v>
       </c>
       <c r="X3" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y3">
-        <v>89.404687499999994</v>
+      <c r="Y3" s="1" t="s">
+        <v>937</v>
       </c>
       <c r="Z3" s="1" t="s">
-        <v>570</v>
+        <v>938</v>
       </c>
       <c r="AA3" s="3">
         <f xml:space="preserve"> Z3 - AH3</f>
-        <v>2.6733333333329057E-2</v>
+        <v>5.1817333333332698</v>
       </c>
       <c r="AB3" s="3">
         <f xml:space="preserve"> C3 / AA3</f>
-        <v>246.47514362451076</v>
+        <v>21.973376137537166</v>
       </c>
       <c r="AC3" s="3">
         <f xml:space="preserve"> B3 / Z3</f>
-        <v>12.355161838033258</v>
+        <v>15.528886671309733</v>
       </c>
       <c r="AD3" s="1" t="s">
-        <v>571</v>
+        <v>939</v>
       </c>
       <c r="AE3" s="1" t="s">
-        <v>572</v>
+        <v>940</v>
       </c>
       <c r="AF3">
-        <v>17.9666</v>
+        <v>9.9305000000000003</v>
       </c>
       <c r="AG3">
-        <v>17.88</v>
+        <v>8.5699000000000005</v>
       </c>
       <c r="AH3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI3">
-        <v>9.5299999999999994</v>
+      <c r="AI3" s="1" t="s">
+        <v>941</v>
       </c>
       <c r="AJ3" t="s">
-        <v>573</v>
+        <v>942</v>
       </c>
       <c r="AK3" t="s">
-        <v>1593</v>
-      </c>
-      <c r="AL3" s="7" t="s">
-        <v>1228</v>
+        <v>1330</v>
+      </c>
+      <c r="AL3" s="17" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK3, Classification!A:B, 2, FALSE)</f>
+        <v>Scientific</v>
       </c>
       <c r="AM3" t="s">
-        <v>574</v>
+        <v>943</v>
       </c>
       <c r="AN3" t="s">
-        <v>493</v>
+        <v>944</v>
       </c>
       <c r="AO3" t="s">
-        <v>575</v>
+        <v>945</v>
       </c>
       <c r="AP3" t="s">
-        <v>576</v>
+        <v>946</v>
       </c>
       <c r="AQ3" t="s">
-        <v>577</v>
+        <v>947</v>
       </c>
       <c r="AR3" t="s">
-        <v>314</v>
+        <v>948</v>
       </c>
       <c r="AS3" t="s">
-        <v>578</v>
+        <v>949</v>
       </c>
       <c r="AT3" t="s">
-        <v>579</v>
+        <v>950</v>
       </c>
     </row>
     <row r="4" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>581</v>
+        <v>993</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>582</v>
+        <v>994</v>
       </c>
       <c r="C4" s="3">
         <f xml:space="preserve"> B4 - I4</f>
-        <v>13.797005208241188</v>
+        <v>61.809076436523185</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>583</v>
+        <v>995</v>
       </c>
       <c r="E4" s="9">
         <f xml:space="preserve"> C4 / B4</f>
-        <v>0.1219109944733322</v>
+        <v>0.38346705009905413</v>
       </c>
       <c r="F4" s="3" t="s">
-        <v>584</v>
+        <v>996</v>
       </c>
       <c r="G4" s="3" t="s">
-        <v>585</v>
+        <v>997</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>586</v>
+        <v>998</v>
       </c>
       <c r="I4" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>587</v>
+        <v>999</v>
       </c>
       <c r="K4" s="3">
         <f xml:space="preserve"> J4 - I4</f>
-        <v>11.833940633170187</v>
+        <v>45.38332722993519</v>
       </c>
       <c r="L4" s="3">
         <f xml:space="preserve"> $J4 - B4</f>
-        <v>-1.9630645750710016</v>
+        <v>-16.425749206587994</v>
       </c>
       <c r="M4" s="3">
         <f xml:space="preserve"> $J4 / B4</f>
-        <v>0.98265426801322608</v>
-      </c>
-      <c r="N4" s="3">
+        <v>0.8980937111981302</v>
+      </c>
+      <c r="N4" s="8">
         <f xml:space="preserve"> $K4 / C4</f>
-        <v>0.857718066678816</v>
+        <v>0.73425020800210561</v>
       </c>
       <c r="O4" s="3">
         <f xml:space="preserve"> $J4 - F4</f>
-        <v>2.2554321289249941</v>
+        <v>7.5087997438579919</v>
       </c>
       <c r="P4" s="3">
         <f xml:space="preserve"> $J4 / F4</f>
-        <v>1.0207007216404473</v>
+        <v>1.0547088060649459</v>
       </c>
       <c r="Q4" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R4" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="S4" s="1" t="s">
-        <v>588</v>
-      </c>
-      <c r="T4" s="1" t="s">
-        <v>589</v>
+      <c r="S4">
+        <v>54.970703125</v>
+      </c>
+      <c r="T4">
+        <v>49.963671875000003</v>
       </c>
       <c r="U4" s="1" t="s">
-        <v>590</v>
-      </c>
-      <c r="V4" s="1" t="s">
-        <v>591</v>
-      </c>
-      <c r="W4" s="1" t="s">
-        <v>592</v>
+        <v>1000</v>
+      </c>
+      <c r="V4">
+        <v>68.241406249999997</v>
+      </c>
+      <c r="W4">
+        <v>64.379296874999994</v>
       </c>
       <c r="X4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y4">
-        <v>106.47578125</v>
-      </c>
-      <c r="Z4" s="1" t="s">
-        <v>593</v>
+      <c r="Y4" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Z4">
+        <v>11.884</v>
       </c>
       <c r="AA4" s="3">
         <f xml:space="preserve"> Z4 - AH4</f>
-        <v>0.14013333333332945</v>
+        <v>3.3341666666666701</v>
       </c>
       <c r="AB4" s="3">
         <f xml:space="preserve"> C4 / AA4</f>
-        <v>98.456269326176766</v>
+        <v>18.538088408854723</v>
       </c>
       <c r="AC4" s="3">
         <f xml:space="preserve"> B4 / Z4</f>
-        <v>13.023383927444495</v>
+        <v>13.563181037106782</v>
       </c>
       <c r="AD4" s="1" t="s">
-        <v>594</v>
-      </c>
-      <c r="AE4">
-        <v>9.2568000000000001</v>
+        <v>1002</v>
+      </c>
+      <c r="AE4" s="1" t="s">
+        <v>1003</v>
       </c>
       <c r="AF4" s="1" t="s">
-        <v>372</v>
-      </c>
-      <c r="AG4">
-        <v>9.4167000000000005</v>
+        <v>1004</v>
+      </c>
+      <c r="AG4" s="1" t="s">
+        <v>1005</v>
       </c>
       <c r="AH4" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI4">
-        <v>9.7034000000000002</v>
+      <c r="AI4" s="1" t="s">
+        <v>1006</v>
       </c>
       <c r="AJ4" t="s">
-        <v>595</v>
+        <v>1007</v>
       </c>
       <c r="AK4" t="s">
-        <v>1256</v>
-      </c>
-      <c r="AL4" t="str">
+        <v>1451</v>
+      </c>
+      <c r="AL4" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK4, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>Scientific</v>
       </c>
       <c r="AM4" t="s">
-        <v>596</v>
+        <v>1008</v>
       </c>
       <c r="AN4" t="s">
-        <v>597</v>
+        <v>883</v>
       </c>
       <c r="AO4" t="s">
-        <v>598</v>
+        <v>1009</v>
       </c>
       <c r="AP4" t="s">
-        <v>599</v>
+        <v>1010</v>
       </c>
       <c r="AQ4" t="s">
-        <v>600</v>
+        <v>1011</v>
       </c>
       <c r="AR4" t="s">
-        <v>601</v>
+        <v>1012</v>
       </c>
       <c r="AS4" t="s">
-        <v>602</v>
+        <v>1013</v>
       </c>
       <c r="AT4" t="s">
-        <v>603</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="5" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>189</v>
+      <c r="A5" s="7" t="s">
+        <v>1139</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>190</v>
+        <v>1140</v>
       </c>
       <c r="C5" s="3">
         <f xml:space="preserve"> B5 - I5</f>
-        <v>75.012593078661183</v>
+        <v>17.1463485718252</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>191</v>
+        <v>1141</v>
       </c>
       <c r="E5" s="9">
         <f xml:space="preserve"> C5 / B5</f>
-        <v>0.43014678870303585</v>
+        <v>0.14715102353262768</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>192</v>
+        <v>1142</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>193</v>
+        <v>1143</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>194</v>
+        <v>1144</v>
       </c>
       <c r="I5" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>195</v>
+        <v>1145</v>
       </c>
       <c r="K5" s="3">
         <f xml:space="preserve"> J5 - I5</f>
-        <v>13.2088343300952</v>
+        <v>7.1165669761611952</v>
       </c>
       <c r="L5" s="3">
         <f xml:space="preserve"> $J5 - B5</f>
-        <v>-61.803758748565983</v>
+        <v>-10.029781595664005</v>
       </c>
       <c r="M5" s="3">
         <f xml:space="preserve"> $J5 / B5</f>
-        <v>0.64559699559252592</v>
-      </c>
-      <c r="N5" s="3">
+        <v>0.91392379424527448</v>
+      </c>
+      <c r="N5" s="8">
         <f xml:space="preserve"> $K5 / C5</f>
-        <v>0.17608822449643746</v>
+        <v>0.41504854204673669</v>
       </c>
       <c r="O5" s="3">
         <f xml:space="preserve"> $J5 - F5</f>
-        <v>-0.42388102236598968</v>
+        <v>-6.3890380856539934</v>
       </c>
       <c r="P5" s="3">
         <f xml:space="preserve"> $J5 / F5</f>
-        <v>0.99624912207021554</v>
+        <v>0.94340042144706748</v>
       </c>
       <c r="Q5" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R5" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="S5">
-        <v>58.465625000000003</v>
+      <c r="S5" s="1" t="s">
+        <v>1146</v>
       </c>
       <c r="T5" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="U5">
-        <v>53.577343749999997</v>
+        <v>1147</v>
+      </c>
+      <c r="U5" s="1" t="s">
+        <v>1148</v>
       </c>
       <c r="V5" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="W5" s="1" t="s">
-        <v>198</v>
+        <v>1149</v>
+      </c>
+      <c r="W5">
+        <v>57.021093749999999</v>
       </c>
       <c r="X5" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y5" s="1" t="s">
-        <v>199</v>
-      </c>
-      <c r="Z5">
-        <v>9.4375</v>
+        <v>1150</v>
+      </c>
+      <c r="Z5" s="1" t="s">
+        <v>259</v>
       </c>
       <c r="AA5" s="3">
         <f xml:space="preserve"> Z5 - AH5</f>
-        <v>0.88766666666666971</v>
+        <v>0.22683333333332989</v>
       </c>
       <c r="AB5" s="3">
         <f xml:space="preserve"> C5 / AA5</f>
-        <v>84.505362086362297</v>
+        <v>75.590074526783809</v>
       </c>
       <c r="AC5" s="3">
         <f xml:space="preserve"> B5 / Z5</f>
-        <v>18.47823683042278</v>
+        <v>13.276351946100922</v>
       </c>
       <c r="AD5" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="AE5">
-        <v>8.9966000000000008</v>
-      </c>
-      <c r="AF5">
-        <v>8.9901</v>
-      </c>
-      <c r="AG5">
-        <v>8.9366000000000003</v>
+        <v>349</v>
+      </c>
+      <c r="AE5" s="1" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AF5" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="AG5" s="1" t="s">
+        <v>606</v>
       </c>
       <c r="AH5" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI5">
-        <v>9.5565999999999995</v>
-      </c>
-      <c r="AJ5" t="s">
-        <v>201</v>
+      <c r="AI5" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="AJ5" s="7" t="s">
+        <v>1152</v>
       </c>
       <c r="AK5" t="s">
-        <v>1257</v>
+        <v>1244</v>
       </c>
       <c r="AL5" t="str">
         <f xml:space="preserve"> VLOOKUP(AK5, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM5" t="s">
-        <v>202</v>
+        <v>1153</v>
       </c>
       <c r="AN5" t="s">
-        <v>203</v>
+        <v>1154</v>
       </c>
       <c r="AO5" t="s">
-        <v>204</v>
+        <v>1155</v>
       </c>
       <c r="AP5" t="s">
-        <v>205</v>
+        <v>1156</v>
       </c>
       <c r="AQ5" t="s">
-        <v>206</v>
+        <v>1157</v>
       </c>
       <c r="AR5" t="s">
-        <v>207</v>
+        <v>1158</v>
       </c>
       <c r="AS5" t="s">
-        <v>208</v>
+        <v>1159</v>
       </c>
       <c r="AT5" t="s">
-        <v>209</v>
+        <v>1160</v>
       </c>
     </row>
     <row r="6" spans="1:46" x14ac:dyDescent="0.25">
@@ -6798,213 +6800,213 @@
       </c>
     </row>
     <row r="7" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A7" s="7" t="s">
-        <v>1139</v>
+      <c r="A7" t="s">
+        <v>581</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>1140</v>
+        <v>582</v>
       </c>
       <c r="C7" s="3">
         <f xml:space="preserve"> B7 - I7</f>
-        <v>17.1463485718252</v>
+        <v>13.797005208241188</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>1141</v>
+        <v>583</v>
       </c>
       <c r="E7" s="9">
         <f xml:space="preserve"> C7 / B7</f>
-        <v>0.14715102353262768</v>
+        <v>0.1219109944733322</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>1142</v>
+        <v>584</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>1143</v>
+        <v>585</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>1144</v>
+        <v>586</v>
       </c>
       <c r="I7" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>1145</v>
+        <v>587</v>
       </c>
       <c r="K7" s="3">
         <f xml:space="preserve"> J7 - I7</f>
-        <v>7.1165669761611952</v>
+        <v>11.833940633170187</v>
       </c>
       <c r="L7" s="3">
         <f xml:space="preserve"> $J7 - B7</f>
-        <v>-10.029781595664005</v>
+        <v>-1.9630645750710016</v>
       </c>
       <c r="M7" s="3">
         <f xml:space="preserve"> $J7 / B7</f>
-        <v>0.91392379424527448</v>
-      </c>
-      <c r="N7" s="8">
+        <v>0.98265426801322608</v>
+      </c>
+      <c r="N7" s="3">
         <f xml:space="preserve"> $K7 / C7</f>
-        <v>0.41504854204673669</v>
+        <v>0.857718066678816</v>
       </c>
       <c r="O7" s="3">
         <f xml:space="preserve"> $J7 - F7</f>
-        <v>-6.3890380856539934</v>
+        <v>2.2554321289249941</v>
       </c>
       <c r="P7" s="3">
         <f xml:space="preserve"> $J7 / F7</f>
-        <v>0.94340042144706748</v>
+        <v>1.0207007216404473</v>
       </c>
       <c r="Q7" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R7" s="3" t="s">
         <v>1212</v>
       </c>
       <c r="S7" s="1" t="s">
-        <v>1146</v>
+        <v>588</v>
       </c>
       <c r="T7" s="1" t="s">
-        <v>1147</v>
+        <v>589</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>1148</v>
+        <v>590</v>
       </c>
       <c r="V7" s="1" t="s">
-        <v>1149</v>
-      </c>
-      <c r="W7">
-        <v>57.021093749999999</v>
+        <v>591</v>
+      </c>
+      <c r="W7" s="1" t="s">
+        <v>592</v>
       </c>
       <c r="X7" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y7" s="1" t="s">
-        <v>1150</v>
+      <c r="Y7">
+        <v>106.47578125</v>
       </c>
       <c r="Z7" s="1" t="s">
-        <v>259</v>
+        <v>593</v>
       </c>
       <c r="AA7" s="3">
         <f xml:space="preserve"> Z7 - AH7</f>
-        <v>0.22683333333332989</v>
+        <v>0.14013333333332945</v>
       </c>
       <c r="AB7" s="3">
         <f xml:space="preserve"> C7 / AA7</f>
-        <v>75.590074526783809</v>
+        <v>98.456269326176766</v>
       </c>
       <c r="AC7" s="3">
         <f xml:space="preserve"> B7 / Z7</f>
-        <v>13.276351946100922</v>
+        <v>13.023383927444495</v>
       </c>
       <c r="AD7" s="1" t="s">
-        <v>349</v>
-      </c>
-      <c r="AE7" s="1" t="s">
-        <v>1151</v>
+        <v>594</v>
+      </c>
+      <c r="AE7">
+        <v>9.2568000000000001</v>
       </c>
       <c r="AF7" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="AG7" s="1" t="s">
-        <v>606</v>
+        <v>372</v>
+      </c>
+      <c r="AG7">
+        <v>9.4167000000000005</v>
       </c>
       <c r="AH7" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI7" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="AJ7" s="7" t="s">
-        <v>1152</v>
+      <c r="AI7">
+        <v>9.7034000000000002</v>
+      </c>
+      <c r="AJ7" t="s">
+        <v>595</v>
       </c>
       <c r="AK7" t="s">
-        <v>1244</v>
+        <v>1256</v>
       </c>
       <c r="AL7" t="str">
         <f xml:space="preserve"> VLOOKUP(AK7, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM7" t="s">
-        <v>1153</v>
+        <v>596</v>
       </c>
       <c r="AN7" t="s">
-        <v>1154</v>
+        <v>597</v>
       </c>
       <c r="AO7" t="s">
-        <v>1155</v>
+        <v>598</v>
       </c>
       <c r="AP7" t="s">
-        <v>1156</v>
+        <v>599</v>
       </c>
       <c r="AQ7" t="s">
-        <v>1157</v>
+        <v>600</v>
       </c>
       <c r="AR7" t="s">
-        <v>1158</v>
+        <v>601</v>
       </c>
       <c r="AS7" t="s">
-        <v>1159</v>
+        <v>602</v>
       </c>
       <c r="AT7" t="s">
-        <v>1160</v>
+        <v>603</v>
       </c>
     </row>
     <row r="8" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>676</v>
+        <v>833</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>677</v>
+        <v>834</v>
       </c>
       <c r="C8" s="3">
         <f xml:space="preserve"> B8 - I8</f>
-        <v>12.5631027222082</v>
+        <v>29.279698181045205</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>678</v>
+        <v>835</v>
       </c>
       <c r="E8" s="9">
         <f xml:space="preserve"> C8 / B8</f>
-        <v>0.11223181681605766</v>
+        <v>0.22758223397598071</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>679</v>
+        <v>836</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>680</v>
+        <v>837</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>681</v>
+        <v>838</v>
       </c>
       <c r="I8" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>682</v>
+        <v>839</v>
       </c>
       <c r="K8" s="3">
         <f xml:space="preserve"> J8 - I8</f>
-        <v>11.705109151213193</v>
+        <v>47.306265258728189</v>
       </c>
       <c r="L8" s="3">
         <f xml:space="preserve"> $J8 - B8</f>
-        <v>-0.85799357099500639</v>
+        <v>18.026567077682984</v>
       </c>
       <c r="M8" s="3">
         <f xml:space="preserve"> $J8 / B8</f>
-        <v>0.99233515960041907</v>
+        <v>1.1401150510872688</v>
       </c>
       <c r="N8" s="8">
         <f xml:space="preserve"> $K8 / C8</f>
-        <v>0.93170528093523397</v>
+        <v>1.6156677902285497</v>
       </c>
       <c r="O8" s="3">
         <f xml:space="preserve"> $J8 - F8</f>
-        <v>-6.9718297322559977</v>
+        <v>23.419403584717998</v>
       </c>
       <c r="P8" s="3">
         <f xml:space="preserve"> $J8 / F8</f>
-        <v>0.94094307555611056</v>
+        <v>1.1899959771671635</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>1209</v>
@@ -7012,151 +7014,145 @@
       <c r="R8" s="3" t="s">
         <v>1212</v>
       </c>
-      <c r="S8" s="1" t="s">
-        <v>683</v>
+      <c r="S8">
+        <v>64.537890625000003</v>
       </c>
       <c r="T8" s="1" t="s">
-        <v>684</v>
-      </c>
-      <c r="U8" s="1" t="s">
-        <v>685</v>
-      </c>
-      <c r="V8">
-        <v>58.400390625</v>
+        <v>840</v>
+      </c>
+      <c r="U8">
+        <v>61.215625000000003</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>841</v>
       </c>
       <c r="W8" s="1" t="s">
-        <v>686</v>
+        <v>842</v>
       </c>
       <c r="X8" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y8" s="1" t="s">
-        <v>687</v>
+        <v>843</v>
       </c>
       <c r="Z8" s="1" t="s">
-        <v>688</v>
+        <v>844</v>
       </c>
       <c r="AA8" s="3">
         <f xml:space="preserve"> Z8 - AH8</f>
-        <v>0.27343333333332964</v>
+        <v>1.460366666666669</v>
       </c>
       <c r="AB8" s="3">
         <f xml:space="preserve"> C8 / AA8</f>
-        <v>45.945761509965998</v>
+        <v>20.049552519489506</v>
       </c>
       <c r="AC8" s="3">
         <f xml:space="preserve"> B8 / Z8</f>
-        <v>12.686783020347198</v>
+        <v>12.852437033176063</v>
       </c>
       <c r="AD8" s="1" t="s">
-        <v>347</v>
-      </c>
-      <c r="AE8" s="1" t="s">
-        <v>516</v>
+        <v>845</v>
+      </c>
+      <c r="AE8">
+        <v>10.083500000000001</v>
       </c>
       <c r="AF8" s="1" t="s">
-        <v>234</v>
-      </c>
-      <c r="AG8" s="1" t="s">
-        <v>188</v>
+        <v>846</v>
+      </c>
+      <c r="AG8">
+        <v>10.537100000000001</v>
       </c>
       <c r="AH8" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI8">
-        <v>9.3232999999999997</v>
+      <c r="AI8" s="1" t="s">
+        <v>847</v>
       </c>
       <c r="AJ8" t="s">
-        <v>689</v>
+        <v>848</v>
       </c>
       <c r="AK8" t="s">
-        <v>1306</v>
-      </c>
-      <c r="AL8" t="str">
+        <v>1324</v>
+      </c>
+      <c r="AL8" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK8, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>Scientific</v>
       </c>
       <c r="AM8" t="s">
-        <v>690</v>
+        <v>849</v>
       </c>
       <c r="AN8" t="s">
-        <v>691</v>
+        <v>850</v>
       </c>
       <c r="AO8" t="s">
-        <v>692</v>
+        <v>851</v>
       </c>
       <c r="AP8" t="s">
-        <v>693</v>
+        <v>852</v>
       </c>
       <c r="AQ8" t="s">
-        <v>694</v>
+        <v>853</v>
       </c>
       <c r="AR8" t="s">
-        <v>695</v>
-      </c>
-      <c r="AS8" t="s">
-        <v>696</v>
-      </c>
-      <c r="AT8" t="s">
-        <v>345</v>
+        <v>854</v>
       </c>
     </row>
     <row r="9" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>626</v>
+        <v>373</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>627</v>
+        <v>374</v>
       </c>
       <c r="C9" s="3">
         <f xml:space="preserve"> B9 - I9</f>
-        <v>11.361594136643191</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>628</v>
+        <v>19.913396199627201</v>
+      </c>
+      <c r="D9" s="2">
+        <v>108.194615682003</v>
       </c>
       <c r="E9" s="9">
         <f xml:space="preserve"> C9 / B9</f>
-        <v>0.10259946615267738</v>
+        <v>0.16693382419735348</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>629</v>
+        <v>375</v>
       </c>
       <c r="G9" s="3" t="s">
-        <v>630</v>
+        <v>376</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>631</v>
+        <v>377</v>
       </c>
       <c r="I9" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>632</v>
+        <v>378</v>
       </c>
       <c r="K9" s="3">
         <f xml:space="preserve"> J9 - I9</f>
-        <v>20.514142862965187</v>
+        <v>10.636054484121189</v>
       </c>
       <c r="L9" s="3">
         <f xml:space="preserve"> $J9 - B9</f>
-        <v>9.1525487263219958</v>
+        <v>-9.2773417155060116</v>
       </c>
       <c r="M9" s="3">
         <f xml:space="preserve"> $J9 / B9</f>
-        <v>1.0826509556637312</v>
+        <v>0.92222812646172092</v>
       </c>
       <c r="N9" s="8">
         <f xml:space="preserve"> $K9 / C9</f>
-        <v>1.8055690615459827</v>
+        <v>0.5341155460122019</v>
       </c>
       <c r="O9" s="3">
         <f xml:space="preserve"> $J9 - F9</f>
-        <v>-100.957586161262</v>
+        <v>1.3346054077679952</v>
       </c>
       <c r="P9" s="3">
         <f xml:space="preserve"> $J9 / F9</f>
-        <v>0.54286288966426721</v>
+        <v>1.0122804526638456</v>
       </c>
       <c r="Q9" s="3" t="s">
         <v>1210</v>
@@ -7165,453 +7161,454 @@
         <v>1213</v>
       </c>
       <c r="S9" s="1" t="s">
-        <v>633</v>
-      </c>
-      <c r="T9">
-        <v>164.08906250000001</v>
+        <v>379</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>380</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>634</v>
+        <v>381</v>
       </c>
       <c r="V9" s="1" t="s">
-        <v>635</v>
+        <v>382</v>
       </c>
       <c r="W9" s="1" t="s">
-        <v>636</v>
+        <v>383</v>
       </c>
       <c r="X9" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y9" s="1" t="s">
-        <v>637</v>
+        <v>384</v>
       </c>
       <c r="Z9" s="1" t="s">
-        <v>604</v>
+        <v>385</v>
       </c>
       <c r="AA9" s="3">
         <f xml:space="preserve"> Z9 - AH9</f>
-        <v>0.30010000000000048</v>
+        <v>0.80043333333332889</v>
       </c>
       <c r="AB9" s="3">
         <f xml:space="preserve"> C9 / AA9</f>
-        <v>37.859360668587712</v>
+        <v>24.87826952021069</v>
       </c>
       <c r="AC9" s="3">
         <f xml:space="preserve"> B9 / Z9</f>
-        <v>12.512790432895581</v>
+        <v>12.757835413758015</v>
       </c>
       <c r="AD9" s="1" t="s">
-        <v>638</v>
+        <v>386</v>
       </c>
       <c r="AE9" s="1" t="s">
-        <v>639</v>
+        <v>141</v>
       </c>
       <c r="AF9" s="1" t="s">
-        <v>640</v>
+        <v>387</v>
       </c>
       <c r="AG9" s="1" t="s">
-        <v>641</v>
+        <v>388</v>
       </c>
       <c r="AH9" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI9">
-        <v>10.3969</v>
+        <v>9.4232999999999993</v>
       </c>
       <c r="AJ9" t="s">
-        <v>642</v>
+        <v>389</v>
       </c>
       <c r="AK9" t="s">
-        <v>1357</v>
+        <v>1280</v>
       </c>
       <c r="AL9" t="str">
         <f xml:space="preserve"> VLOOKUP(AK9, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM9" t="s">
-        <v>643</v>
+        <v>390</v>
       </c>
       <c r="AN9" t="s">
-        <v>135</v>
+        <v>391</v>
       </c>
       <c r="AO9" t="s">
-        <v>644</v>
+        <v>392</v>
       </c>
       <c r="AP9" t="s">
-        <v>645</v>
+        <v>393</v>
       </c>
       <c r="AQ9" t="s">
-        <v>646</v>
+        <v>394</v>
       </c>
       <c r="AR9" t="s">
-        <v>260</v>
+        <v>395</v>
       </c>
       <c r="AS9" t="s">
-        <v>647</v>
+        <v>396</v>
       </c>
       <c r="AT9" t="s">
-        <v>538</v>
+        <v>397</v>
       </c>
     </row>
     <row r="10" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>83</v>
+        <v>676</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>84</v>
+        <v>677</v>
       </c>
       <c r="C10" s="3">
         <f xml:space="preserve"> B10 - I10</f>
-        <v>2.9414393106491872</v>
+        <v>12.5631027222082</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>678</v>
       </c>
       <c r="E10" s="9">
         <f xml:space="preserve"> C10 / B10</f>
-        <v>2.8748237138879053E-2</v>
+        <v>0.11223181681605766</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>86</v>
+        <v>679</v>
       </c>
       <c r="G10" s="3" t="s">
-        <v>87</v>
+        <v>680</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>88</v>
+        <v>681</v>
       </c>
       <c r="I10" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>89</v>
+        <v>682</v>
       </c>
       <c r="K10" s="3">
         <f xml:space="preserve"> J10 - I10</f>
-        <v>8.4445576984371939</v>
+        <v>11.705109151213193</v>
       </c>
       <c r="L10" s="3">
         <f xml:space="preserve"> $J10 - B10</f>
-        <v>5.5031183877880068</v>
+        <v>-0.85799357099500639</v>
       </c>
       <c r="M10" s="3">
         <f xml:space="preserve"> $J10 / B10</f>
-        <v>1.0537848773023091</v>
+        <v>0.99233515960041907</v>
       </c>
       <c r="N10" s="8">
         <f xml:space="preserve"> $K10 / C10</f>
-        <v>2.8708930583284573</v>
+        <v>0.93170528093523397</v>
       </c>
       <c r="O10" s="3">
         <f xml:space="preserve"> $J10 - F10</f>
-        <v>0.70086110414099778</v>
+        <v>-6.9718297322559977</v>
       </c>
       <c r="P10" s="3">
         <f xml:space="preserve"> $J10 / F10</f>
-        <v>1.0065427988581059</v>
+        <v>0.94094307555611056</v>
       </c>
       <c r="Q10" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R10" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="S10">
-        <v>65.723046874999994</v>
+        <v>1212</v>
+      </c>
+      <c r="S10" s="1" t="s">
+        <v>683</v>
       </c>
       <c r="T10" s="1" t="s">
-        <v>90</v>
+        <v>684</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>91</v>
+        <v>685</v>
       </c>
       <c r="V10">
-        <v>54.673828125</v>
+        <v>58.400390625</v>
       </c>
       <c r="W10" s="1" t="s">
-        <v>92</v>
+        <v>686</v>
       </c>
       <c r="X10" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y10">
-        <v>105.341015625</v>
+      <c r="Y10" s="1" t="s">
+        <v>687</v>
       </c>
       <c r="Z10" s="1" t="s">
-        <v>93</v>
+        <v>688</v>
       </c>
       <c r="AA10" s="3">
         <f xml:space="preserve"> Z10 - AH10</f>
-        <v>8.0033333333329182E-2</v>
+        <v>0.27343333333332964</v>
       </c>
       <c r="AB10" s="3">
         <f xml:space="preserve"> C10 / AA10</f>
-        <v>36.752677767380341</v>
+        <v>45.945761509965998</v>
       </c>
       <c r="AC10" s="3">
         <f xml:space="preserve"> B10 / Z10</f>
-        <v>11.856174639905955</v>
+        <v>12.686783020347198</v>
       </c>
       <c r="AD10" s="1" t="s">
-        <v>94</v>
+        <v>347</v>
       </c>
       <c r="AE10" s="1" t="s">
-        <v>95</v>
+        <v>516</v>
       </c>
       <c r="AF10" s="1" t="s">
-        <v>96</v>
+        <v>234</v>
       </c>
       <c r="AG10" s="1" t="s">
-        <v>61</v>
+        <v>188</v>
       </c>
       <c r="AH10" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI10" s="1" t="s">
-        <v>97</v>
+      <c r="AI10">
+        <v>9.3232999999999997</v>
       </c>
       <c r="AJ10" t="s">
-        <v>98</v>
+        <v>689</v>
       </c>
       <c r="AK10" t="s">
-        <v>1600</v>
-      </c>
-      <c r="AL10" s="7" t="s">
-        <v>1228</v>
+        <v>1306</v>
+      </c>
+      <c r="AL10" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK10, Classification!A:B, 2, FALSE)</f>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM10" t="s">
-        <v>99</v>
+        <v>690</v>
       </c>
       <c r="AN10" t="s">
-        <v>100</v>
+        <v>691</v>
       </c>
       <c r="AO10" t="s">
-        <v>101</v>
+        <v>692</v>
       </c>
       <c r="AP10" t="s">
-        <v>102</v>
+        <v>693</v>
       </c>
       <c r="AQ10" t="s">
-        <v>103</v>
+        <v>694</v>
       </c>
       <c r="AR10" t="s">
-        <v>104</v>
+        <v>695</v>
       </c>
       <c r="AS10" t="s">
-        <v>105</v>
+        <v>696</v>
       </c>
       <c r="AT10" t="s">
-        <v>106</v>
+        <v>345</v>
       </c>
     </row>
     <row r="11" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>518</v>
+        <v>742</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>519</v>
+        <v>743</v>
       </c>
       <c r="C11" s="3">
         <f xml:space="preserve"> B11 - I11</f>
-        <v>7.1693796793791904</v>
+        <v>54.037463887629201</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>520</v>
+        <v>744</v>
       </c>
       <c r="E11" s="9">
         <f xml:space="preserve"> C11 / B11</f>
-        <v>6.7289594150963833E-2</v>
+        <v>0.35223470343462338</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>521</v>
+        <v>745</v>
       </c>
       <c r="G11" s="3" t="s">
-        <v>522</v>
+        <v>746</v>
       </c>
       <c r="H11" s="3" t="s">
-        <v>523</v>
+        <v>747</v>
       </c>
       <c r="I11" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>524</v>
+        <v>748</v>
       </c>
       <c r="K11" s="3">
         <f xml:space="preserve"> J11 - I11</f>
-        <v>12.235861714682187</v>
+        <v>58.763706461675184</v>
       </c>
       <c r="L11" s="3">
         <f xml:space="preserve"> $J11 - B11</f>
-        <v>5.0664820353029967</v>
+        <v>4.7262425740459832</v>
       </c>
       <c r="M11" s="3">
         <f xml:space="preserve"> $J11 / B11</f>
-        <v>1.0475524431924366</v>
-      </c>
-      <c r="N11" s="8">
+        <v>1.0308072683590594</v>
+      </c>
+      <c r="N11" s="3">
         <f xml:space="preserve"> $K11 / C11</f>
-        <v>1.7066834596409202</v>
+        <v>1.0874623313905736</v>
       </c>
       <c r="O11" s="3">
         <f xml:space="preserve"> $J11 - F11</f>
-        <v>3.7316640217819952</v>
+        <v>-9.5667663573310051</v>
       </c>
       <c r="P11" s="3">
         <f xml:space="preserve"> $J11 / F11</f>
-        <v>1.0345908902743195</v>
+        <v>0.94295521521934123</v>
       </c>
       <c r="Q11" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R11" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="S11" s="1" t="s">
-        <v>525</v>
+        <v>1212</v>
+      </c>
+      <c r="S11">
+        <v>42.103906250000001</v>
       </c>
       <c r="T11" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="U11">
-        <v>65.834374999999994</v>
+        <v>749</v>
+      </c>
+      <c r="U11" s="1" t="s">
+        <v>750</v>
       </c>
       <c r="V11">
-        <v>61.911328124999997</v>
+        <v>65.969921874999997</v>
       </c>
       <c r="W11">
-        <v>49.980859375000001</v>
+        <v>53.539843750000003</v>
       </c>
       <c r="X11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y11">
-        <v>105.99453124999999</v>
+      <c r="Y11" s="1" t="s">
+        <v>751</v>
       </c>
       <c r="Z11" s="1" t="s">
-        <v>527</v>
+        <v>752</v>
       </c>
       <c r="AA11" s="3">
         <f xml:space="preserve"> Z11 - AH11</f>
-        <v>0.24009999999999998</v>
+        <v>3.6009999999999689</v>
       </c>
       <c r="AB11" s="3">
         <f xml:space="preserve"> C11 / AA11</f>
-        <v>29.859973675048693</v>
+        <v>15.006238235942702</v>
       </c>
       <c r="AC11" s="3">
         <f xml:space="preserve"> B11 / Z11</f>
-        <v>12.121269029856089</v>
+        <v>12.625737403147941</v>
       </c>
       <c r="AD11" s="1" t="s">
-        <v>528</v>
+        <v>753</v>
       </c>
       <c r="AE11" s="1" t="s">
-        <v>529</v>
+        <v>754</v>
       </c>
       <c r="AF11" s="1" t="s">
-        <v>436</v>
+        <v>755</v>
       </c>
       <c r="AG11" s="1" t="s">
-        <v>137</v>
+        <v>756</v>
       </c>
       <c r="AH11" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI11" s="1" t="s">
-        <v>515</v>
+        <v>757</v>
       </c>
       <c r="AJ11" t="s">
-        <v>530</v>
+        <v>758</v>
       </c>
       <c r="AK11" t="s">
-        <v>1545</v>
-      </c>
-      <c r="AL11" s="17" t="str">
+        <v>1420</v>
+      </c>
+      <c r="AL11" t="str">
         <f xml:space="preserve"> VLOOKUP(AK11, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM11" t="s">
-        <v>531</v>
+        <v>759</v>
       </c>
       <c r="AN11" t="s">
-        <v>532</v>
+        <v>760</v>
       </c>
       <c r="AO11" t="s">
-        <v>533</v>
+        <v>761</v>
       </c>
       <c r="AP11" t="s">
-        <v>534</v>
+        <v>762</v>
       </c>
       <c r="AQ11" t="s">
-        <v>535</v>
+        <v>763</v>
       </c>
       <c r="AR11" t="s">
-        <v>536</v>
+        <v>764</v>
       </c>
       <c r="AS11" t="s">
-        <v>537</v>
+        <v>765</v>
       </c>
       <c r="AT11" t="s">
-        <v>538</v>
+        <v>766</v>
       </c>
     </row>
     <row r="12" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>697</v>
+        <v>446</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>698</v>
+        <v>447</v>
       </c>
       <c r="C12" s="3">
         <f xml:space="preserve"> B12 - I12</f>
-        <v>5.6738154093321924</v>
+        <v>39.392379760761202</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>699</v>
+        <v>448</v>
       </c>
       <c r="E12" s="9">
         <f xml:space="preserve"> C12 / B12</f>
-        <v>5.401083258729409E-2</v>
+        <v>0.28387191641518844</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>700</v>
+        <v>449</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>701</v>
+        <v>450</v>
       </c>
       <c r="H12" s="3" t="s">
-        <v>702</v>
+        <v>451</v>
       </c>
       <c r="I12" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>703</v>
+        <v>452</v>
       </c>
       <c r="K12" s="3">
         <f xml:space="preserve"> J12 - I12</f>
-        <v>14.192890930371192</v>
+        <v>42.457479349704187</v>
       </c>
       <c r="L12" s="3">
         <f xml:space="preserve"> $J12 - B12</f>
-        <v>8.5190755210389995</v>
+        <v>3.0650995889429851</v>
       </c>
       <c r="M12" s="3">
         <f xml:space="preserve"> $J12 / B12</f>
-        <v>1.0810957580693499</v>
-      </c>
-      <c r="N12" s="8">
+        <v>1.0220879190239569</v>
+      </c>
+      <c r="N12" s="3">
         <f xml:space="preserve"> $K12 / C12</f>
-        <v>2.5014720970701609</v>
+        <v>1.077809454710734</v>
       </c>
       <c r="O12" s="3">
         <f xml:space="preserve"> $J12 - F12</f>
-        <v>-277.00527292891798</v>
+        <v>-14.329641215175002</v>
       </c>
       <c r="P12" s="3">
         <f xml:space="preserve"> $J12 / F12</f>
-        <v>0.29077377920873543</v>
+        <v>0.90823913775002463</v>
       </c>
       <c r="Q12" s="3" t="s">
         <v>1210</v>
@@ -7620,1732 +7617,1743 @@
         <v>1213</v>
       </c>
       <c r="S12" s="1" t="s">
-        <v>704</v>
+        <v>453</v>
       </c>
       <c r="T12" s="1" t="s">
-        <v>705</v>
-      </c>
-      <c r="U12" s="1" t="s">
-        <v>706</v>
+        <v>454</v>
+      </c>
+      <c r="U12">
+        <v>55.398046874999999</v>
       </c>
       <c r="V12" s="1" t="s">
-        <v>707</v>
-      </c>
-      <c r="W12">
-        <v>182.56484374999999</v>
+        <v>455</v>
+      </c>
+      <c r="W12" s="1" t="s">
+        <v>456</v>
       </c>
       <c r="X12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y12" s="1" t="s">
-        <v>708</v>
+      <c r="Y12">
+        <v>117.96015625</v>
       </c>
       <c r="Z12" s="1" t="s">
-        <v>387</v>
+        <v>457</v>
       </c>
       <c r="AA12" s="3">
         <f xml:space="preserve"> Z12 - AH12</f>
-        <v>0.22010000000000041</v>
+        <v>2.4473999999999698</v>
       </c>
       <c r="AB12" s="3">
         <f xml:space="preserve"> C12 / AA12</f>
-        <v>25.778352609414728</v>
+        <v>16.095603399837252</v>
       </c>
       <c r="AC12" s="3">
         <f xml:space="preserve"> B12 / Z12</f>
-        <v>11.97837867461395</v>
+        <v>12.618459803758105</v>
       </c>
       <c r="AD12" s="1" t="s">
-        <v>709</v>
+        <v>458</v>
       </c>
       <c r="AE12" s="1" t="s">
-        <v>710</v>
+        <v>459</v>
       </c>
       <c r="AF12" s="1" t="s">
-        <v>711</v>
-      </c>
-      <c r="AG12" s="1" t="s">
-        <v>712</v>
+        <v>460</v>
+      </c>
+      <c r="AG12">
+        <v>11.490600000000001</v>
       </c>
       <c r="AH12" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI12">
-        <v>9.2698999999999998</v>
+      <c r="AI12" s="1" t="s">
+        <v>461</v>
       </c>
       <c r="AJ12" t="s">
-        <v>713</v>
+        <v>462</v>
       </c>
       <c r="AK12" t="s">
-        <v>1573</v>
-      </c>
-      <c r="AL12" t="str">
+        <v>1441</v>
+      </c>
+      <c r="AL12" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK12, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>Scientific</v>
       </c>
       <c r="AM12" t="s">
-        <v>714</v>
+        <v>463</v>
       </c>
       <c r="AN12" t="s">
-        <v>62</v>
+        <v>348</v>
       </c>
       <c r="AO12" t="s">
-        <v>715</v>
+        <v>464</v>
       </c>
       <c r="AP12" t="s">
-        <v>716</v>
+        <v>465</v>
       </c>
       <c r="AQ12" t="s">
-        <v>717</v>
+        <v>466</v>
       </c>
       <c r="AR12" t="s">
-        <v>718</v>
+        <v>467</v>
       </c>
       <c r="AS12" t="s">
-        <v>719</v>
+        <v>468</v>
       </c>
       <c r="AT12" t="s">
-        <v>135</v>
+        <v>469</v>
       </c>
     </row>
     <row r="13" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>1161</v>
+        <v>470</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>1162</v>
+        <v>471</v>
       </c>
       <c r="C13" s="3">
         <f xml:space="preserve"> B13 - I13</f>
-        <v>9.8736557007311916</v>
+        <v>19.731751505463194</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>1163</v>
+        <v>472</v>
       </c>
       <c r="E13" s="9">
         <f xml:space="preserve"> C13 / B13</f>
-        <v>9.0377188784001486E-2</v>
-      </c>
-      <c r="F13" s="3" t="s">
-        <v>1164</v>
+        <v>0.16566335821325717</v>
+      </c>
+      <c r="F13" s="2">
+        <v>121.251796976799</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>1165</v>
+        <v>473</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>1166</v>
+        <v>474</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>1167</v>
+        <v>475</v>
       </c>
       <c r="K13" s="3">
         <f xml:space="preserve"> J13 - I13</f>
-        <v>10.656711323956188</v>
+        <v>28.764080810517186</v>
       </c>
       <c r="L13" s="3">
         <f xml:space="preserve"> $J13 - B13</f>
-        <v>0.78305562322499611</v>
+        <v>9.0323293050539917</v>
       </c>
       <c r="M13" s="3">
         <f xml:space="preserve"> $J13 / B13</f>
-        <v>1.0071675950664696</v>
-      </c>
-      <c r="N13" s="3">
+        <v>1.0758334101637641</v>
+      </c>
+      <c r="N13" s="8">
         <f xml:space="preserve"> $K13 / C13</f>
-        <v>1.0793075682360493</v>
+        <v>1.4577560842763087</v>
       </c>
       <c r="O13" s="3">
         <f xml:space="preserve"> $J13 - F13</f>
-        <v>2.2743693032669938</v>
+        <v>6.8880508421719924</v>
       </c>
       <c r="P13" s="3">
         <f xml:space="preserve"> $J13 / F13</f>
-        <v>1.0211062473512029</v>
+        <v>1.0568078248233301</v>
       </c>
       <c r="Q13" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R13" s="3" t="s">
         <v>1211</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>1168</v>
+        <v>476</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>1169</v>
+        <v>477</v>
       </c>
       <c r="U13">
-        <v>50.912109375</v>
+        <v>41.991406249999997</v>
       </c>
       <c r="V13" s="1" t="s">
-        <v>1170</v>
-      </c>
-      <c r="W13" s="1" t="s">
-        <v>1171</v>
+        <v>478</v>
+      </c>
+      <c r="W13">
+        <v>68.564062500000006</v>
       </c>
       <c r="X13" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y13" s="1" t="s">
-        <v>1172</v>
-      </c>
-      <c r="Z13">
-        <v>8.9366000000000003</v>
+        <v>479</v>
+      </c>
+      <c r="Z13" s="1" t="s">
+        <v>344</v>
       </c>
       <c r="AA13" s="3">
         <f xml:space="preserve"> Z13 - AH13</f>
-        <v>0.38676666666667003</v>
+        <v>0.93369999999999997</v>
       </c>
       <c r="AB13" s="3">
         <f xml:space="preserve"> C13 / AA13</f>
-        <v>25.528714213732066</v>
+        <v>21.132860132230046</v>
       </c>
       <c r="AC13" s="3">
         <f xml:space="preserve"> B13 / Z13</f>
-        <v>12.224942674975381</v>
+        <v>12.55940315992461</v>
       </c>
       <c r="AD13" s="1" t="s">
-        <v>1173</v>
-      </c>
-      <c r="AE13">
-        <v>8.9899000000000004</v>
+        <v>480</v>
+      </c>
+      <c r="AE13" s="1" t="s">
+        <v>481</v>
       </c>
       <c r="AF13" s="1" t="s">
-        <v>107</v>
+        <v>482</v>
       </c>
       <c r="AG13" s="1" t="s">
-        <v>787</v>
+        <v>483</v>
       </c>
       <c r="AH13" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI13">
-        <v>9.2833666666666694</v>
+        <v>10.4703</v>
       </c>
       <c r="AJ13" t="s">
-        <v>1174</v>
+        <v>484</v>
       </c>
       <c r="AK13" t="s">
-        <v>1538</v>
+        <v>1427</v>
       </c>
       <c r="AL13" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK13, Classification!A:B, 2, FALSE)</f>
         <v>Scientific</v>
       </c>
       <c r="AM13" t="s">
-        <v>1175</v>
+        <v>485</v>
       </c>
       <c r="AN13" t="s">
-        <v>1176</v>
+        <v>486</v>
       </c>
       <c r="AO13" t="s">
-        <v>1177</v>
+        <v>487</v>
       </c>
       <c r="AP13" t="s">
-        <v>607</v>
+        <v>488</v>
       </c>
       <c r="AQ13" t="s">
-        <v>1178</v>
+        <v>489</v>
       </c>
       <c r="AR13" t="s">
-        <v>1179</v>
+        <v>490</v>
       </c>
       <c r="AS13" t="s">
-        <v>1180</v>
+        <v>491</v>
       </c>
       <c r="AT13" t="s">
-        <v>60</v>
+        <v>492</v>
       </c>
     </row>
     <row r="14" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>373</v>
+        <v>1037</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>374</v>
+        <v>1038</v>
       </c>
       <c r="C14" s="3">
         <f xml:space="preserve"> B14 - I14</f>
-        <v>19.913396199627201</v>
-      </c>
-      <c r="D14" s="2">
-        <v>108.194615682003</v>
+        <v>56.105625406920183</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>1039</v>
       </c>
       <c r="E14" s="9">
         <f xml:space="preserve"> C14 / B14</f>
-        <v>0.16693382419735348</v>
+        <v>0.36085106092330355</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>375</v>
+        <v>1040</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>376</v>
+        <v>1041</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>377</v>
+        <v>1042</v>
       </c>
       <c r="I14" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>378</v>
+        <v>1043</v>
       </c>
       <c r="K14" s="3">
         <f xml:space="preserve"> J14 - I14</f>
-        <v>10.636054484121189</v>
+        <v>63.540981547078189</v>
       </c>
       <c r="L14" s="3">
         <f xml:space="preserve"> $J14 - B14</f>
-        <v>-9.2773417155060116</v>
+        <v>7.4353561401580066</v>
       </c>
       <c r="M14" s="3">
         <f xml:space="preserve"> $J14 / B14</f>
-        <v>0.92222812646172092</v>
+        <v>1.0478215175761623</v>
       </c>
       <c r="N14" s="8">
         <f xml:space="preserve"> $K14 / C14</f>
-        <v>0.5341155460122019</v>
+        <v>1.1325242537843792</v>
       </c>
       <c r="O14" s="3">
         <f xml:space="preserve"> $J14 - F14</f>
-        <v>1.3346054077679952</v>
+        <v>-0.49717051173399796</v>
       </c>
       <c r="P14" s="3">
         <f xml:space="preserve"> $J14 / F14</f>
-        <v>1.0122804526638456</v>
+        <v>0.99695759997329636</v>
       </c>
       <c r="Q14" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="R14" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>379</v>
+        <v>1044</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="U14" s="1" t="s">
-        <v>381</v>
+        <v>1045</v>
+      </c>
+      <c r="U14">
+        <v>55.192578124999997</v>
       </c>
       <c r="V14" s="1" t="s">
-        <v>382</v>
+        <v>1046</v>
       </c>
       <c r="W14" s="1" t="s">
-        <v>383</v>
+        <v>1047</v>
       </c>
       <c r="X14" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y14" s="1" t="s">
-        <v>384</v>
+      <c r="Y14">
+        <v>62.022656249999997</v>
       </c>
       <c r="Z14" s="1" t="s">
-        <v>385</v>
+        <v>1048</v>
       </c>
       <c r="AA14" s="3">
         <f xml:space="preserve"> Z14 - AH14</f>
-        <v>0.80043333333332889</v>
+        <v>3.8476333333332704</v>
       </c>
       <c r="AB14" s="3">
         <f xml:space="preserve"> C14 / AA14</f>
-        <v>24.87826952021069</v>
+        <v>14.581853452837962</v>
       </c>
       <c r="AC14" s="3">
         <f xml:space="preserve"> B14 / Z14</f>
-        <v>12.757835413758015</v>
-      </c>
-      <c r="AD14" s="1" t="s">
-        <v>386</v>
+        <v>12.541384187256655</v>
+      </c>
+      <c r="AD14">
+        <v>11.1105</v>
       </c>
       <c r="AE14" s="1" t="s">
-        <v>141</v>
+        <v>1049</v>
       </c>
       <c r="AF14" s="1" t="s">
-        <v>387</v>
+        <v>1050</v>
       </c>
       <c r="AG14" s="1" t="s">
-        <v>388</v>
+        <v>1051</v>
       </c>
       <c r="AH14" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI14">
-        <v>9.4232999999999993</v>
+        <v>13.0175</v>
       </c>
       <c r="AJ14" t="s">
-        <v>389</v>
+        <v>1052</v>
       </c>
       <c r="AK14" t="s">
-        <v>1280</v>
+        <v>1507</v>
       </c>
       <c r="AL14" t="str">
         <f xml:space="preserve"> VLOOKUP(AK14, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM14" t="s">
-        <v>390</v>
+        <v>1053</v>
       </c>
       <c r="AN14" t="s">
-        <v>391</v>
+        <v>1054</v>
       </c>
       <c r="AO14" t="s">
-        <v>392</v>
+        <v>1055</v>
       </c>
       <c r="AP14" t="s">
-        <v>393</v>
+        <v>1056</v>
       </c>
       <c r="AQ14" t="s">
-        <v>394</v>
+        <v>1057</v>
       </c>
       <c r="AR14" t="s">
-        <v>395</v>
+        <v>1058</v>
       </c>
       <c r="AS14" t="s">
-        <v>396</v>
+        <v>1059</v>
       </c>
       <c r="AT14" t="s">
-        <v>397</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="15" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>976</v>
+        <v>626</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>977</v>
+        <v>627</v>
       </c>
       <c r="C15" s="3">
         <f xml:space="preserve"> B15 - I15</f>
-        <v>7.0573949177241957</v>
+        <v>11.361594136643191</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>978</v>
+        <v>628</v>
       </c>
       <c r="E15" s="9">
         <f xml:space="preserve"> C15 / B15</f>
-        <v>6.6308233167207811E-2</v>
+        <v>0.10259946615267738</v>
       </c>
       <c r="F15" s="3" t="s">
-        <v>979</v>
+        <v>629</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>980</v>
+        <v>630</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>981</v>
+        <v>631</v>
       </c>
       <c r="I15" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>982</v>
+        <v>632</v>
       </c>
       <c r="K15" s="3">
         <f xml:space="preserve"> J15 - I15</f>
-        <v>12.267824808688189</v>
+        <v>20.514142862965187</v>
       </c>
       <c r="L15" s="3">
         <f xml:space="preserve"> $J15 - B15</f>
-        <v>5.2104298909639937</v>
+        <v>9.1525487263219958</v>
       </c>
       <c r="M15" s="3">
         <f xml:space="preserve"> $J15 / B15</f>
-        <v>1.0489549478439619</v>
+        <v>1.0826509556637312</v>
       </c>
       <c r="N15" s="8">
         <f xml:space="preserve"> $K15 / C15</f>
-        <v>1.7382936553370893</v>
+        <v>1.8055690615459827</v>
       </c>
       <c r="O15" s="3">
         <f xml:space="preserve"> $J15 - F15</f>
-        <v>3.1402328490109994</v>
+        <v>-100.957586161262</v>
       </c>
       <c r="P15" s="3">
         <f xml:space="preserve"> $J15 / F15</f>
-        <v>1.0289413422669553</v>
+        <v>0.54286288966426721</v>
       </c>
       <c r="Q15" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S15">
-        <v>62.646484375</v>
+        <v>1213</v>
+      </c>
+      <c r="S15" s="1" t="s">
+        <v>633</v>
       </c>
       <c r="T15">
-        <v>63.5703125</v>
+        <v>164.08906250000001</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>983</v>
+        <v>634</v>
       </c>
       <c r="V15" s="1" t="s">
-        <v>984</v>
+        <v>635</v>
       </c>
       <c r="W15" s="1" t="s">
-        <v>985</v>
+        <v>636</v>
       </c>
       <c r="X15" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y15" s="1" t="s">
-        <v>986</v>
+        <v>637</v>
       </c>
       <c r="Z15" s="1" t="s">
-        <v>832</v>
+        <v>604</v>
       </c>
       <c r="AA15" s="3">
         <f xml:space="preserve"> Z15 - AH15</f>
-        <v>0.28673333333332884</v>
+        <v>0.30010000000000048</v>
       </c>
       <c r="AB15" s="3">
         <f xml:space="preserve"> C15 / AA15</f>
-        <v>24.613095504734851</v>
+        <v>37.859360668587712</v>
       </c>
       <c r="AC15" s="3">
         <f xml:space="preserve"> B15 / Z15</f>
-        <v>12.044628410677385</v>
+        <v>12.512790432895581</v>
       </c>
       <c r="AD15" s="1" t="s">
-        <v>61</v>
+        <v>638</v>
       </c>
       <c r="AE15" s="1" t="s">
-        <v>987</v>
-      </c>
-      <c r="AF15">
-        <v>8.8432999999999993</v>
+        <v>639</v>
+      </c>
+      <c r="AF15" s="1" t="s">
+        <v>640</v>
       </c>
       <c r="AG15" s="1" t="s">
-        <v>343</v>
+        <v>641</v>
       </c>
       <c r="AH15" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI15">
-        <v>9.43</v>
+        <v>10.3969</v>
       </c>
       <c r="AJ15" t="s">
-        <v>988</v>
+        <v>642</v>
       </c>
       <c r="AK15" t="s">
-        <v>1601</v>
-      </c>
-      <c r="AL15" s="7" t="s">
-        <v>1228</v>
+        <v>1357</v>
+      </c>
+      <c r="AL15" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK15, Classification!A:B, 2, FALSE)</f>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM15" t="s">
-        <v>989</v>
+        <v>643</v>
       </c>
       <c r="AN15" t="s">
-        <v>990</v>
+        <v>135</v>
+      </c>
+      <c r="AO15" t="s">
+        <v>644</v>
+      </c>
+      <c r="AP15" t="s">
+        <v>645</v>
+      </c>
+      <c r="AQ15" t="s">
+        <v>646</v>
+      </c>
+      <c r="AR15" t="s">
+        <v>260</v>
       </c>
       <c r="AS15" t="s">
-        <v>991</v>
+        <v>647</v>
       </c>
       <c r="AT15" t="s">
-        <v>992</v>
+        <v>538</v>
       </c>
     </row>
     <row r="16" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>64</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C16" s="3">
+        <v>235</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="C16" s="6">
         <f xml:space="preserve"> B16 - I16</f>
-        <v>13.840857950919187</v>
+        <v>47.180806477889206</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>66</v>
+        <v>237</v>
       </c>
       <c r="E16" s="9">
         <f xml:space="preserve"> C16 / B16</f>
-        <v>0.12225110893286108</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>67</v>
+        <v>0.32192896814884792</v>
+      </c>
+      <c r="F16" s="2">
+        <v>147.09427846272399</v>
       </c>
       <c r="G16" s="3" t="s">
-        <v>68</v>
+        <v>238</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>69</v>
+        <v>239</v>
       </c>
       <c r="I16" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J16" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K16" s="3">
+      <c r="J16" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="K16" s="6">
         <f xml:space="preserve"> J16 - I16</f>
-        <v>6.9143427530391932</v>
+        <v>154.23247273739119</v>
       </c>
       <c r="L16" s="3">
         <f xml:space="preserve"> $J16 - B16</f>
-        <v>-6.9265151978799935</v>
+        <v>107.05166625950199</v>
       </c>
       <c r="M16" s="3">
         <f xml:space="preserve"> $J16 / B16</f>
-        <v>0.93882068821283515</v>
+        <v>1.7304460230811665</v>
       </c>
       <c r="N16" s="8">
         <f xml:space="preserve"> $K16 / C16</f>
-        <v>0.49956027130384673</v>
+        <v>3.2689664346808196</v>
       </c>
       <c r="O16" s="3">
         <f xml:space="preserve"> $J16 - F16</f>
-        <v>-1.7970647176980066</v>
+        <v>106.51396128312101</v>
       </c>
       <c r="P16" s="3">
         <f xml:space="preserve"> $J16 / F16</f>
-        <v>0.98337393195485945</v>
+        <v>1.7241203559804898</v>
       </c>
       <c r="Q16" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R16" s="3" t="s">
-        <v>1212</v>
+        <v>1211</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>71</v>
+        <v>241</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="U16">
-        <v>55.603515625</v>
-      </c>
-      <c r="V16" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="W16" s="1" t="s">
-        <v>74</v>
+        <v>242</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="V16">
+        <v>18.042187500000001</v>
+      </c>
+      <c r="W16">
+        <v>71.846484375000003</v>
       </c>
       <c r="X16" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y16" s="1" t="s">
-        <v>75</v>
+        <v>244</v>
       </c>
       <c r="Z16">
-        <v>9.1767000000000003</v>
+        <v>11.7507</v>
       </c>
       <c r="AA16" s="3">
         <f xml:space="preserve"> Z16 - AH16</f>
-        <v>0.62686666666667001</v>
+        <v>3.2008666666666699</v>
       </c>
       <c r="AB16" s="3">
         <f xml:space="preserve"> C16 / AA16</f>
-        <v>22.079428827372826</v>
+        <v>14.740009938315401</v>
       </c>
       <c r="AC16" s="3">
         <f xml:space="preserve"> B16 / Z16</f>
-        <v>12.337400695170702</v>
-      </c>
-      <c r="AD16">
-        <v>9.0565999999999995</v>
-      </c>
-      <c r="AE16">
-        <v>8.7698999999999998</v>
+        <v>12.472156849067972</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>246</v>
       </c>
       <c r="AF16" s="1" t="s">
-        <v>76</v>
+        <v>247</v>
       </c>
       <c r="AG16" s="1" t="s">
-        <v>77</v>
+        <v>248</v>
       </c>
       <c r="AH16" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI16" s="1" t="s">
-        <v>78</v>
+        <v>249</v>
       </c>
       <c r="AJ16" t="s">
-        <v>79</v>
+        <v>250</v>
       </c>
       <c r="AK16" t="s">
-        <v>1597</v>
-      </c>
-      <c r="AL16" s="7" t="s">
-        <v>1228</v>
+        <v>1226</v>
+      </c>
+      <c r="AL16" s="17" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK16, Classification!A:B, 2, FALSE)</f>
+        <v>Scientific</v>
+      </c>
+      <c r="AM16" t="s">
+        <v>251</v>
+      </c>
+      <c r="AN16" t="s">
+        <v>252</v>
+      </c>
+      <c r="AO16" t="s">
+        <v>253</v>
+      </c>
+      <c r="AP16" t="s">
+        <v>254</v>
       </c>
       <c r="AQ16" t="s">
-        <v>80</v>
+        <v>255</v>
       </c>
       <c r="AR16" t="s">
-        <v>59</v>
+        <v>256</v>
       </c>
       <c r="AS16" t="s">
-        <v>81</v>
+        <v>257</v>
       </c>
       <c r="AT16" t="s">
-        <v>82</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>925</v>
+        <v>1061</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>926</v>
+        <v>1062</v>
       </c>
       <c r="C17" s="3">
         <f xml:space="preserve"> B17 - I17</f>
-        <v>113.86017557774619</v>
+        <v>6.7532735189381867</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>927</v>
+        <v>1063</v>
       </c>
       <c r="E17" s="9">
         <f xml:space="preserve"> C17 / B17</f>
-        <v>0.53396333749746971</v>
+        <v>6.3632663457417776E-2</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>928</v>
+        <v>1064</v>
       </c>
       <c r="G17" s="3" t="s">
-        <v>929</v>
+        <v>1065</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>930</v>
+        <v>1066</v>
       </c>
       <c r="I17" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>931</v>
+        <v>1067</v>
       </c>
       <c r="K17" s="3">
         <f xml:space="preserve"> J17 - I17</f>
-        <v>115.60016377768619</v>
+        <v>11.599691263836192</v>
       </c>
       <c r="L17" s="3">
         <f xml:space="preserve"> $J17 - B17</f>
-        <v>1.7399881999400009</v>
+        <v>4.8464177448980053</v>
       </c>
       <c r="M17" s="3">
         <f xml:space="preserve"> $J17 / B17</f>
-        <v>1.0081599198467051</v>
-      </c>
-      <c r="N17" s="3">
+        <v>1.0456653308162824</v>
+      </c>
+      <c r="N17" s="8">
         <f xml:space="preserve"> $K17 / C17</f>
-        <v>1.0152817979694042</v>
+        <v>1.7176397833298487</v>
       </c>
       <c r="O17" s="3">
         <f xml:space="preserve"> $J17 - F17</f>
-        <v>6.4333455403329936</v>
+        <v>-98.377396647149013</v>
       </c>
       <c r="P17" s="3">
         <f xml:space="preserve"> $J17 / F17</f>
-        <v>1.0308490735009834</v>
+        <v>0.53008810562910369</v>
       </c>
       <c r="Q17" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R17" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S17" s="1" t="s">
-        <v>932</v>
-      </c>
-      <c r="T17" s="1" t="s">
-        <v>933</v>
-      </c>
-      <c r="U17" s="1" t="s">
-        <v>934</v>
+        <v>1213</v>
+      </c>
+      <c r="S17">
+        <v>60.364843749999999</v>
+      </c>
+      <c r="T17">
+        <v>144.19999999999999</v>
+      </c>
+      <c r="U17">
+        <v>138.96796875000001</v>
       </c>
       <c r="V17" s="1" t="s">
-        <v>935</v>
-      </c>
-      <c r="W17" s="1" t="s">
-        <v>936</v>
+        <v>1068</v>
+      </c>
+      <c r="W17">
+        <v>104.508984375</v>
       </c>
       <c r="X17" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y17" s="1" t="s">
-        <v>937</v>
-      </c>
-      <c r="Z17" s="1" t="s">
-        <v>938</v>
+      <c r="Y17">
+        <v>120.8390625</v>
+      </c>
+      <c r="Z17">
+        <v>8.5297999999999998</v>
       </c>
       <c r="AA17" s="3">
         <f xml:space="preserve"> Z17 - AH17</f>
-        <v>5.1817333333332698</v>
+        <v>-2.0033333333330461E-2</v>
       </c>
       <c r="AB17" s="3">
         <f xml:space="preserve"> C17 / AA17</f>
-        <v>21.973376137537166</v>
+        <v>-337.10183954771156</v>
       </c>
       <c r="AC17" s="3">
         <f xml:space="preserve"> B17 / Z17</f>
-        <v>15.528886671309733</v>
+        <v>12.442148764026355</v>
       </c>
       <c r="AD17" s="1" t="s">
-        <v>939</v>
+        <v>1069</v>
       </c>
       <c r="AE17" s="1" t="s">
-        <v>940</v>
-      </c>
-      <c r="AF17">
-        <v>9.9305000000000003</v>
+        <v>1070</v>
+      </c>
+      <c r="AF17" s="1" t="s">
+        <v>1071</v>
       </c>
       <c r="AG17">
-        <v>8.5699000000000005</v>
+        <v>18.133099999999999</v>
       </c>
       <c r="AH17" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI17" s="1" t="s">
-        <v>941</v>
+      <c r="AI17">
+        <v>9.3498999999999999</v>
       </c>
       <c r="AJ17" t="s">
-        <v>942</v>
+        <v>1072</v>
       </c>
       <c r="AK17" t="s">
-        <v>1330</v>
-      </c>
-      <c r="AL17" s="17" t="str">
+        <v>1229</v>
+      </c>
+      <c r="AL17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK17, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM17" t="s">
-        <v>943</v>
+        <v>1073</v>
       </c>
       <c r="AN17" t="s">
-        <v>944</v>
+        <v>1074</v>
       </c>
       <c r="AO17" t="s">
-        <v>945</v>
+        <v>1075</v>
       </c>
       <c r="AP17" t="s">
-        <v>946</v>
+        <v>1076</v>
       </c>
       <c r="AQ17" t="s">
-        <v>947</v>
+        <v>1077</v>
       </c>
       <c r="AR17" t="s">
-        <v>948</v>
+        <v>1078</v>
       </c>
       <c r="AS17" t="s">
-        <v>949</v>
+        <v>1079</v>
       </c>
       <c r="AT17" t="s">
-        <v>950</v>
+        <v>140</v>
       </c>
     </row>
     <row r="18" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>470</v>
+        <v>951</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>471</v>
+        <v>952</v>
       </c>
       <c r="C18" s="3">
         <f xml:space="preserve"> B18 - I18</f>
-        <v>19.731751505463194</v>
+        <v>30.89023183195718</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>472</v>
+        <v>953</v>
       </c>
       <c r="E18" s="9">
         <f xml:space="preserve"> C18 / B18</f>
-        <v>0.16566335821325717</v>
-      </c>
-      <c r="F18" s="2">
-        <v>121.251796976799</v>
+        <v>0.23713196157810018</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>954</v>
       </c>
       <c r="G18" s="3" t="s">
-        <v>473</v>
+        <v>955</v>
       </c>
       <c r="H18" s="3" t="s">
-        <v>474</v>
+        <v>956</v>
       </c>
       <c r="I18" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>475</v>
+        <v>957</v>
       </c>
       <c r="K18" s="3">
         <f xml:space="preserve"> J18 - I18</f>
-        <v>28.764080810517186</v>
+        <v>33.543582661839196</v>
       </c>
       <c r="L18" s="3">
         <f xml:space="preserve"> $J18 - B18</f>
-        <v>9.0323293050539917</v>
+        <v>2.6533508298820152</v>
       </c>
       <c r="M18" s="3">
         <f xml:space="preserve"> $J18 / B18</f>
-        <v>1.0758334101637641</v>
-      </c>
-      <c r="N18" s="8">
+        <v>1.0203687136589852</v>
+      </c>
+      <c r="N18" s="3">
         <f xml:space="preserve"> $K18 / C18</f>
-        <v>1.4577560842763087</v>
+        <v>1.0858961125418625</v>
       </c>
       <c r="O18" s="3">
         <f xml:space="preserve"> $J18 - F18</f>
-        <v>6.8880508421719924</v>
+        <v>-10.290323384727003</v>
       </c>
       <c r="P18" s="3">
         <f xml:space="preserve"> $J18 / F18</f>
-        <v>1.0568078248233301</v>
+        <v>0.92814505357627941</v>
       </c>
       <c r="Q18" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="R18" s="3" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>476</v>
+        <v>958</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>477</v>
-      </c>
-      <c r="U18">
-        <v>41.991406249999997</v>
+        <v>959</v>
+      </c>
+      <c r="U18" s="1" t="s">
+        <v>960</v>
       </c>
       <c r="V18" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="W18">
-        <v>68.564062500000006</v>
+        <v>961</v>
+      </c>
+      <c r="W18" s="1" t="s">
+        <v>962</v>
       </c>
       <c r="X18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y18" s="1" t="s">
-        <v>479</v>
+      <c r="Y18">
+        <v>98.155078125000003</v>
       </c>
       <c r="Z18" s="1" t="s">
-        <v>344</v>
+        <v>963</v>
       </c>
       <c r="AA18" s="3">
         <f xml:space="preserve"> Z18 - AH18</f>
-        <v>0.93369999999999997</v>
+        <v>1.9539333333332696</v>
       </c>
       <c r="AB18" s="3">
         <f xml:space="preserve"> C18 / AA18</f>
-        <v>21.132860132230046</v>
+        <v>15.809255773972938</v>
       </c>
       <c r="AC18" s="3">
         <f xml:space="preserve"> B18 / Z18</f>
-        <v>12.55940315992461</v>
+        <v>12.401836691004036</v>
       </c>
       <c r="AD18" s="1" t="s">
-        <v>480</v>
-      </c>
-      <c r="AE18" s="1" t="s">
-        <v>481</v>
+        <v>964</v>
+      </c>
+      <c r="AE18">
+        <v>10.6372</v>
       </c>
       <c r="AF18" s="1" t="s">
-        <v>482</v>
+        <v>965</v>
       </c>
       <c r="AG18" s="1" t="s">
-        <v>483</v>
+        <v>966</v>
       </c>
       <c r="AH18" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI18">
-        <v>10.4703</v>
+        <v>10.2902</v>
       </c>
       <c r="AJ18" t="s">
-        <v>484</v>
+        <v>967</v>
       </c>
       <c r="AK18" t="s">
-        <v>1427</v>
+        <v>1433</v>
       </c>
       <c r="AL18" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK18, Classification!A:B, 2, FALSE)</f>
         <v>Scientific</v>
       </c>
       <c r="AM18" t="s">
-        <v>485</v>
+        <v>968</v>
       </c>
       <c r="AN18" t="s">
-        <v>486</v>
+        <v>969</v>
       </c>
       <c r="AO18" t="s">
-        <v>487</v>
+        <v>970</v>
       </c>
       <c r="AP18" t="s">
-        <v>488</v>
+        <v>971</v>
       </c>
       <c r="AQ18" t="s">
-        <v>489</v>
+        <v>972</v>
       </c>
       <c r="AR18" t="s">
-        <v>490</v>
+        <v>973</v>
       </c>
       <c r="AS18" t="s">
-        <v>491</v>
+        <v>974</v>
       </c>
       <c r="AT18" t="s">
-        <v>492</v>
+        <v>975</v>
       </c>
     </row>
     <row r="19" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
-        <v>317</v>
+        <v>165</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>318</v>
+        <v>166</v>
       </c>
       <c r="C19" s="3">
         <f xml:space="preserve"> B19 - I19</f>
-        <v>8.4925730386391933</v>
+        <v>17.586607360814199</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>319</v>
+        <v>167</v>
       </c>
       <c r="E19" s="9">
         <f xml:space="preserve"> C19 / B19</f>
-        <v>7.8730914325107051E-2</v>
+        <v>0.15036123758304193</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>320</v>
+        <v>168</v>
       </c>
       <c r="G19" s="3" t="s">
-        <v>321</v>
+        <v>169</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>322</v>
+        <v>170</v>
       </c>
       <c r="I19" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J19" s="3" t="s">
-        <v>323</v>
+      <c r="J19" s="2">
+        <v>111.4263900758</v>
       </c>
       <c r="K19" s="3">
         <f xml:space="preserve"> J19 - I19</f>
-        <v>10.303925577599188</v>
+        <v>12.050623067346194</v>
       </c>
       <c r="L19" s="3">
         <f xml:space="preserve"> $J19 - B19</f>
-        <v>1.8113525389599943</v>
+        <v>-5.5359842934680046</v>
       </c>
       <c r="M19" s="3">
         <f xml:space="preserve"> $J19 / B19</f>
-        <v>1.0167922537620324</v>
-      </c>
-      <c r="N19" s="3">
+        <v>0.95266867380795417</v>
+      </c>
+      <c r="N19" s="8">
         <f xml:space="preserve"> $K19 / C19</f>
-        <v>1.2132866600874399</v>
+        <v>0.68521590435895718</v>
       </c>
       <c r="O19" s="3">
         <f xml:space="preserve"> $J19 - F19</f>
-        <v>-14.690215555950999</v>
+        <v>-130.56173706056597</v>
       </c>
       <c r="P19" s="3">
         <f xml:space="preserve"> $J19 / F19</f>
-        <v>0.88188287845981284</v>
+        <v>0.46046221934272258</v>
       </c>
       <c r="Q19" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R19" s="3" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>324</v>
+        <v>171</v>
       </c>
       <c r="T19">
-        <v>62.698437499999997</v>
+        <v>116.85585937499999</v>
       </c>
       <c r="U19" s="1" t="s">
-        <v>325</v>
+        <v>172</v>
       </c>
       <c r="V19" s="1" t="s">
-        <v>326</v>
-      </c>
-      <c r="W19">
-        <v>54.275781250000001</v>
+        <v>173</v>
+      </c>
+      <c r="W19" s="1" t="s">
+        <v>174</v>
       </c>
       <c r="X19" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y19" s="1" t="s">
-        <v>327</v>
+      <c r="Y19">
+        <v>106.869921875</v>
       </c>
       <c r="Z19" s="1" t="s">
-        <v>328</v>
+        <v>175</v>
       </c>
       <c r="AA19" s="3">
         <f xml:space="preserve"> Z19 - AH19</f>
-        <v>0.42013333333333058</v>
+        <v>0.88689999999999891</v>
       </c>
       <c r="AB19" s="3">
         <f xml:space="preserve"> C19 / AA19</f>
-        <v>20.213994855536136</v>
+        <v>19.829301342670224</v>
       </c>
       <c r="AC19" s="3">
         <f xml:space="preserve"> B19 / Z19</f>
-        <v>12.02550065742642</v>
+        <v>12.394371043221318</v>
       </c>
       <c r="AD19" s="1" t="s">
-        <v>329</v>
+        <v>176</v>
       </c>
       <c r="AE19" s="1" t="s">
-        <v>330</v>
+        <v>177</v>
       </c>
       <c r="AF19" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="AG19" s="1" t="s">
-        <v>311</v>
+        <v>178</v>
+      </c>
+      <c r="AG19">
+        <v>18.2332</v>
       </c>
       <c r="AH19" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI19" s="1" t="s">
-        <v>332</v>
+      <c r="AI19">
+        <v>10.2036</v>
       </c>
       <c r="AJ19" s="7" t="s">
-        <v>333</v>
+        <v>179</v>
       </c>
       <c r="AK19" t="s">
-        <v>1494</v>
+        <v>1394</v>
       </c>
       <c r="AL19" t="str">
         <f xml:space="preserve"> VLOOKUP(AK19, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM19" t="s">
-        <v>334</v>
+        <v>180</v>
       </c>
       <c r="AN19" t="s">
-        <v>335</v>
+        <v>181</v>
       </c>
       <c r="AO19" t="s">
-        <v>336</v>
+        <v>182</v>
       </c>
       <c r="AP19" t="s">
-        <v>337</v>
+        <v>183</v>
       </c>
       <c r="AQ19" t="s">
-        <v>338</v>
+        <v>184</v>
       </c>
       <c r="AR19" t="s">
-        <v>339</v>
+        <v>185</v>
       </c>
       <c r="AS19" t="s">
-        <v>340</v>
+        <v>186</v>
       </c>
       <c r="AT19" t="s">
-        <v>341</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>833</v>
+        <v>494</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>834</v>
+        <v>495</v>
       </c>
       <c r="C20" s="3">
         <f xml:space="preserve"> B20 - I20</f>
-        <v>29.279698181045205</v>
+        <v>6.0253417969091885</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>835</v>
+        <v>496</v>
       </c>
       <c r="E20" s="9">
         <f xml:space="preserve"> C20 / B20</f>
-        <v>0.22758223397598071</v>
+        <v>5.7165829327619072E-2</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>836</v>
+        <v>497</v>
       </c>
       <c r="G20" s="3" t="s">
-        <v>837</v>
+        <v>498</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>838</v>
+        <v>499</v>
       </c>
       <c r="I20" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J20" s="3" t="s">
-        <v>839</v>
+        <v>500</v>
       </c>
       <c r="K20" s="3">
         <f xml:space="preserve"> J20 - I20</f>
-        <v>47.306265258728189</v>
+        <v>12.3446858723822</v>
       </c>
       <c r="L20" s="3">
         <f xml:space="preserve"> $J20 - B20</f>
-        <v>18.026567077682984</v>
+        <v>6.3193440754730119</v>
       </c>
       <c r="M20" s="3">
         <f xml:space="preserve"> $J20 / B20</f>
-        <v>1.1401150510872688</v>
+        <v>1.0599551954158519</v>
       </c>
       <c r="N20" s="8">
         <f xml:space="preserve"> $K20 / C20</f>
-        <v>1.6156677902285497</v>
+        <v>2.0487942905935457</v>
       </c>
       <c r="O20" s="3">
         <f xml:space="preserve"> $J20 - F20</f>
-        <v>23.419403584717998</v>
+        <v>3.6312433878220105</v>
       </c>
       <c r="P20" s="3">
         <f xml:space="preserve"> $J20 / F20</f>
-        <v>1.1899959771671635</v>
+        <v>1.0335948741308605</v>
       </c>
       <c r="Q20" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R20" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S20">
-        <v>64.537890625000003</v>
+        <v>1213</v>
+      </c>
+      <c r="S20" s="1" t="s">
+        <v>501</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>840</v>
-      </c>
-      <c r="U20">
-        <v>61.215625000000003</v>
+        <v>502</v>
+      </c>
+      <c r="U20" s="1" t="s">
+        <v>503</v>
       </c>
       <c r="V20" s="1" t="s">
-        <v>841</v>
-      </c>
-      <c r="W20" s="1" t="s">
-        <v>842</v>
+        <v>504</v>
+      </c>
+      <c r="W20">
+        <v>54.454687499999999</v>
       </c>
       <c r="X20" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y20" s="1" t="s">
-        <v>843</v>
+      <c r="Y20">
+        <v>99.778515624999997</v>
       </c>
       <c r="Z20" s="1" t="s">
-        <v>844</v>
+        <v>505</v>
       </c>
       <c r="AA20" s="3">
         <f xml:space="preserve"> Z20 - AH20</f>
-        <v>1.460366666666669</v>
+        <v>-3.3300000000000551E-2</v>
       </c>
       <c r="AB20" s="3">
         <f xml:space="preserve"> C20 / AA20</f>
-        <v>20.049552519489506</v>
+        <v>-180.94119510237505</v>
       </c>
       <c r="AC20" s="3">
         <f xml:space="preserve"> B20 / Z20</f>
-        <v>12.852437033176063</v>
+        <v>12.376057801926024</v>
       </c>
       <c r="AD20" s="1" t="s">
-        <v>845</v>
-      </c>
-      <c r="AE20">
-        <v>10.083500000000001</v>
+        <v>506</v>
+      </c>
+      <c r="AE20" s="1" t="s">
+        <v>507</v>
       </c>
       <c r="AF20" s="1" t="s">
-        <v>846</v>
-      </c>
-      <c r="AG20">
-        <v>10.537100000000001</v>
+        <v>508</v>
+      </c>
+      <c r="AG20" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="AH20" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI20" s="1" t="s">
-        <v>847</v>
+        <v>509</v>
       </c>
       <c r="AJ20" t="s">
-        <v>848</v>
+        <v>510</v>
       </c>
       <c r="AK20" t="s">
-        <v>1324</v>
-      </c>
-      <c r="AL20" s="17" t="str">
+        <v>1379</v>
+      </c>
+      <c r="AL20" t="str">
         <f xml:space="preserve"> VLOOKUP(AK20, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM20" t="s">
-        <v>849</v>
+        <v>511</v>
       </c>
       <c r="AN20" t="s">
-        <v>850</v>
+        <v>512</v>
       </c>
       <c r="AO20" t="s">
-        <v>851</v>
+        <v>513</v>
       </c>
       <c r="AP20" t="s">
-        <v>852</v>
-      </c>
-      <c r="AQ20" t="s">
-        <v>853</v>
-      </c>
-      <c r="AR20" t="s">
-        <v>854</v>
+        <v>233</v>
+      </c>
+      <c r="AS20" t="s">
+        <v>514</v>
+      </c>
+      <c r="AT20" t="s">
+        <v>490</v>
       </c>
     </row>
     <row r="21" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>858</v>
+        <v>1181</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>859</v>
+        <v>1182</v>
       </c>
       <c r="C21" s="3">
         <f xml:space="preserve"> B21 - I21</f>
-        <v>8.7448374430451992</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>860</v>
+        <v>6.3875233968731919</v>
+      </c>
+      <c r="D21" s="2">
+        <v>216.439360046476</v>
       </c>
       <c r="E21" s="9">
         <f xml:space="preserve"> C21 / B21</f>
-        <v>8.0880397287900654E-2</v>
+        <v>6.0394522261870462E-2</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>861</v>
+        <v>1183</v>
       </c>
       <c r="G21" s="3" t="s">
-        <v>862</v>
+        <v>1184</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>863</v>
+        <v>1185</v>
       </c>
       <c r="I21" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J21" s="4" t="s">
-        <v>864</v>
+      <c r="J21" s="3" t="s">
+        <v>1186</v>
       </c>
       <c r="K21" s="3">
         <f xml:space="preserve"> J21 - I21</f>
-        <v>8.0354690552311894</v>
+        <v>9.4102493287781925</v>
       </c>
       <c r="L21" s="3">
         <f xml:space="preserve"> $J21 - B21</f>
-        <v>-0.70936838781400979</v>
+        <v>3.0227259319050006</v>
       </c>
       <c r="M21" s="3">
         <f xml:space="preserve"> $J21 / B21</f>
-        <v>0.9934391007947776</v>
+        <v>1.0285801048768501</v>
       </c>
       <c r="N21" s="8">
         <f xml:space="preserve"> $K21 / C21</f>
-        <v>0.91888146664428016</v>
+        <v>1.4732234614412025</v>
       </c>
       <c r="O21" s="3">
         <f xml:space="preserve"> $J21 - F21</f>
-        <v>-6.964987182546011</v>
+        <v>-104.83563181545999</v>
       </c>
       <c r="P21" s="3">
         <f xml:space="preserve"> $J21 / F21</f>
-        <v>0.93910458848119449</v>
+        <v>0.50924621768424039</v>
       </c>
       <c r="Q21" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R21" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S21">
-        <v>56.383593750000003</v>
+        <v>69.400781249999994</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>865</v>
+        <v>1187</v>
       </c>
       <c r="U21" s="1" t="s">
-        <v>866</v>
+        <v>1188</v>
       </c>
       <c r="V21" s="1" t="s">
-        <v>867</v>
+        <v>1189</v>
       </c>
       <c r="W21" s="1" t="s">
-        <v>868</v>
+        <v>1190</v>
       </c>
       <c r="X21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y21" s="1" t="s">
-        <v>869</v>
+      <c r="Y21">
+        <v>74.419921875</v>
       </c>
       <c r="Z21">
-        <v>8.9899000000000004</v>
+        <v>8.5498999999999992</v>
       </c>
       <c r="AA21" s="3">
         <f xml:space="preserve"> Z21 - AH21</f>
-        <v>0.44006666666667016</v>
+        <v>6.666666666887977E-5</v>
       </c>
       <c r="AB21" s="3">
         <f xml:space="preserve"> C21 / AA21</f>
-        <v>19.871619700905462</v>
+        <v>95812.850949917221</v>
       </c>
       <c r="AC21" s="3">
         <f xml:space="preserve"> B21 / Z21</f>
-        <v>12.026897346077153</v>
-      </c>
-      <c r="AD21" s="1" t="s">
-        <v>870</v>
+        <v>12.37012016577118</v>
+      </c>
+      <c r="AD21">
+        <v>18.253299999999999</v>
       </c>
       <c r="AE21" s="1" t="s">
-        <v>688</v>
+        <v>1191</v>
       </c>
       <c r="AF21" s="1" t="s">
-        <v>871</v>
+        <v>1192</v>
       </c>
       <c r="AG21" s="1" t="s">
-        <v>872</v>
+        <v>1193</v>
       </c>
       <c r="AH21" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI21" s="1" t="s">
-        <v>873</v>
+      <c r="AI21">
+        <v>9.7098999999999993</v>
       </c>
       <c r="AJ21" t="s">
-        <v>874</v>
+        <v>1194</v>
       </c>
       <c r="AK21" t="s">
-        <v>1520</v>
-      </c>
-      <c r="AL21" s="17" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK21, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>1595</v>
+      </c>
+      <c r="AL21" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM21" t="s">
-        <v>875</v>
+        <v>1195</v>
       </c>
       <c r="AN21" t="s">
-        <v>876</v>
+        <v>1196</v>
       </c>
       <c r="AO21" t="s">
-        <v>877</v>
+        <v>1197</v>
       </c>
       <c r="AP21" t="s">
-        <v>878</v>
+        <v>1198</v>
       </c>
       <c r="AQ21" t="s">
-        <v>879</v>
+        <v>1199</v>
       </c>
       <c r="AR21" t="s">
-        <v>880</v>
+        <v>1200</v>
       </c>
       <c r="AS21" t="s">
-        <v>881</v>
+        <v>1201</v>
       </c>
       <c r="AT21" t="s">
-        <v>882</v>
+        <v>1202</v>
       </c>
     </row>
     <row r="22" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A22" s="7" t="s">
-        <v>165</v>
+      <c r="A22" t="s">
+        <v>562</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>166</v>
+        <v>563</v>
       </c>
       <c r="C22" s="3">
         <f xml:space="preserve"> B22 - I22</f>
-        <v>17.586607360814199</v>
+        <v>6.5891021728942007</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>167</v>
+        <v>564</v>
       </c>
       <c r="E22" s="9">
         <f xml:space="preserve"> C22 / B22</f>
-        <v>0.15036123758304193</v>
+        <v>6.2181949770707762E-2</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>168</v>
+        <v>565</v>
       </c>
       <c r="G22" s="3" t="s">
-        <v>169</v>
+        <v>566</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>170</v>
+        <v>567</v>
       </c>
       <c r="I22" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J22" s="2">
-        <v>111.4263900758</v>
+      <c r="J22" s="3" t="s">
+        <v>568</v>
       </c>
       <c r="K22" s="3">
         <f xml:space="preserve"> J22 - I22</f>
-        <v>12.050623067346194</v>
+        <v>7.8106201171191998</v>
       </c>
       <c r="L22" s="3">
         <f xml:space="preserve"> $J22 - B22</f>
-        <v>-5.5359842934680046</v>
+        <v>1.221517944224999</v>
       </c>
       <c r="M22" s="3">
         <f xml:space="preserve"> $J22 / B22</f>
-        <v>0.95266867380795417</v>
-      </c>
-      <c r="N22" s="8">
+        <v>1.0115275746920849</v>
+      </c>
+      <c r="N22" s="3">
         <f xml:space="preserve"> $K22 / C22</f>
-        <v>0.68521590435895718</v>
+        <v>1.1853845808082923</v>
       </c>
       <c r="O22" s="3">
         <f xml:space="preserve"> $J22 - F22</f>
-        <v>-130.56173706056597</v>
+        <v>-111.27218882249399</v>
       </c>
       <c r="P22" s="3">
         <f xml:space="preserve"> $J22 / F22</f>
-        <v>0.46046221934272258</v>
+        <v>0.49064856648637067</v>
       </c>
       <c r="Q22" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R22" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="S22" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="T22">
-        <v>116.85585937499999</v>
-      </c>
-      <c r="U22" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="V22" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="W22" s="1" t="s">
-        <v>174</v>
+        <v>1212</v>
+      </c>
+      <c r="S22">
+        <v>58.617968750000003</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="U22">
+        <v>124.35312500000001</v>
+      </c>
+      <c r="V22">
+        <v>110.240234375</v>
+      </c>
+      <c r="W22">
+        <v>107.7296875</v>
       </c>
       <c r="X22" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y22">
-        <v>106.869921875</v>
+        <v>89.404687499999994</v>
       </c>
       <c r="Z22" s="1" t="s">
-        <v>175</v>
+        <v>570</v>
       </c>
       <c r="AA22" s="3">
         <f xml:space="preserve"> Z22 - AH22</f>
-        <v>0.88689999999999891</v>
+        <v>2.6733333333329057E-2</v>
       </c>
       <c r="AB22" s="3">
         <f xml:space="preserve"> C22 / AA22</f>
-        <v>19.829301342670224</v>
+        <v>246.47514362451076</v>
       </c>
       <c r="AC22" s="3">
         <f xml:space="preserve"> B22 / Z22</f>
-        <v>12.394371043221318</v>
+        <v>12.355161838033258</v>
       </c>
       <c r="AD22" s="1" t="s">
-        <v>176</v>
+        <v>571</v>
       </c>
       <c r="AE22" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="AF22" s="1" t="s">
-        <v>178</v>
+        <v>572</v>
+      </c>
+      <c r="AF22">
+        <v>17.9666</v>
       </c>
       <c r="AG22">
-        <v>18.2332</v>
+        <v>17.88</v>
       </c>
       <c r="AH22" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI22">
-        <v>10.2036</v>
-      </c>
-      <c r="AJ22" s="7" t="s">
-        <v>179</v>
+        <v>9.5299999999999994</v>
+      </c>
+      <c r="AJ22" t="s">
+        <v>573</v>
       </c>
       <c r="AK22" t="s">
-        <v>1394</v>
-      </c>
-      <c r="AL22" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK22, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>1593</v>
+      </c>
+      <c r="AL22" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM22" t="s">
-        <v>180</v>
+        <v>574</v>
       </c>
       <c r="AN22" t="s">
-        <v>181</v>
+        <v>493</v>
       </c>
       <c r="AO22" t="s">
-        <v>182</v>
+        <v>575</v>
       </c>
       <c r="AP22" t="s">
-        <v>183</v>
+        <v>576</v>
       </c>
       <c r="AQ22" t="s">
-        <v>184</v>
+        <v>577</v>
       </c>
       <c r="AR22" t="s">
-        <v>185</v>
+        <v>314</v>
       </c>
       <c r="AS22" t="s">
-        <v>186</v>
+        <v>578</v>
       </c>
       <c r="AT22" t="s">
-        <v>187</v>
+        <v>579</v>
       </c>
     </row>
     <row r="23" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>539</v>
+        <v>64</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>540</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3">
         <f xml:space="preserve"> B23 - I23</f>
-        <v>7.5158854167551965</v>
+        <v>13.840857950919187</v>
       </c>
       <c r="D23" s="3" t="s">
-        <v>541</v>
+        <v>66</v>
       </c>
       <c r="E23" s="9">
         <f xml:space="preserve"> C23 / B23</f>
-        <v>7.0313118435641961E-2</v>
+        <v>0.12225110893286108</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>542</v>
+        <v>67</v>
       </c>
       <c r="G23" s="3" t="s">
-        <v>543</v>
+        <v>68</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>544</v>
+        <v>69</v>
       </c>
       <c r="I23" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J23" s="3" t="s">
-        <v>545</v>
+        <v>70</v>
       </c>
       <c r="K23" s="3">
         <f xml:space="preserve"> J23 - I23</f>
-        <v>15.837411498978199</v>
+        <v>6.9143427530391932</v>
       </c>
       <c r="L23" s="3">
         <f xml:space="preserve"> $J23 - B23</f>
-        <v>8.3215260822230022</v>
+        <v>-6.9265151978799935</v>
       </c>
       <c r="M23" s="3">
         <f xml:space="preserve"> $J23 / B23</f>
-        <v>1.0778501023552376</v>
+        <v>0.93882068821283515</v>
       </c>
       <c r="N23" s="8">
         <f xml:space="preserve"> $K23 / C23</f>
-        <v>2.1071917173819319</v>
+        <v>0.49956027130384673</v>
       </c>
       <c r="O23" s="3">
         <f xml:space="preserve"> $J23 - F23</f>
-        <v>-59.460222880184986</v>
+        <v>-1.7970647176980066</v>
       </c>
       <c r="P23" s="3">
         <f xml:space="preserve"> $J23 / F23</f>
-        <v>0.65959200194288847</v>
+        <v>0.98337393195485945</v>
       </c>
       <c r="Q23" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="R23" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="S23">
-        <v>60.1015625</v>
+        <v>1212</v>
+      </c>
+      <c r="S23" s="1" t="s">
+        <v>71</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>546</v>
-      </c>
-      <c r="U23" s="1" t="s">
-        <v>547</v>
+        <v>72</v>
+      </c>
+      <c r="U23">
+        <v>55.603515625</v>
       </c>
       <c r="V23" s="1" t="s">
-        <v>548</v>
+        <v>73</v>
       </c>
       <c r="W23" s="1" t="s">
-        <v>549</v>
+        <v>74</v>
       </c>
       <c r="X23" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y23" s="1" t="s">
-        <v>550</v>
-      </c>
-      <c r="Z23" s="1" t="s">
-        <v>398</v>
+        <v>75</v>
+      </c>
+      <c r="Z23">
+        <v>9.1767000000000003</v>
       </c>
       <c r="AA23" s="3">
         <f xml:space="preserve"> Z23 - AH23</f>
-        <v>0.38669999999999938</v>
+        <v>0.62686666666667001</v>
       </c>
       <c r="AB23" s="3">
         <f xml:space="preserve"> C23 / AA23</f>
-        <v>19.435959184782025</v>
+        <v>22.079428827372826</v>
       </c>
       <c r="AC23" s="3">
         <f xml:space="preserve"> B23 / Z23</f>
-        <v>11.961198871882726</v>
+        <v>12.337400695170702</v>
       </c>
       <c r="AD23">
-        <v>8.9565999999999999</v>
-      </c>
-      <c r="AE23" s="1" t="s">
-        <v>551</v>
-      </c>
-      <c r="AF23">
-        <v>8.7432999999999996</v>
-      </c>
-      <c r="AG23">
-        <v>9.27</v>
+        <v>9.0565999999999995</v>
+      </c>
+      <c r="AE23">
+        <v>8.7698999999999998</v>
+      </c>
+      <c r="AF23" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="AG23" s="1" t="s">
+        <v>77</v>
       </c>
       <c r="AH23" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI23" s="1" t="s">
-        <v>552</v>
+        <v>78</v>
       </c>
       <c r="AJ23" t="s">
-        <v>553</v>
+        <v>79</v>
       </c>
       <c r="AK23" t="s">
-        <v>1362</v>
-      </c>
-      <c r="AL23" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK23, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
-      </c>
-      <c r="AM23" t="s">
-        <v>554</v>
-      </c>
-      <c r="AN23" t="s">
-        <v>555</v>
-      </c>
-      <c r="AO23" t="s">
-        <v>556</v>
-      </c>
-      <c r="AP23" t="s">
-        <v>557</v>
+        <v>1597</v>
+      </c>
+      <c r="AL23" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AQ23" t="s">
-        <v>558</v>
+        <v>80</v>
       </c>
       <c r="AR23" t="s">
-        <v>559</v>
+        <v>59</v>
       </c>
       <c r="AS23" t="s">
-        <v>560</v>
+        <v>81</v>
       </c>
       <c r="AT23" t="s">
-        <v>561</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:46" x14ac:dyDescent="0.25">
@@ -9502,154 +9510,154 @@
     </row>
     <row r="25" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>993</v>
+        <v>1161</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>994</v>
+        <v>1162</v>
       </c>
       <c r="C25" s="3">
         <f xml:space="preserve"> B25 - I25</f>
-        <v>61.809076436523185</v>
+        <v>9.8736557007311916</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>995</v>
+        <v>1163</v>
       </c>
       <c r="E25" s="9">
         <f xml:space="preserve"> C25 / B25</f>
-        <v>0.38346705009905413</v>
+        <v>9.0377188784001486E-2</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>996</v>
+        <v>1164</v>
       </c>
       <c r="G25" s="3" t="s">
-        <v>997</v>
+        <v>1165</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>998</v>
+        <v>1166</v>
       </c>
       <c r="I25" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J25" s="3" t="s">
-        <v>999</v>
+        <v>1167</v>
       </c>
       <c r="K25" s="3">
         <f xml:space="preserve"> J25 - I25</f>
-        <v>45.38332722993519</v>
+        <v>10.656711323956188</v>
       </c>
       <c r="L25" s="3">
         <f xml:space="preserve"> $J25 - B25</f>
-        <v>-16.425749206587994</v>
+        <v>0.78305562322499611</v>
       </c>
       <c r="M25" s="3">
         <f xml:space="preserve"> $J25 / B25</f>
-        <v>0.8980937111981302</v>
-      </c>
-      <c r="N25" s="8">
+        <v>1.0071675950664696</v>
+      </c>
+      <c r="N25" s="3">
         <f xml:space="preserve"> $K25 / C25</f>
-        <v>0.73425020800210561</v>
+        <v>1.0793075682360493</v>
       </c>
       <c r="O25" s="3">
         <f xml:space="preserve"> $J25 - F25</f>
-        <v>7.5087997438579919</v>
+        <v>2.2743693032669938</v>
       </c>
       <c r="P25" s="3">
         <f xml:space="preserve"> $J25 / F25</f>
-        <v>1.0547088060649459</v>
+        <v>1.0211062473512029</v>
       </c>
       <c r="Q25" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R25" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S25">
-        <v>54.970703125</v>
-      </c>
-      <c r="T25">
-        <v>49.963671875000003</v>
-      </c>
-      <c r="U25" s="1" t="s">
-        <v>1000</v>
-      </c>
-      <c r="V25">
-        <v>68.241406249999997</v>
-      </c>
-      <c r="W25">
-        <v>64.379296874999994</v>
+        <v>1211</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>1168</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>1169</v>
+      </c>
+      <c r="U25">
+        <v>50.912109375</v>
+      </c>
+      <c r="V25" s="1" t="s">
+        <v>1170</v>
+      </c>
+      <c r="W25" s="1" t="s">
+        <v>1171</v>
       </c>
       <c r="X25" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y25" s="1" t="s">
-        <v>1001</v>
+        <v>1172</v>
       </c>
       <c r="Z25">
-        <v>11.884</v>
+        <v>8.9366000000000003</v>
       </c>
       <c r="AA25" s="3">
         <f xml:space="preserve"> Z25 - AH25</f>
-        <v>3.3341666666666701</v>
+        <v>0.38676666666667003</v>
       </c>
       <c r="AB25" s="3">
         <f xml:space="preserve"> C25 / AA25</f>
-        <v>18.538088408854723</v>
+        <v>25.528714213732066</v>
       </c>
       <c r="AC25" s="3">
         <f xml:space="preserve"> B25 / Z25</f>
-        <v>13.563181037106782</v>
+        <v>12.224942674975381</v>
       </c>
       <c r="AD25" s="1" t="s">
-        <v>1002</v>
-      </c>
-      <c r="AE25" s="1" t="s">
-        <v>1003</v>
+        <v>1173</v>
+      </c>
+      <c r="AE25">
+        <v>8.9899000000000004</v>
       </c>
       <c r="AF25" s="1" t="s">
-        <v>1004</v>
+        <v>107</v>
       </c>
       <c r="AG25" s="1" t="s">
-        <v>1005</v>
+        <v>787</v>
       </c>
       <c r="AH25" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI25" s="1" t="s">
-        <v>1006</v>
+      <c r="AI25">
+        <v>9.2833666666666694</v>
       </c>
       <c r="AJ25" t="s">
-        <v>1007</v>
+        <v>1174</v>
       </c>
       <c r="AK25" t="s">
-        <v>1451</v>
+        <v>1538</v>
       </c>
       <c r="AL25" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK25, Classification!A:B, 2, FALSE)</f>
         <v>Scientific</v>
       </c>
       <c r="AM25" t="s">
-        <v>1008</v>
+        <v>1175</v>
       </c>
       <c r="AN25" t="s">
-        <v>883</v>
+        <v>1176</v>
       </c>
       <c r="AO25" t="s">
-        <v>1009</v>
+        <v>1177</v>
       </c>
       <c r="AP25" t="s">
-        <v>1010</v>
+        <v>607</v>
       </c>
       <c r="AQ25" t="s">
-        <v>1011</v>
+        <v>1178</v>
       </c>
       <c r="AR25" t="s">
-        <v>1012</v>
+        <v>1179</v>
       </c>
       <c r="AS25" t="s">
-        <v>1013</v>
+        <v>1180</v>
       </c>
       <c r="AT25" t="s">
-        <v>1014</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:46" x14ac:dyDescent="0.25">
@@ -9806,3399 +9814,3385 @@
     </row>
     <row r="27" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>446</v>
+        <v>518</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>447</v>
+        <v>519</v>
       </c>
       <c r="C27" s="3">
         <f xml:space="preserve"> B27 - I27</f>
-        <v>39.392379760761202</v>
+        <v>7.1693796793791904</v>
       </c>
       <c r="D27" s="3" t="s">
-        <v>448</v>
+        <v>520</v>
       </c>
       <c r="E27" s="9">
         <f xml:space="preserve"> C27 / B27</f>
-        <v>0.28387191641518844</v>
+        <v>6.7289594150963833E-2</v>
       </c>
       <c r="F27" s="3" t="s">
-        <v>449</v>
+        <v>521</v>
       </c>
       <c r="G27" s="3" t="s">
-        <v>450</v>
+        <v>522</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>451</v>
+        <v>523</v>
       </c>
       <c r="I27" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J27" s="3" t="s">
-        <v>452</v>
+        <v>524</v>
       </c>
       <c r="K27" s="3">
         <f xml:space="preserve"> J27 - I27</f>
-        <v>42.457479349704187</v>
+        <v>12.235861714682187</v>
       </c>
       <c r="L27" s="3">
         <f xml:space="preserve"> $J27 - B27</f>
-        <v>3.0650995889429851</v>
+        <v>5.0664820353029967</v>
       </c>
       <c r="M27" s="3">
         <f xml:space="preserve"> $J27 / B27</f>
-        <v>1.0220879190239569</v>
-      </c>
-      <c r="N27" s="3">
+        <v>1.0475524431924366</v>
+      </c>
+      <c r="N27" s="8">
         <f xml:space="preserve"> $K27 / C27</f>
-        <v>1.077809454710734</v>
+        <v>1.7066834596409202</v>
       </c>
       <c r="O27" s="3">
         <f xml:space="preserve"> $J27 - F27</f>
-        <v>-14.329641215175002</v>
+        <v>3.7316640217819952</v>
       </c>
       <c r="P27" s="3">
         <f xml:space="preserve"> $J27 / F27</f>
-        <v>0.90823913775002463</v>
+        <v>1.0345908902743195</v>
       </c>
       <c r="Q27" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R27" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="S27" s="1" t="s">
-        <v>453</v>
+        <v>525</v>
       </c>
       <c r="T27" s="1" t="s">
-        <v>454</v>
+        <v>526</v>
       </c>
       <c r="U27">
-        <v>55.398046874999999</v>
-      </c>
-      <c r="V27" s="1" t="s">
-        <v>455</v>
-      </c>
-      <c r="W27" s="1" t="s">
-        <v>456</v>
+        <v>65.834374999999994</v>
+      </c>
+      <c r="V27">
+        <v>61.911328124999997</v>
+      </c>
+      <c r="W27">
+        <v>49.980859375000001</v>
       </c>
       <c r="X27" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y27">
-        <v>117.96015625</v>
+        <v>105.99453124999999</v>
       </c>
       <c r="Z27" s="1" t="s">
-        <v>457</v>
+        <v>527</v>
       </c>
       <c r="AA27" s="3">
         <f xml:space="preserve"> Z27 - AH27</f>
-        <v>2.4473999999999698</v>
+        <v>0.24009999999999998</v>
       </c>
       <c r="AB27" s="3">
         <f xml:space="preserve"> C27 / AA27</f>
-        <v>16.095603399837252</v>
+        <v>29.859973675048693</v>
       </c>
       <c r="AC27" s="3">
         <f xml:space="preserve"> B27 / Z27</f>
-        <v>12.618459803758105</v>
+        <v>12.121269029856089</v>
       </c>
       <c r="AD27" s="1" t="s">
-        <v>458</v>
+        <v>528</v>
       </c>
       <c r="AE27" s="1" t="s">
-        <v>459</v>
+        <v>529</v>
       </c>
       <c r="AF27" s="1" t="s">
-        <v>460</v>
-      </c>
-      <c r="AG27">
-        <v>11.490600000000001</v>
+        <v>436</v>
+      </c>
+      <c r="AG27" s="1" t="s">
+        <v>137</v>
       </c>
       <c r="AH27" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI27" s="1" t="s">
-        <v>461</v>
+        <v>515</v>
       </c>
       <c r="AJ27" t="s">
-        <v>462</v>
+        <v>530</v>
       </c>
       <c r="AK27" t="s">
-        <v>1441</v>
+        <v>1545</v>
       </c>
       <c r="AL27" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK27, Classification!A:B, 2, FALSE)</f>
         <v>Scientific</v>
       </c>
       <c r="AM27" t="s">
-        <v>463</v>
+        <v>531</v>
       </c>
       <c r="AN27" t="s">
-        <v>348</v>
+        <v>532</v>
       </c>
       <c r="AO27" t="s">
-        <v>464</v>
+        <v>533</v>
       </c>
       <c r="AP27" t="s">
-        <v>465</v>
+        <v>534</v>
       </c>
       <c r="AQ27" t="s">
-        <v>466</v>
+        <v>535</v>
       </c>
       <c r="AR27" t="s">
-        <v>467</v>
+        <v>536</v>
       </c>
       <c r="AS27" t="s">
-        <v>468</v>
+        <v>537</v>
       </c>
       <c r="AT27" t="s">
-        <v>469</v>
+        <v>538</v>
       </c>
     </row>
     <row r="28" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>951</v>
+        <v>976</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>952</v>
+        <v>977</v>
       </c>
       <c r="C28" s="3">
         <f xml:space="preserve"> B28 - I28</f>
-        <v>30.89023183195718</v>
+        <v>7.0573949177241957</v>
       </c>
       <c r="D28" s="3" t="s">
-        <v>953</v>
+        <v>978</v>
       </c>
       <c r="E28" s="9">
         <f xml:space="preserve"> C28 / B28</f>
-        <v>0.23713196157810018</v>
+        <v>6.6308233167207811E-2</v>
       </c>
       <c r="F28" s="3" t="s">
-        <v>954</v>
+        <v>979</v>
       </c>
       <c r="G28" s="3" t="s">
-        <v>955</v>
+        <v>980</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>956</v>
+        <v>981</v>
       </c>
       <c r="I28" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J28" s="3" t="s">
-        <v>957</v>
+        <v>982</v>
       </c>
       <c r="K28" s="3">
         <f xml:space="preserve"> J28 - I28</f>
-        <v>33.543582661839196</v>
+        <v>12.267824808688189</v>
       </c>
       <c r="L28" s="3">
         <f xml:space="preserve"> $J28 - B28</f>
-        <v>2.6533508298820152</v>
+        <v>5.2104298909639937</v>
       </c>
       <c r="M28" s="3">
         <f xml:space="preserve"> $J28 / B28</f>
-        <v>1.0203687136589852</v>
-      </c>
-      <c r="N28" s="3">
+        <v>1.0489549478439619</v>
+      </c>
+      <c r="N28" s="8">
         <f xml:space="preserve"> $K28 / C28</f>
-        <v>1.0858961125418625</v>
+        <v>1.7382936553370893</v>
       </c>
       <c r="O28" s="3">
         <f xml:space="preserve"> $J28 - F28</f>
-        <v>-10.290323384727003</v>
+        <v>3.1402328490109994</v>
       </c>
       <c r="P28" s="3">
         <f xml:space="preserve"> $J28 / F28</f>
-        <v>0.92814505357627941</v>
+        <v>1.0289413422669553</v>
       </c>
       <c r="Q28" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R28" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="S28" s="1" t="s">
-        <v>958</v>
-      </c>
-      <c r="T28" s="1" t="s">
-        <v>959</v>
+        <v>1212</v>
+      </c>
+      <c r="S28">
+        <v>62.646484375</v>
+      </c>
+      <c r="T28">
+        <v>63.5703125</v>
       </c>
       <c r="U28" s="1" t="s">
-        <v>960</v>
+        <v>983</v>
       </c>
       <c r="V28" s="1" t="s">
-        <v>961</v>
+        <v>984</v>
       </c>
       <c r="W28" s="1" t="s">
-        <v>962</v>
+        <v>985</v>
       </c>
       <c r="X28" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y28">
-        <v>98.155078125000003</v>
+      <c r="Y28" s="1" t="s">
+        <v>986</v>
       </c>
       <c r="Z28" s="1" t="s">
-        <v>963</v>
+        <v>832</v>
       </c>
       <c r="AA28" s="3">
         <f xml:space="preserve"> Z28 - AH28</f>
-        <v>1.9539333333332696</v>
+        <v>0.28673333333332884</v>
       </c>
       <c r="AB28" s="3">
         <f xml:space="preserve"> C28 / AA28</f>
-        <v>15.809255773972938</v>
+        <v>24.613095504734851</v>
       </c>
       <c r="AC28" s="3">
         <f xml:space="preserve"> B28 / Z28</f>
-        <v>12.401836691004036</v>
+        <v>12.044628410677385</v>
       </c>
       <c r="AD28" s="1" t="s">
-        <v>964</v>
-      </c>
-      <c r="AE28">
-        <v>10.6372</v>
-      </c>
-      <c r="AF28" s="1" t="s">
-        <v>965</v>
+        <v>61</v>
+      </c>
+      <c r="AE28" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="AF28">
+        <v>8.8432999999999993</v>
       </c>
       <c r="AG28" s="1" t="s">
-        <v>966</v>
+        <v>343</v>
       </c>
       <c r="AH28" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI28">
-        <v>10.2902</v>
+        <v>9.43</v>
       </c>
       <c r="AJ28" t="s">
-        <v>967</v>
+        <v>988</v>
       </c>
       <c r="AK28" t="s">
-        <v>1433</v>
-      </c>
-      <c r="AL28" s="17" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK28, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>1601</v>
+      </c>
+      <c r="AL28" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM28" t="s">
-        <v>968</v>
+        <v>989</v>
       </c>
       <c r="AN28" t="s">
-        <v>969</v>
-      </c>
-      <c r="AO28" t="s">
-        <v>970</v>
-      </c>
-      <c r="AP28" t="s">
-        <v>971</v>
-      </c>
-      <c r="AQ28" t="s">
-        <v>972</v>
-      </c>
-      <c r="AR28" t="s">
-        <v>973</v>
+        <v>990</v>
       </c>
       <c r="AS28" t="s">
-        <v>974</v>
+        <v>991</v>
       </c>
       <c r="AT28" t="s">
-        <v>975</v>
+        <v>992</v>
       </c>
     </row>
     <row r="29" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>742</v>
+        <v>858</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>743</v>
+        <v>859</v>
       </c>
       <c r="C29" s="3">
         <f xml:space="preserve"> B29 - I29</f>
-        <v>54.037463887629201</v>
+        <v>8.7448374430451992</v>
       </c>
       <c r="D29" s="3" t="s">
-        <v>744</v>
+        <v>860</v>
       </c>
       <c r="E29" s="9">
         <f xml:space="preserve"> C29 / B29</f>
-        <v>0.35223470343462338</v>
+        <v>8.0880397287900654E-2</v>
       </c>
       <c r="F29" s="3" t="s">
-        <v>745</v>
+        <v>861</v>
       </c>
       <c r="G29" s="3" t="s">
-        <v>746</v>
+        <v>862</v>
       </c>
       <c r="H29" s="3" t="s">
-        <v>747</v>
+        <v>863</v>
       </c>
       <c r="I29" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J29" s="3" t="s">
-        <v>748</v>
+      <c r="J29" s="4" t="s">
+        <v>864</v>
       </c>
       <c r="K29" s="3">
         <f xml:space="preserve"> J29 - I29</f>
-        <v>58.763706461675184</v>
+        <v>8.0354690552311894</v>
       </c>
       <c r="L29" s="3">
         <f xml:space="preserve"> $J29 - B29</f>
-        <v>4.7262425740459832</v>
+        <v>-0.70936838781400979</v>
       </c>
       <c r="M29" s="3">
         <f xml:space="preserve"> $J29 / B29</f>
-        <v>1.0308072683590594</v>
-      </c>
-      <c r="N29" s="3">
+        <v>0.9934391007947776</v>
+      </c>
+      <c r="N29" s="8">
         <f xml:space="preserve"> $K29 / C29</f>
-        <v>1.0874623313905736</v>
+        <v>0.91888146664428016</v>
       </c>
       <c r="O29" s="3">
         <f xml:space="preserve"> $J29 - F29</f>
-        <v>-9.5667663573310051</v>
+        <v>-6.964987182546011</v>
       </c>
       <c r="P29" s="3">
         <f xml:space="preserve"> $J29 / F29</f>
-        <v>0.94295521521934123</v>
+        <v>0.93910458848119449</v>
       </c>
       <c r="Q29" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R29" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="S29">
-        <v>42.103906250000001</v>
+        <v>56.383593750000003</v>
       </c>
       <c r="T29" s="1" t="s">
-        <v>749</v>
+        <v>865</v>
       </c>
       <c r="U29" s="1" t="s">
-        <v>750</v>
-      </c>
-      <c r="V29">
-        <v>65.969921874999997</v>
-      </c>
-      <c r="W29">
-        <v>53.539843750000003</v>
+        <v>866</v>
+      </c>
+      <c r="V29" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="W29" s="1" t="s">
+        <v>868</v>
       </c>
       <c r="X29" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y29" s="1" t="s">
-        <v>751</v>
-      </c>
-      <c r="Z29" s="1" t="s">
-        <v>752</v>
+        <v>869</v>
+      </c>
+      <c r="Z29">
+        <v>8.9899000000000004</v>
       </c>
       <c r="AA29" s="3">
         <f xml:space="preserve"> Z29 - AH29</f>
-        <v>3.6009999999999689</v>
+        <v>0.44006666666667016</v>
       </c>
       <c r="AB29" s="3">
         <f xml:space="preserve"> C29 / AA29</f>
-        <v>15.006238235942702</v>
+        <v>19.871619700905462</v>
       </c>
       <c r="AC29" s="3">
         <f xml:space="preserve"> B29 / Z29</f>
-        <v>12.625737403147941</v>
+        <v>12.026897346077153</v>
       </c>
       <c r="AD29" s="1" t="s">
-        <v>753</v>
+        <v>870</v>
       </c>
       <c r="AE29" s="1" t="s">
-        <v>754</v>
+        <v>688</v>
       </c>
       <c r="AF29" s="1" t="s">
-        <v>755</v>
+        <v>871</v>
       </c>
       <c r="AG29" s="1" t="s">
-        <v>756</v>
+        <v>872</v>
       </c>
       <c r="AH29" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI29" s="1" t="s">
-        <v>757</v>
+        <v>873</v>
       </c>
       <c r="AJ29" t="s">
-        <v>758</v>
+        <v>874</v>
       </c>
       <c r="AK29" t="s">
-        <v>1420</v>
-      </c>
-      <c r="AL29" t="str">
+        <v>1520</v>
+      </c>
+      <c r="AL29" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK29, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>Scientific</v>
       </c>
       <c r="AM29" t="s">
-        <v>759</v>
+        <v>875</v>
       </c>
       <c r="AN29" t="s">
-        <v>760</v>
+        <v>876</v>
       </c>
       <c r="AO29" t="s">
-        <v>761</v>
+        <v>877</v>
       </c>
       <c r="AP29" t="s">
-        <v>762</v>
+        <v>878</v>
       </c>
       <c r="AQ29" t="s">
-        <v>763</v>
+        <v>879</v>
       </c>
       <c r="AR29" t="s">
-        <v>764</v>
+        <v>880</v>
       </c>
       <c r="AS29" t="s">
-        <v>765</v>
+        <v>881</v>
       </c>
       <c r="AT29" t="s">
-        <v>766</v>
+        <v>882</v>
       </c>
     </row>
     <row r="30" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>720</v>
+      <c r="A30" s="7" t="s">
+        <v>317</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>721</v>
+        <v>318</v>
       </c>
       <c r="C30" s="3">
         <f xml:space="preserve"> B30 - I30</f>
-        <v>10.54685668940219</v>
+        <v>8.4925730386391933</v>
       </c>
       <c r="D30" s="3" t="s">
-        <v>722</v>
+        <v>319</v>
       </c>
       <c r="E30" s="9">
         <f xml:space="preserve"> C30 / B30</f>
-        <v>9.5948007194518084E-2</v>
-      </c>
-      <c r="F30" s="2">
-        <v>211.48416290289799</v>
+        <v>7.8730914325107051E-2</v>
+      </c>
+      <c r="F30" s="3" t="s">
+        <v>320</v>
       </c>
       <c r="G30" s="3" t="s">
-        <v>723</v>
+        <v>321</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>724</v>
+        <v>322</v>
       </c>
       <c r="I30" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J30" s="3" t="s">
-        <v>725</v>
+        <v>323</v>
       </c>
       <c r="K30" s="3">
         <f xml:space="preserve"> J30 - I30</f>
-        <v>23.259648641029187</v>
+        <v>10.303925577599188</v>
       </c>
       <c r="L30" s="3">
         <f xml:space="preserve"> $J30 - B30</f>
-        <v>12.712791951626997</v>
+        <v>1.8113525389599943</v>
       </c>
       <c r="M30" s="3">
         <f xml:space="preserve"> $J30 / B30</f>
-        <v>1.1156521880934229</v>
-      </c>
-      <c r="N30" s="8">
+        <v>1.0167922537620324</v>
+      </c>
+      <c r="N30" s="3">
         <f xml:space="preserve"> $K30 / C30</f>
-        <v>2.2053631073228868</v>
+        <v>1.2132866600874399</v>
       </c>
       <c r="O30" s="3">
         <f xml:space="preserve"> $J30 - F30</f>
-        <v>-88.848747253414999</v>
+        <v>-14.690215555950999</v>
       </c>
       <c r="P30" s="3">
         <f xml:space="preserve"> $J30 / F30</f>
-        <v>0.57987990195649064</v>
+        <v>0.88188287845981284</v>
       </c>
       <c r="Q30" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R30" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="S30" s="1" t="s">
-        <v>726</v>
-      </c>
-      <c r="T30" s="1" t="s">
-        <v>727</v>
-      </c>
-      <c r="U30">
-        <v>129.76992187499999</v>
-      </c>
-      <c r="V30">
-        <v>102.71640625000001</v>
-      </c>
-      <c r="W30" s="1" t="s">
-        <v>728</v>
+        <v>324</v>
+      </c>
+      <c r="T30">
+        <v>62.698437499999997</v>
+      </c>
+      <c r="U30" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="V30" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="W30">
+        <v>54.275781250000001</v>
       </c>
       <c r="X30" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y30" s="1" t="s">
-        <v>729</v>
-      </c>
-      <c r="Z30">
-        <v>9.2635000000000005</v>
+        <v>327</v>
+      </c>
+      <c r="Z30" s="1" t="s">
+        <v>328</v>
       </c>
       <c r="AA30" s="3">
         <f xml:space="preserve"> Z30 - AH30</f>
-        <v>0.71366666666667022</v>
+        <v>0.42013333333333058</v>
       </c>
       <c r="AB30" s="3">
         <f xml:space="preserve"> C30 / AA30</f>
-        <v>14.778407318172075</v>
+        <v>20.213994855536136</v>
       </c>
       <c r="AC30" s="3">
         <f xml:space="preserve"> B30 / Z30</f>
-        <v>11.866208635813244</v>
+        <v>12.02550065742642</v>
       </c>
       <c r="AD30" s="1" t="s">
-        <v>730</v>
+        <v>329</v>
       </c>
       <c r="AE30" s="1" t="s">
-        <v>731</v>
-      </c>
-      <c r="AF30">
-        <v>17.973299999999998</v>
-      </c>
-      <c r="AG30">
-        <v>17.246500000000001</v>
+        <v>330</v>
+      </c>
+      <c r="AF30" s="1" t="s">
+        <v>331</v>
+      </c>
+      <c r="AG30" s="1" t="s">
+        <v>311</v>
       </c>
       <c r="AH30" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI30" s="1" t="s">
-        <v>732</v>
-      </c>
-      <c r="AJ30" t="s">
-        <v>733</v>
+        <v>332</v>
+      </c>
+      <c r="AJ30" s="7" t="s">
+        <v>333</v>
       </c>
       <c r="AK30" t="s">
-        <v>1572</v>
+        <v>1494</v>
       </c>
       <c r="AL30" t="str">
         <f xml:space="preserve"> VLOOKUP(AK30, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM30" t="s">
-        <v>734</v>
+        <v>334</v>
       </c>
       <c r="AN30" t="s">
-        <v>735</v>
+        <v>335</v>
       </c>
       <c r="AO30" t="s">
-        <v>736</v>
+        <v>336</v>
       </c>
       <c r="AP30" t="s">
-        <v>737</v>
+        <v>337</v>
       </c>
       <c r="AQ30" t="s">
-        <v>738</v>
+        <v>338</v>
       </c>
       <c r="AR30" t="s">
-        <v>739</v>
+        <v>339</v>
       </c>
       <c r="AS30" t="s">
-        <v>740</v>
+        <v>340</v>
       </c>
       <c r="AT30" t="s">
-        <v>741</v>
+        <v>341</v>
       </c>
     </row>
     <row r="31" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>235</v>
-      </c>
-      <c r="B31" s="6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C31" s="6">
+        <v>697</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>698</v>
+      </c>
+      <c r="C31" s="3">
         <f xml:space="preserve"> B31 - I31</f>
-        <v>47.180806477889206</v>
+        <v>5.6738154093321924</v>
       </c>
       <c r="D31" s="3" t="s">
-        <v>237</v>
+        <v>699</v>
       </c>
       <c r="E31" s="9">
         <f xml:space="preserve"> C31 / B31</f>
-        <v>0.32192896814884792</v>
-      </c>
-      <c r="F31" s="2">
-        <v>147.09427846272399</v>
+        <v>5.401083258729409E-2</v>
+      </c>
+      <c r="F31" s="3" t="s">
+        <v>700</v>
       </c>
       <c r="G31" s="3" t="s">
-        <v>238</v>
+        <v>701</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>239</v>
+        <v>702</v>
       </c>
       <c r="I31" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="J31" s="6" t="s">
-        <v>240</v>
-      </c>
-      <c r="K31" s="6">
+      <c r="J31" s="3" t="s">
+        <v>703</v>
+      </c>
+      <c r="K31" s="3">
         <f xml:space="preserve"> J31 - I31</f>
-        <v>154.23247273739119</v>
+        <v>14.192890930371192</v>
       </c>
       <c r="L31" s="3">
         <f xml:space="preserve"> $J31 - B31</f>
-        <v>107.05166625950199</v>
+        <v>8.5190755210389995</v>
       </c>
       <c r="M31" s="3">
         <f xml:space="preserve"> $J31 / B31</f>
-        <v>1.7304460230811665</v>
+        <v>1.0810957580693499</v>
       </c>
       <c r="N31" s="8">
         <f xml:space="preserve"> $K31 / C31</f>
-        <v>3.2689664346808196</v>
+        <v>2.5014720970701609</v>
       </c>
       <c r="O31" s="3">
         <f xml:space="preserve"> $J31 - F31</f>
-        <v>106.51396128312101</v>
+        <v>-277.00527292891798</v>
       </c>
       <c r="P31" s="3">
         <f xml:space="preserve"> $J31 / F31</f>
-        <v>1.7241203559804898</v>
+        <v>0.29077377920873543</v>
       </c>
       <c r="Q31" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R31" s="3" t="s">
-        <v>1211</v>
+        <v>1213</v>
       </c>
       <c r="S31" s="1" t="s">
-        <v>241</v>
+        <v>704</v>
       </c>
       <c r="T31" s="1" t="s">
-        <v>242</v>
+        <v>705</v>
       </c>
       <c r="U31" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="V31">
-        <v>18.042187500000001</v>
+        <v>706</v>
+      </c>
+      <c r="V31" s="1" t="s">
+        <v>707</v>
       </c>
       <c r="W31">
-        <v>71.846484375000003</v>
+        <v>182.56484374999999</v>
       </c>
       <c r="X31" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y31" s="1" t="s">
-        <v>244</v>
-      </c>
-      <c r="Z31">
-        <v>11.7507</v>
+        <v>708</v>
+      </c>
+      <c r="Z31" s="1" t="s">
+        <v>387</v>
       </c>
       <c r="AA31" s="3">
         <f xml:space="preserve"> Z31 - AH31</f>
-        <v>3.2008666666666699</v>
+        <v>0.22010000000000041</v>
       </c>
       <c r="AB31" s="3">
         <f xml:space="preserve"> C31 / AA31</f>
-        <v>14.740009938315401</v>
+        <v>25.778352609414728</v>
       </c>
       <c r="AC31" s="3">
         <f xml:space="preserve"> B31 / Z31</f>
-        <v>12.472156849067972</v>
+        <v>11.97837867461395</v>
       </c>
       <c r="AD31" s="1" t="s">
-        <v>245</v>
+        <v>709</v>
       </c>
       <c r="AE31" s="1" t="s">
-        <v>246</v>
+        <v>710</v>
       </c>
       <c r="AF31" s="1" t="s">
-        <v>247</v>
+        <v>711</v>
       </c>
       <c r="AG31" s="1" t="s">
-        <v>248</v>
+        <v>712</v>
       </c>
       <c r="AH31" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI31" s="1" t="s">
-        <v>249</v>
+      <c r="AI31">
+        <v>9.2698999999999998</v>
       </c>
       <c r="AJ31" t="s">
-        <v>250</v>
+        <v>713</v>
       </c>
       <c r="AK31" t="s">
-        <v>1226</v>
-      </c>
-      <c r="AL31" s="17" t="str">
+        <v>1573</v>
+      </c>
+      <c r="AL31" t="str">
         <f xml:space="preserve"> VLOOKUP(AK31, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM31" t="s">
-        <v>251</v>
+        <v>714</v>
       </c>
       <c r="AN31" t="s">
-        <v>252</v>
+        <v>62</v>
       </c>
       <c r="AO31" t="s">
-        <v>253</v>
+        <v>715</v>
       </c>
       <c r="AP31" t="s">
-        <v>254</v>
+        <v>716</v>
       </c>
       <c r="AQ31" t="s">
-        <v>255</v>
+        <v>717</v>
       </c>
       <c r="AR31" t="s">
-        <v>256</v>
+        <v>718</v>
       </c>
       <c r="AS31" t="s">
-        <v>257</v>
+        <v>719</v>
       </c>
       <c r="AT31" t="s">
-        <v>258</v>
+        <v>135</v>
       </c>
     </row>
     <row r="32" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>1099</v>
+        <v>539</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>1100</v>
+        <v>540</v>
       </c>
       <c r="C32" s="3">
         <f xml:space="preserve"> B32 - I32</f>
-        <v>5.184787495990193</v>
+        <v>7.5158854167551965</v>
       </c>
       <c r="D32" s="3" t="s">
-        <v>1101</v>
+        <v>541</v>
       </c>
       <c r="E32" s="9">
         <f xml:space="preserve"> C32 / B32</f>
-        <v>4.9586457537099525E-2</v>
+        <v>7.0313118435641961E-2</v>
       </c>
       <c r="F32" s="3" t="s">
-        <v>1102</v>
+        <v>542</v>
       </c>
       <c r="G32" s="3" t="s">
-        <v>1103</v>
-      </c>
-      <c r="H32" s="5" t="s">
-        <v>1104</v>
+        <v>543</v>
+      </c>
+      <c r="H32" s="3" t="s">
+        <v>544</v>
       </c>
       <c r="I32" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J32" s="3" t="s">
-        <v>1105</v>
+        <v>545</v>
       </c>
       <c r="K32" s="3">
         <f xml:space="preserve"> J32 - I32</f>
-        <v>8.1786412556051999</v>
+        <v>15.837411498978199</v>
       </c>
       <c r="L32" s="3">
         <f xml:space="preserve"> $J32 - B32</f>
-        <v>2.993853759615007</v>
+        <v>8.3215260822230022</v>
       </c>
       <c r="M32" s="3">
         <f xml:space="preserve"> $J32 / B32</f>
-        <v>1.0286327264980961</v>
+        <v>1.0778501023552376</v>
       </c>
       <c r="N32" s="8">
         <f xml:space="preserve"> $K32 / C32</f>
-        <v>1.5774303695050937</v>
+        <v>2.1071917173819319</v>
       </c>
       <c r="O32" s="3">
         <f xml:space="preserve"> $J32 - F32</f>
-        <v>-4.9264892578879937</v>
+        <v>-59.460222880184986</v>
       </c>
       <c r="P32" s="3">
         <f xml:space="preserve"> $J32 / F32</f>
-        <v>0.9562015474056228</v>
+        <v>0.65959200194288847</v>
       </c>
       <c r="Q32" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R32" s="3" t="s">
         <v>1211</v>
       </c>
-      <c r="S32" s="1" t="s">
-        <v>1106</v>
+      <c r="S32">
+        <v>60.1015625</v>
       </c>
       <c r="T32" s="1" t="s">
-        <v>1107</v>
+        <v>546</v>
       </c>
       <c r="U32" s="1" t="s">
-        <v>1108</v>
+        <v>547</v>
       </c>
       <c r="V32" s="1" t="s">
-        <v>1109</v>
-      </c>
-      <c r="W32">
-        <v>64.694921875000006</v>
+        <v>548</v>
+      </c>
+      <c r="W32" s="1" t="s">
+        <v>549</v>
       </c>
       <c r="X32" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y32">
-        <v>116.736328125</v>
+      <c r="Y32" s="1" t="s">
+        <v>550</v>
       </c>
       <c r="Z32" s="1" t="s">
-        <v>857</v>
+        <v>398</v>
       </c>
       <c r="AA32" s="3">
         <f xml:space="preserve"> Z32 - AH32</f>
-        <v>0.35350000000000037</v>
+        <v>0.38669999999999938</v>
       </c>
       <c r="AB32" s="3">
         <f xml:space="preserve"> C32 / AA32</f>
-        <v>14.667008475219767</v>
+        <v>19.435959184782025</v>
       </c>
       <c r="AC32" s="3">
         <f xml:space="preserve"> B32 / Z32</f>
-        <v>11.743978416822618</v>
+        <v>11.961198871882726</v>
       </c>
       <c r="AD32">
-        <v>8.7565000000000008</v>
+        <v>8.9565999999999999</v>
       </c>
       <c r="AE32" s="1" t="s">
-        <v>604</v>
-      </c>
-      <c r="AF32" s="1" t="s">
-        <v>856</v>
+        <v>551</v>
+      </c>
+      <c r="AF32">
+        <v>8.7432999999999996</v>
       </c>
       <c r="AG32">
-        <v>8.5297999999999998</v>
+        <v>9.27</v>
       </c>
       <c r="AH32" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI32" s="1" t="s">
-        <v>1110</v>
+        <v>552</v>
       </c>
       <c r="AJ32" t="s">
-        <v>1111</v>
+        <v>553</v>
       </c>
       <c r="AK32" t="s">
-        <v>1236</v>
+        <v>1362</v>
       </c>
       <c r="AL32" t="str">
         <f xml:space="preserve"> VLOOKUP(AK32, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM32" t="s">
-        <v>1112</v>
+        <v>554</v>
       </c>
       <c r="AN32" t="s">
-        <v>1113</v>
+        <v>555</v>
       </c>
       <c r="AO32" t="s">
-        <v>1114</v>
+        <v>556</v>
       </c>
       <c r="AP32" t="s">
-        <v>1115</v>
+        <v>557</v>
       </c>
       <c r="AQ32" t="s">
-        <v>1116</v>
+        <v>558</v>
       </c>
       <c r="AR32" t="s">
-        <v>1117</v>
+        <v>559</v>
       </c>
       <c r="AS32" t="s">
-        <v>1118</v>
+        <v>560</v>
       </c>
       <c r="AT32" t="s">
-        <v>1119</v>
+        <v>561</v>
       </c>
     </row>
     <row r="33" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>1037</v>
+      <c r="A33" s="7" t="s">
+        <v>399</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>1038</v>
+        <v>400</v>
       </c>
       <c r="C33" s="3">
         <f xml:space="preserve"> B33 - I33</f>
-        <v>56.105625406920183</v>
+        <v>22.332942708302198</v>
       </c>
       <c r="D33" s="3" t="s">
-        <v>1039</v>
+        <v>401</v>
       </c>
       <c r="E33" s="9">
         <f xml:space="preserve"> C33 / B33</f>
-        <v>0.36085106092330355</v>
+        <v>0.18349502480369781</v>
       </c>
       <c r="F33" s="3" t="s">
-        <v>1040</v>
+        <v>402</v>
       </c>
       <c r="G33" s="3" t="s">
-        <v>1041</v>
+        <v>403</v>
       </c>
       <c r="H33" s="3" t="s">
-        <v>1042</v>
+        <v>404</v>
       </c>
       <c r="I33" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J33" s="3" t="s">
-        <v>1043</v>
+        <v>405</v>
       </c>
       <c r="K33" s="3">
         <f xml:space="preserve"> J33 - I33</f>
-        <v>63.540981547078189</v>
+        <v>11.365663147036187</v>
       </c>
       <c r="L33" s="3">
         <f xml:space="preserve"> $J33 - B33</f>
-        <v>7.4353561401580066</v>
+        <v>-10.967279561266011</v>
       </c>
       <c r="M33" s="3">
         <f xml:space="preserve"> $J33 / B33</f>
-        <v>1.0478215175761623</v>
+        <v>0.90988911486458623</v>
       </c>
       <c r="N33" s="8">
         <f xml:space="preserve"> $K33 / C33</f>
-        <v>1.1325242537843792</v>
+        <v>0.50891919150497977</v>
       </c>
       <c r="O33" s="3">
         <f xml:space="preserve"> $J33 - F33</f>
-        <v>-0.49717051173399796</v>
+        <v>-18.473167928020999</v>
       </c>
       <c r="P33" s="3">
         <f xml:space="preserve"> $J33 / F33</f>
-        <v>0.99695759997329636</v>
+        <v>0.85703497745601587</v>
       </c>
       <c r="Q33" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R33" s="3" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="S33" s="1" t="s">
-        <v>1044</v>
+        <v>406</v>
       </c>
       <c r="T33" s="1" t="s">
-        <v>1045</v>
+        <v>407</v>
       </c>
       <c r="U33">
-        <v>55.192578124999997</v>
+        <v>44.467187500000001</v>
       </c>
       <c r="V33" s="1" t="s">
-        <v>1046</v>
-      </c>
-      <c r="W33" s="1" t="s">
-        <v>1047</v>
+        <v>408</v>
+      </c>
+      <c r="W33">
+        <v>48.38671875</v>
       </c>
       <c r="X33" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y33">
-        <v>62.022656249999997</v>
+      <c r="Y33" s="1" t="s">
+        <v>409</v>
       </c>
       <c r="Z33" s="1" t="s">
-        <v>1048</v>
+        <v>410</v>
       </c>
       <c r="AA33" s="3">
         <f xml:space="preserve"> Z33 - AH33</f>
-        <v>3.8476333333332704</v>
+        <v>1.6270999999999702</v>
       </c>
       <c r="AB33" s="3">
         <f xml:space="preserve"> C33 / AA33</f>
-        <v>14.581853452837962</v>
+        <v>13.725611645444415</v>
       </c>
       <c r="AC33" s="3">
         <f xml:space="preserve"> B33 / Z33</f>
-        <v>12.541384187256655</v>
-      </c>
-      <c r="AD33">
-        <v>11.1105</v>
+        <v>11.959271592957577</v>
+      </c>
+      <c r="AD33" s="1" t="s">
+        <v>411</v>
       </c>
       <c r="AE33" s="1" t="s">
-        <v>1049</v>
+        <v>412</v>
       </c>
       <c r="AF33" s="1" t="s">
-        <v>1050</v>
-      </c>
-      <c r="AG33" s="1" t="s">
-        <v>1051</v>
+        <v>413</v>
+      </c>
+      <c r="AG33">
+        <v>10.6105</v>
       </c>
       <c r="AH33" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI33">
-        <v>13.0175</v>
-      </c>
-      <c r="AJ33" t="s">
-        <v>1052</v>
+      <c r="AI33" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="AJ33" s="7" t="s">
+        <v>415</v>
       </c>
       <c r="AK33" t="s">
-        <v>1507</v>
+        <v>1403</v>
       </c>
       <c r="AL33" t="str">
         <f xml:space="preserve"> VLOOKUP(AK33, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM33" t="s">
-        <v>1053</v>
+        <v>416</v>
       </c>
       <c r="AN33" t="s">
-        <v>1054</v>
+        <v>417</v>
       </c>
       <c r="AO33" t="s">
-        <v>1055</v>
+        <v>418</v>
       </c>
       <c r="AP33" t="s">
-        <v>1056</v>
+        <v>419</v>
       </c>
       <c r="AQ33" t="s">
-        <v>1057</v>
+        <v>420</v>
       </c>
       <c r="AR33" t="s">
-        <v>1058</v>
+        <v>421</v>
       </c>
       <c r="AS33" t="s">
-        <v>1059</v>
+        <v>422</v>
       </c>
       <c r="AT33" t="s">
-        <v>1060</v>
+        <v>423</v>
       </c>
     </row>
     <row r="34" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>788</v>
+        <v>720</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>789</v>
+        <v>721</v>
       </c>
       <c r="C34" s="3">
         <f xml:space="preserve"> B34 - I34</f>
-        <v>10.326137288496199</v>
+        <v>10.54685668940219</v>
       </c>
       <c r="D34" s="3" t="s">
-        <v>790</v>
+        <v>722</v>
       </c>
       <c r="E34" s="9">
         <f xml:space="preserve"> C34 / B34</f>
-        <v>9.4129061429458635E-2</v>
-      </c>
-      <c r="F34" s="3" t="s">
-        <v>791</v>
+        <v>9.5948007194518084E-2</v>
+      </c>
+      <c r="F34" s="2">
+        <v>211.48416290289799</v>
       </c>
       <c r="G34" s="3" t="s">
-        <v>792</v>
+        <v>723</v>
       </c>
       <c r="H34" s="3" t="s">
-        <v>793</v>
+        <v>724</v>
       </c>
       <c r="I34" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J34" s="3" t="s">
-        <v>794</v>
+        <v>725</v>
       </c>
       <c r="K34" s="3">
         <f xml:space="preserve"> J34 - I34</f>
-        <v>8.5043273926881966</v>
+        <v>23.259648641029187</v>
       </c>
       <c r="L34" s="3">
         <f xml:space="preserve"> $J34 - B34</f>
-        <v>-1.821809895808002</v>
+        <v>12.712791951626997</v>
       </c>
       <c r="M34" s="3">
         <f xml:space="preserve"> $J34 / B34</f>
-        <v>0.98339308777287426</v>
+        <v>1.1156521880934229</v>
       </c>
       <c r="N34" s="8">
         <f xml:space="preserve"> $K34 / C34</f>
-        <v>0.8235729542509973</v>
+        <v>2.2053631073228868</v>
       </c>
       <c r="O34" s="3">
         <f xml:space="preserve"> $J34 - F34</f>
-        <v>-0.9255228676599927</v>
+        <v>-88.848747253414999</v>
       </c>
       <c r="P34" s="3">
         <f xml:space="preserve"> $J34 / F34</f>
-        <v>0.9914937951652486</v>
+        <v>0.57987990195649064</v>
       </c>
       <c r="Q34" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R34" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="S34">
-        <v>66.879687500000003</v>
+        <v>1213</v>
+      </c>
+      <c r="S34" s="1" t="s">
+        <v>726</v>
       </c>
       <c r="T34" s="1" t="s">
-        <v>795</v>
+        <v>727</v>
       </c>
       <c r="U34">
-        <v>70.322656249999994</v>
-      </c>
-      <c r="V34" s="1" t="s">
-        <v>796</v>
-      </c>
-      <c r="W34">
-        <v>55.116796874999999</v>
+        <v>129.76992187499999</v>
+      </c>
+      <c r="V34">
+        <v>102.71640625000001</v>
+      </c>
+      <c r="W34" s="1" t="s">
+        <v>728</v>
       </c>
       <c r="X34" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y34" s="1" t="s">
-        <v>797</v>
+        <v>729</v>
       </c>
       <c r="Z34">
-        <v>9.2834000000000003</v>
+        <v>9.2635000000000005</v>
       </c>
       <c r="AA34" s="3">
         <f xml:space="preserve"> Z34 - AH34</f>
-        <v>0.73356666666667003</v>
+        <v>0.71366666666667022</v>
       </c>
       <c r="AB34" s="3">
         <f xml:space="preserve"> C34 / AA34</f>
-        <v>14.07661737878332</v>
+        <v>14.778407318172075</v>
       </c>
       <c r="AC34" s="3">
         <f xml:space="preserve"> B34 / Z34</f>
-        <v>11.816996391079776</v>
+        <v>11.866208635813244</v>
       </c>
       <c r="AD34" s="1" t="s">
-        <v>798</v>
+        <v>730</v>
       </c>
       <c r="AE34" s="1" t="s">
-        <v>648</v>
-      </c>
-      <c r="AF34" s="1" t="s">
-        <v>799</v>
-      </c>
-      <c r="AG34" s="1" t="s">
-        <v>800</v>
+        <v>731</v>
+      </c>
+      <c r="AF34">
+        <v>17.973299999999998</v>
+      </c>
+      <c r="AG34">
+        <v>17.246500000000001</v>
       </c>
       <c r="AH34" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI34" s="1" t="s">
-        <v>801</v>
+        <v>732</v>
       </c>
       <c r="AJ34" t="s">
-        <v>802</v>
+        <v>733</v>
       </c>
       <c r="AK34" t="s">
-        <v>1525</v>
-      </c>
-      <c r="AL34" s="17" t="str">
+        <v>1572</v>
+      </c>
+      <c r="AL34" t="str">
         <f xml:space="preserve"> VLOOKUP(AK34, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM34" t="s">
-        <v>803</v>
+        <v>734</v>
       </c>
       <c r="AN34" t="s">
-        <v>804</v>
+        <v>735</v>
       </c>
       <c r="AO34" t="s">
-        <v>805</v>
+        <v>736</v>
       </c>
       <c r="AP34" t="s">
-        <v>806</v>
+        <v>737</v>
       </c>
       <c r="AQ34" t="s">
-        <v>807</v>
+        <v>738</v>
       </c>
       <c r="AR34" t="s">
-        <v>808</v>
+        <v>739</v>
       </c>
       <c r="AS34" t="s">
-        <v>809</v>
+        <v>740</v>
       </c>
       <c r="AT34" t="s">
-        <v>810</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
-        <v>399</v>
+      <c r="A35" t="s">
+        <v>83</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>400</v>
+        <v>84</v>
       </c>
       <c r="C35" s="3">
         <f xml:space="preserve"> B35 - I35</f>
-        <v>22.332942708302198</v>
+        <v>2.9414393106491872</v>
       </c>
       <c r="D35" s="3" t="s">
-        <v>401</v>
+        <v>85</v>
       </c>
       <c r="E35" s="9">
         <f xml:space="preserve"> C35 / B35</f>
-        <v>0.18349502480369781</v>
+        <v>2.8748237138879053E-2</v>
       </c>
       <c r="F35" s="3" t="s">
-        <v>402</v>
+        <v>86</v>
       </c>
       <c r="G35" s="3" t="s">
-        <v>403</v>
+        <v>87</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>404</v>
+        <v>88</v>
       </c>
       <c r="I35" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J35" s="3" t="s">
-        <v>405</v>
+        <v>89</v>
       </c>
       <c r="K35" s="3">
         <f xml:space="preserve"> J35 - I35</f>
-        <v>11.365663147036187</v>
+        <v>8.4445576984371939</v>
       </c>
       <c r="L35" s="3">
         <f xml:space="preserve"> $J35 - B35</f>
-        <v>-10.967279561266011</v>
+        <v>5.5031183877880068</v>
       </c>
       <c r="M35" s="3">
         <f xml:space="preserve"> $J35 / B35</f>
-        <v>0.90988911486458623</v>
+        <v>1.0537848773023091</v>
       </c>
       <c r="N35" s="8">
         <f xml:space="preserve"> $K35 / C35</f>
-        <v>0.50891919150497977</v>
+        <v>2.8708930583284573</v>
       </c>
       <c r="O35" s="3">
         <f xml:space="preserve"> $J35 - F35</f>
-        <v>-18.473167928020999</v>
+        <v>0.70086110414099778</v>
       </c>
       <c r="P35" s="3">
         <f xml:space="preserve"> $J35 / F35</f>
-        <v>0.85703497745601587</v>
+        <v>1.0065427988581059</v>
       </c>
       <c r="Q35" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R35" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S35" s="1" t="s">
-        <v>406</v>
+        <v>1211</v>
+      </c>
+      <c r="S35">
+        <v>65.723046874999994</v>
       </c>
       <c r="T35" s="1" t="s">
-        <v>407</v>
-      </c>
-      <c r="U35">
-        <v>44.467187500000001</v>
-      </c>
-      <c r="V35" s="1" t="s">
-        <v>408</v>
-      </c>
-      <c r="W35">
-        <v>48.38671875</v>
+        <v>90</v>
+      </c>
+      <c r="U35" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="V35">
+        <v>54.673828125</v>
+      </c>
+      <c r="W35" s="1" t="s">
+        <v>92</v>
       </c>
       <c r="X35" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y35" s="1" t="s">
-        <v>409</v>
+      <c r="Y35">
+        <v>105.341015625</v>
       </c>
       <c r="Z35" s="1" t="s">
-        <v>410</v>
+        <v>93</v>
       </c>
       <c r="AA35" s="3">
         <f xml:space="preserve"> Z35 - AH35</f>
-        <v>1.6270999999999702</v>
+        <v>8.0033333333329182E-2</v>
       </c>
       <c r="AB35" s="3">
         <f xml:space="preserve"> C35 / AA35</f>
-        <v>13.725611645444415</v>
+        <v>36.752677767380341</v>
       </c>
       <c r="AC35" s="3">
         <f xml:space="preserve"> B35 / Z35</f>
-        <v>11.959271592957577</v>
+        <v>11.856174639905955</v>
       </c>
       <c r="AD35" s="1" t="s">
-        <v>411</v>
+        <v>94</v>
       </c>
       <c r="AE35" s="1" t="s">
-        <v>412</v>
+        <v>95</v>
       </c>
       <c r="AF35" s="1" t="s">
-        <v>413</v>
-      </c>
-      <c r="AG35">
-        <v>10.6105</v>
+        <v>96</v>
+      </c>
+      <c r="AG35" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="AH35" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI35" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="AJ35" s="7" t="s">
-        <v>415</v>
+        <v>97</v>
+      </c>
+      <c r="AJ35" t="s">
+        <v>98</v>
       </c>
       <c r="AK35" t="s">
-        <v>1403</v>
-      </c>
-      <c r="AL35" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK35, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>1600</v>
+      </c>
+      <c r="AL35" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM35" t="s">
-        <v>416</v>
+        <v>99</v>
       </c>
       <c r="AN35" t="s">
-        <v>417</v>
+        <v>100</v>
       </c>
       <c r="AO35" t="s">
-        <v>418</v>
+        <v>101</v>
       </c>
       <c r="AP35" t="s">
-        <v>419</v>
+        <v>102</v>
       </c>
       <c r="AQ35" t="s">
-        <v>420</v>
+        <v>103</v>
       </c>
       <c r="AR35" t="s">
-        <v>421</v>
+        <v>104</v>
       </c>
       <c r="AS35" t="s">
-        <v>422</v>
+        <v>105</v>
       </c>
       <c r="AT35" t="s">
-        <v>423</v>
+        <v>106</v>
       </c>
     </row>
     <row r="36" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>649</v>
+      <c r="A36" s="7" t="s">
+        <v>903</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>650</v>
+        <v>904</v>
       </c>
       <c r="C36" s="3">
         <f xml:space="preserve"> B36 - I36</f>
-        <v>8.1642049153211929</v>
+        <v>21.318098958414197</v>
       </c>
       <c r="D36" s="3" t="s">
-        <v>651</v>
+        <v>905</v>
       </c>
       <c r="E36" s="9">
         <f xml:space="preserve"> C36 / B36</f>
-        <v>7.5917863555962542E-2</v>
+        <v>0.17662951457919399</v>
       </c>
       <c r="F36" s="3" t="s">
-        <v>652</v>
+        <v>906</v>
       </c>
       <c r="G36" s="3" t="s">
-        <v>653</v>
+        <v>907</v>
       </c>
       <c r="H36" s="3" t="s">
-        <v>654</v>
+        <v>908</v>
       </c>
       <c r="I36" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J36" s="3" t="s">
-        <v>655</v>
+        <v>909</v>
       </c>
       <c r="K36" s="3">
         <f xml:space="preserve"> J36 - I36</f>
-        <v>12.152474466852198</v>
+        <v>5.2729975383902001</v>
       </c>
       <c r="L36" s="3">
         <f xml:space="preserve"> $J36 - B36</f>
-        <v>3.9882695515310047</v>
+        <v>-16.045101420023997</v>
       </c>
       <c r="M36" s="3">
         <f xml:space="preserve"> $J36 / B36</f>
-        <v>1.0370863919730045</v>
+        <v>0.86705951216751498</v>
       </c>
       <c r="N36" s="8">
         <f xml:space="preserve"> $K36 / C36</f>
-        <v>1.4885067918918224</v>
+        <v>0.24734839390118141</v>
       </c>
       <c r="O36" s="3">
         <f xml:space="preserve"> $J36 - F36</f>
-        <v>-99.066344706370984</v>
+        <v>-13.661448160606994</v>
       </c>
       <c r="P36" s="3">
         <f xml:space="preserve"> $J36 / F36</f>
-        <v>0.52958741009178723</v>
+        <v>0.88452858085558483</v>
       </c>
       <c r="Q36" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R36" s="3" t="s">
-        <v>1211</v>
+        <v>1212</v>
       </c>
       <c r="S36" s="1" t="s">
-        <v>656</v>
-      </c>
-      <c r="T36" s="1" t="s">
-        <v>657</v>
-      </c>
-      <c r="U36" s="1" t="s">
-        <v>658</v>
-      </c>
-      <c r="V36" s="1" t="s">
-        <v>659</v>
-      </c>
-      <c r="W36">
-        <v>127.46796875</v>
+        <v>910</v>
+      </c>
+      <c r="T36">
+        <v>55.746875000000003</v>
+      </c>
+      <c r="U36">
+        <v>46.035546875000001</v>
+      </c>
+      <c r="V36">
+        <v>50.715625000000003</v>
+      </c>
+      <c r="W36" s="1" t="s">
+        <v>911</v>
       </c>
       <c r="X36" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y36" s="1" t="s">
-        <v>660</v>
+      <c r="Y36">
+        <v>119.18320312500001</v>
       </c>
       <c r="Z36" s="1" t="s">
-        <v>661</v>
+        <v>912</v>
       </c>
       <c r="AA36" s="3">
         <f xml:space="preserve"> Z36 - AH36</f>
-        <v>0.60673333333332913</v>
+        <v>1.6470999999999698</v>
       </c>
       <c r="AB36" s="3">
         <f xml:space="preserve"> C36 / AA36</f>
-        <v>13.456001948117651</v>
+        <v>12.942807940267492</v>
       </c>
       <c r="AC36" s="3">
         <f xml:space="preserve"> B36 / Z36</f>
-        <v>11.744573685599962</v>
-      </c>
-      <c r="AD36" s="1" t="s">
-        <v>662</v>
+        <v>11.836290580848006</v>
+      </c>
+      <c r="AD36">
+        <v>8.85</v>
       </c>
       <c r="AE36" s="1" t="s">
-        <v>663</v>
-      </c>
-      <c r="AF36" s="1" t="s">
-        <v>664</v>
+        <v>913</v>
+      </c>
+      <c r="AF36">
+        <v>9.7769999999999992</v>
       </c>
       <c r="AG36" s="1" t="s">
-        <v>665</v>
+        <v>914</v>
       </c>
       <c r="AH36" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI36" s="1" t="s">
-        <v>666</v>
-      </c>
-      <c r="AJ36" t="s">
-        <v>667</v>
+        <v>915</v>
+      </c>
+      <c r="AJ36" s="7" t="s">
+        <v>916</v>
       </c>
       <c r="AK36" t="s">
-        <v>1594</v>
-      </c>
-      <c r="AL36" s="7" t="s">
-        <v>1228</v>
+        <v>1417</v>
+      </c>
+      <c r="AL36" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK36, Classification!A:B, 2, FALSE)</f>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM36" t="s">
-        <v>668</v>
+        <v>917</v>
       </c>
       <c r="AN36" t="s">
-        <v>669</v>
+        <v>918</v>
       </c>
       <c r="AO36" t="s">
-        <v>670</v>
+        <v>919</v>
       </c>
       <c r="AP36" t="s">
-        <v>671</v>
+        <v>920</v>
       </c>
       <c r="AQ36" t="s">
-        <v>672</v>
+        <v>921</v>
       </c>
       <c r="AR36" t="s">
-        <v>673</v>
+        <v>922</v>
       </c>
       <c r="AS36" t="s">
-        <v>674</v>
+        <v>923</v>
       </c>
       <c r="AT36" t="s">
-        <v>675</v>
+        <v>924</v>
       </c>
     </row>
     <row r="37" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
-        <v>903</v>
+      <c r="A37" t="s">
+        <v>788</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>904</v>
+        <v>789</v>
       </c>
       <c r="C37" s="3">
         <f xml:space="preserve"> B37 - I37</f>
-        <v>21.318098958414197</v>
+        <v>10.326137288496199</v>
       </c>
       <c r="D37" s="3" t="s">
-        <v>905</v>
+        <v>790</v>
       </c>
       <c r="E37" s="9">
         <f xml:space="preserve"> C37 / B37</f>
-        <v>0.17662951457919399</v>
+        <v>9.4129061429458635E-2</v>
       </c>
       <c r="F37" s="3" t="s">
-        <v>906</v>
+        <v>791</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>907</v>
+        <v>792</v>
       </c>
       <c r="H37" s="3" t="s">
-        <v>908</v>
+        <v>793</v>
       </c>
       <c r="I37" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J37" s="3" t="s">
-        <v>909</v>
+        <v>794</v>
       </c>
       <c r="K37" s="3">
         <f xml:space="preserve"> J37 - I37</f>
-        <v>5.2729975383902001</v>
+        <v>8.5043273926881966</v>
       </c>
       <c r="L37" s="3">
         <f xml:space="preserve"> $J37 - B37</f>
-        <v>-16.045101420023997</v>
+        <v>-1.821809895808002</v>
       </c>
       <c r="M37" s="3">
         <f xml:space="preserve"> $J37 / B37</f>
-        <v>0.86705951216751498</v>
+        <v>0.98339308777287426</v>
       </c>
       <c r="N37" s="8">
         <f xml:space="preserve"> $K37 / C37</f>
-        <v>0.24734839390118141</v>
+        <v>0.8235729542509973</v>
       </c>
       <c r="O37" s="3">
         <f xml:space="preserve"> $J37 - F37</f>
-        <v>-13.661448160606994</v>
+        <v>-0.9255228676599927</v>
       </c>
       <c r="P37" s="3">
         <f xml:space="preserve"> $J37 / F37</f>
-        <v>0.88452858085558483</v>
+        <v>0.9914937951652486</v>
       </c>
       <c r="Q37" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R37" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S37" s="1" t="s">
-        <v>910</v>
-      </c>
-      <c r="T37">
-        <v>55.746875000000003</v>
+        <v>1211</v>
+      </c>
+      <c r="S37">
+        <v>66.879687500000003</v>
+      </c>
+      <c r="T37" s="1" t="s">
+        <v>795</v>
       </c>
       <c r="U37">
-        <v>46.035546875000001</v>
-      </c>
-      <c r="V37">
-        <v>50.715625000000003</v>
-      </c>
-      <c r="W37" s="1" t="s">
-        <v>911</v>
+        <v>70.322656249999994</v>
+      </c>
+      <c r="V37" s="1" t="s">
+        <v>796</v>
+      </c>
+      <c r="W37">
+        <v>55.116796874999999</v>
       </c>
       <c r="X37" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y37">
-        <v>119.18320312500001</v>
-      </c>
-      <c r="Z37" s="1" t="s">
-        <v>912</v>
+      <c r="Y37" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="Z37">
+        <v>9.2834000000000003</v>
       </c>
       <c r="AA37" s="3">
         <f xml:space="preserve"> Z37 - AH37</f>
-        <v>1.6470999999999698</v>
+        <v>0.73356666666667003</v>
       </c>
       <c r="AB37" s="3">
         <f xml:space="preserve"> C37 / AA37</f>
-        <v>12.942807940267492</v>
+        <v>14.07661737878332</v>
       </c>
       <c r="AC37" s="3">
         <f xml:space="preserve"> B37 / Z37</f>
-        <v>11.836290580848006</v>
-      </c>
-      <c r="AD37">
-        <v>8.85</v>
+        <v>11.816996391079776</v>
+      </c>
+      <c r="AD37" s="1" t="s">
+        <v>798</v>
       </c>
       <c r="AE37" s="1" t="s">
-        <v>913</v>
-      </c>
-      <c r="AF37">
-        <v>9.7769999999999992</v>
+        <v>648</v>
+      </c>
+      <c r="AF37" s="1" t="s">
+        <v>799</v>
       </c>
       <c r="AG37" s="1" t="s">
-        <v>914</v>
+        <v>800</v>
       </c>
       <c r="AH37" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI37" s="1" t="s">
-        <v>915</v>
-      </c>
-      <c r="AJ37" s="7" t="s">
-        <v>916</v>
+        <v>801</v>
+      </c>
+      <c r="AJ37" t="s">
+        <v>802</v>
       </c>
       <c r="AK37" t="s">
-        <v>1417</v>
-      </c>
-      <c r="AL37" t="str">
+        <v>1525</v>
+      </c>
+      <c r="AL37" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK37, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>Scientific</v>
       </c>
       <c r="AM37" t="s">
-        <v>917</v>
+        <v>803</v>
       </c>
       <c r="AN37" t="s">
-        <v>918</v>
+        <v>804</v>
       </c>
       <c r="AO37" t="s">
-        <v>919</v>
+        <v>805</v>
       </c>
       <c r="AP37" t="s">
-        <v>920</v>
+        <v>806</v>
       </c>
       <c r="AQ37" t="s">
-        <v>921</v>
+        <v>807</v>
       </c>
       <c r="AR37" t="s">
-        <v>922</v>
+        <v>808</v>
       </c>
       <c r="AS37" t="s">
-        <v>923</v>
+        <v>809</v>
       </c>
       <c r="AT37" t="s">
-        <v>924</v>
+        <v>810</v>
       </c>
     </row>
     <row r="38" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>350</v>
+        <v>1120</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>351</v>
+        <v>1121</v>
       </c>
       <c r="C38" s="3">
         <f xml:space="preserve"> B38 - I38</f>
-        <v>6.3194941202831956</v>
+        <v>1.0895304362751972</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>352</v>
+        <v>1122</v>
       </c>
       <c r="E38" s="9">
         <f xml:space="preserve"> C38 / B38</f>
-        <v>5.9789758337282894E-2</v>
+        <v>1.0844843582676919E-2</v>
       </c>
       <c r="F38" s="3" t="s">
-        <v>353</v>
+        <v>1123</v>
       </c>
       <c r="G38" s="3" t="s">
-        <v>354</v>
+        <v>1124</v>
       </c>
       <c r="H38" s="3" t="s">
-        <v>355</v>
+        <v>1125</v>
       </c>
       <c r="I38" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J38" s="3" t="s">
-        <v>356</v>
+        <v>1126</v>
       </c>
       <c r="K38" s="3">
         <f xml:space="preserve"> J38 - I38</f>
-        <v>8.9242833456891901</v>
+        <v>8.7341934203341935</v>
       </c>
       <c r="L38" s="3">
         <f xml:space="preserve"> $J38 - B38</f>
-        <v>2.6047892254059946</v>
+        <v>7.6446629840589964</v>
       </c>
       <c r="M38" s="3">
         <f xml:space="preserve"> $J38 / B38</f>
-        <v>1.0246443331289314</v>
-      </c>
-      <c r="N38" s="3">
+        <v>1.0760925730425943</v>
+      </c>
+      <c r="N38" s="8">
         <f xml:space="preserve"> $K38 / C38</f>
-        <v>1.4121831867911077</v>
+        <v>8.0164749230815264</v>
       </c>
       <c r="O38" s="3">
         <f xml:space="preserve"> $J38 - F38</f>
-        <v>-8.1924758909350004</v>
+        <v>0.98891092924199597</v>
       </c>
       <c r="P38" s="3">
         <f xml:space="preserve"> $J38 / F38</f>
-        <v>0.92967380693848467</v>
+        <v>1.0092317143443053</v>
       </c>
       <c r="Q38" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="R38" s="3" t="s">
-        <v>1211</v>
-      </c>
-      <c r="S38" s="1" t="s">
-        <v>357</v>
-      </c>
-      <c r="T38" s="1" t="s">
-        <v>358</v>
-      </c>
-      <c r="U38">
-        <v>72.943749999999994</v>
+        <v>1213</v>
+      </c>
+      <c r="S38">
+        <v>44.183984375000001</v>
+      </c>
+      <c r="T38">
+        <v>57.812890625000001</v>
+      </c>
+      <c r="U38" s="1" t="s">
+        <v>1127</v>
       </c>
       <c r="V38" s="1" t="s">
-        <v>359</v>
+        <v>1128</v>
       </c>
       <c r="W38">
-        <v>62.623828125000003</v>
+        <v>58.811718749999997</v>
       </c>
       <c r="X38" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y38" s="1" t="s">
-        <v>360</v>
+        <v>1129</v>
       </c>
       <c r="Z38">
-        <v>9.0632999999999999</v>
+        <v>8.5099</v>
       </c>
       <c r="AA38" s="3">
         <f xml:space="preserve"> Z38 - AH38</f>
-        <v>0.51346666666666962</v>
+        <v>-3.9933333333330268E-2</v>
       </c>
       <c r="AB38" s="3">
         <f xml:space="preserve"> C38 / AA38</f>
-        <v>12.307506076895272</v>
+        <v>-27.283733796542926</v>
       </c>
       <c r="AC38" s="3">
         <f xml:space="preserve"> B38 / Z38</f>
-        <v>11.661895902015491</v>
+        <v>11.805696593935181</v>
       </c>
       <c r="AD38">
-        <v>8.9832999999999998</v>
+        <v>9.7835000000000001</v>
       </c>
       <c r="AE38">
-        <v>9.2432999999999996</v>
-      </c>
-      <c r="AF38">
-        <v>8.91</v>
+        <v>8.9099000000000004</v>
+      </c>
+      <c r="AF38" s="1" t="s">
+        <v>136</v>
       </c>
       <c r="AG38" s="1" t="s">
-        <v>361</v>
+        <v>95</v>
       </c>
       <c r="AH38" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI38" s="1" t="s">
-        <v>362</v>
+        <v>855</v>
       </c>
       <c r="AJ38" t="s">
-        <v>363</v>
+        <v>1130</v>
       </c>
       <c r="AK38" t="s">
-        <v>1364</v>
-      </c>
-      <c r="AL38" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK38, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>1592</v>
+      </c>
+      <c r="AL38" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM38" t="s">
-        <v>364</v>
+        <v>1131</v>
       </c>
       <c r="AN38" t="s">
-        <v>365</v>
+        <v>1132</v>
       </c>
       <c r="AO38" t="s">
-        <v>366</v>
+        <v>1133</v>
       </c>
       <c r="AP38" t="s">
-        <v>367</v>
+        <v>1134</v>
       </c>
       <c r="AQ38" t="s">
-        <v>368</v>
+        <v>1135</v>
       </c>
       <c r="AR38" t="s">
-        <v>369</v>
+        <v>1136</v>
       </c>
       <c r="AS38" t="s">
-        <v>370</v>
+        <v>1137</v>
       </c>
       <c r="AT38" t="s">
-        <v>371</v>
+        <v>1138</v>
       </c>
     </row>
     <row r="39" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>108</v>
+        <v>649</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>109</v>
+        <v>650</v>
       </c>
       <c r="C39" s="3">
         <f xml:space="preserve"> B39 - I39</f>
-        <v>8.0963918049931891</v>
+        <v>8.1642049153211929</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>110</v>
+        <v>651</v>
       </c>
       <c r="E39" s="9">
         <f xml:space="preserve"> C39 / B39</f>
-        <v>7.5334783393037813E-2</v>
+        <v>7.5917863555962542E-2</v>
       </c>
       <c r="F39" s="3" t="s">
-        <v>111</v>
+        <v>652</v>
       </c>
       <c r="G39" s="3" t="s">
-        <v>112</v>
+        <v>653</v>
       </c>
       <c r="H39" s="3" t="s">
-        <v>113</v>
+        <v>654</v>
       </c>
       <c r="I39" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J39" s="3" t="s">
-        <v>114</v>
+        <v>655</v>
       </c>
       <c r="K39" s="3">
         <f xml:space="preserve"> J39 - I39</f>
-        <v>13.74294179266019</v>
+        <v>12.152474466852198</v>
       </c>
       <c r="L39" s="3">
         <f xml:space="preserve"> $J39 - B39</f>
-        <v>5.6465499876670009</v>
+        <v>3.9882695515310047</v>
       </c>
       <c r="M39" s="3">
         <f xml:space="preserve"> $J39 / B39</f>
-        <v>1.05253965352523</v>
+        <v>1.0370863919730045</v>
       </c>
       <c r="N39" s="8">
         <f xml:space="preserve"> $K39 / C39</f>
-        <v>1.6974156048358076</v>
+        <v>1.4885067918918224</v>
       </c>
       <c r="O39" s="3">
         <f xml:space="preserve"> $J39 - F39</f>
-        <v>2.3122456867089909</v>
+        <v>-99.066344706370984</v>
       </c>
       <c r="P39" s="3">
         <f xml:space="preserve"> $J39 / F39</f>
-        <v>1.020867426156556</v>
+        <v>0.52958741009178723</v>
       </c>
       <c r="Q39" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R39" s="3" t="s">
         <v>1211</v>
       </c>
       <c r="S39" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="T39">
-        <v>62.734765625000001</v>
+        <v>656</v>
+      </c>
+      <c r="T39" s="1" t="s">
+        <v>657</v>
       </c>
       <c r="U39" s="1" t="s">
-        <v>116</v>
+        <v>658</v>
       </c>
       <c r="V39" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="W39" s="1" t="s">
-        <v>118</v>
+        <v>659</v>
+      </c>
+      <c r="W39">
+        <v>127.46796875</v>
       </c>
       <c r="X39" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y39" s="1" t="s">
-        <v>119</v>
+        <v>660</v>
       </c>
       <c r="Z39" s="1" t="s">
-        <v>120</v>
+        <v>661</v>
       </c>
       <c r="AA39" s="3">
         <f xml:space="preserve"> Z39 - AH39</f>
-        <v>0.66670000000000051</v>
+        <v>0.60673333333332913</v>
       </c>
       <c r="AB39" s="3">
         <f xml:space="preserve"> C39 / AA39</f>
-        <v>12.143980508464351</v>
+        <v>13.456001948117651</v>
       </c>
       <c r="AC39" s="3">
         <f xml:space="preserve"> B39 / Z39</f>
-        <v>11.660800750836941</v>
+        <v>11.744573685599962</v>
       </c>
       <c r="AD39" s="1" t="s">
-        <v>121</v>
+        <v>662</v>
       </c>
       <c r="AE39" s="1" t="s">
-        <v>122</v>
+        <v>663</v>
       </c>
       <c r="AF39" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="AG39">
-        <v>9.2035</v>
+        <v>664</v>
+      </c>
+      <c r="AG39" s="1" t="s">
+        <v>665</v>
       </c>
       <c r="AH39" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI39" s="1" t="s">
-        <v>124</v>
+        <v>666</v>
       </c>
       <c r="AJ39" t="s">
-        <v>125</v>
+        <v>667</v>
       </c>
       <c r="AK39" t="s">
-        <v>1591</v>
+        <v>1594</v>
       </c>
       <c r="AL39" s="7" t="s">
         <v>1228</v>
       </c>
       <c r="AM39" t="s">
-        <v>126</v>
+        <v>668</v>
       </c>
       <c r="AN39" t="s">
-        <v>127</v>
+        <v>669</v>
       </c>
       <c r="AO39" t="s">
-        <v>128</v>
+        <v>670</v>
       </c>
       <c r="AP39" t="s">
-        <v>129</v>
+        <v>671</v>
       </c>
       <c r="AQ39" t="s">
-        <v>130</v>
+        <v>672</v>
       </c>
       <c r="AR39" t="s">
-        <v>131</v>
+        <v>673</v>
       </c>
       <c r="AS39" t="s">
-        <v>132</v>
+        <v>674</v>
       </c>
       <c r="AT39" t="s">
-        <v>133</v>
+        <v>675</v>
       </c>
     </row>
     <row r="40" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>31</v>
+        <v>1099</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>32</v>
+        <v>1100</v>
       </c>
       <c r="C40" s="3">
         <f xml:space="preserve"> B40 - I40</f>
-        <v>6.8610254924041953</v>
+        <v>5.184787495990193</v>
       </c>
       <c r="D40" s="3" t="s">
-        <v>33</v>
+        <v>1101</v>
       </c>
       <c r="E40" s="9">
         <f xml:space="preserve"> C40 / B40</f>
-        <v>6.4582385545467066E-2</v>
+        <v>4.9586457537099525E-2</v>
       </c>
       <c r="F40" s="3" t="s">
-        <v>34</v>
+        <v>1102</v>
       </c>
       <c r="G40" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="H40" s="3" t="s">
-        <v>36</v>
+        <v>1103</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>1104</v>
       </c>
       <c r="I40" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J40" s="3" t="s">
-        <v>38</v>
+        <v>1105</v>
       </c>
       <c r="K40" s="3">
         <f xml:space="preserve"> J40 - I40</f>
-        <v>10.793138122552193</v>
+        <v>8.1786412556051999</v>
       </c>
       <c r="L40" s="3">
         <f xml:space="preserve"> $J40 - B40</f>
-        <v>3.9321126301479978</v>
+        <v>2.993853759615007</v>
       </c>
       <c r="M40" s="3">
         <f xml:space="preserve"> $J40 / B40</f>
-        <v>1.0370127197704717</v>
+        <v>1.0286327264980961</v>
       </c>
       <c r="N40" s="8">
         <f xml:space="preserve"> $K40 / C40</f>
-        <v>1.5731085877032842</v>
+        <v>1.5774303695050937</v>
       </c>
       <c r="O40" s="3">
         <f xml:space="preserve"> $J40 - F40</f>
-        <v>5.5970270792430057</v>
+        <v>-4.9264892578879937</v>
       </c>
       <c r="P40" s="3">
         <f xml:space="preserve"> $J40 / F40</f>
-        <v>1.0535232529387344</v>
+        <v>0.9562015474056228</v>
       </c>
       <c r="Q40" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R40" s="3" t="s">
         <v>1211</v>
       </c>
       <c r="S40" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="T40">
-        <v>54.607812500000001</v>
+        <v>1106</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>1107</v>
       </c>
       <c r="U40" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="V40">
-        <v>56.93359375</v>
+        <v>1108</v>
+      </c>
+      <c r="V40" s="1" t="s">
+        <v>1109</v>
       </c>
       <c r="W40">
-        <v>66.971093749999994</v>
+        <v>64.694921875000006</v>
       </c>
       <c r="X40" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y40" s="1" t="s">
-        <v>42</v>
+      <c r="Y40">
+        <v>116.736328125</v>
       </c>
       <c r="Z40" s="1" t="s">
-        <v>43</v>
+        <v>857</v>
       </c>
       <c r="AA40" s="3">
         <f xml:space="preserve"> Z40 - AH40</f>
-        <v>0.57346666666665946</v>
+        <v>0.35350000000000037</v>
       </c>
       <c r="AB40" s="3">
         <f xml:space="preserve"> C40 / AA40</f>
-        <v>11.964122574525019</v>
+        <v>14.667008475219767</v>
       </c>
       <c r="AC40" s="3">
         <f xml:space="preserve"> B40 / Z40</f>
-        <v>11.644557616307489</v>
-      </c>
-      <c r="AD40" s="1" t="s">
-        <v>44</v>
+        <v>11.743978416822618</v>
+      </c>
+      <c r="AD40">
+        <v>8.7565000000000008</v>
       </c>
       <c r="AE40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AF40">
-        <v>8.7499000000000002</v>
-      </c>
-      <c r="AG40" s="1" t="s">
-        <v>46</v>
+        <v>604</v>
+      </c>
+      <c r="AF40" s="1" t="s">
+        <v>856</v>
+      </c>
+      <c r="AG40">
+        <v>8.5297999999999998</v>
       </c>
       <c r="AH40" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI40" s="1" t="s">
-        <v>48</v>
+        <v>1110</v>
       </c>
       <c r="AJ40" t="s">
-        <v>49</v>
+        <v>1111</v>
       </c>
       <c r="AK40" t="s">
-        <v>1363</v>
+        <v>1236</v>
       </c>
       <c r="AL40" t="str">
         <f xml:space="preserve"> VLOOKUP(AK40, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM40" t="s">
-        <v>50</v>
+        <v>1112</v>
       </c>
       <c r="AN40" t="s">
-        <v>51</v>
+        <v>1113</v>
       </c>
       <c r="AO40" t="s">
-        <v>52</v>
+        <v>1114</v>
       </c>
       <c r="AP40" t="s">
-        <v>53</v>
+        <v>1115</v>
       </c>
       <c r="AQ40" t="s">
-        <v>54</v>
+        <v>1116</v>
       </c>
       <c r="AR40" t="s">
-        <v>55</v>
+        <v>1117</v>
       </c>
       <c r="AS40" t="s">
-        <v>56</v>
+        <v>1118</v>
       </c>
       <c r="AT40" t="s">
-        <v>57</v>
+        <v>1119</v>
       </c>
     </row>
     <row r="41" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>767</v>
+        <v>350</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>768</v>
+        <v>351</v>
       </c>
       <c r="C41" s="3">
         <f xml:space="preserve"> B41 - I41</f>
-        <v>14.27442779542919</v>
+        <v>6.3194941202831956</v>
       </c>
       <c r="D41" s="3" t="s">
-        <v>769</v>
+        <v>352</v>
       </c>
       <c r="E41" s="9">
         <f xml:space="preserve"> C41 / B41</f>
-        <v>0.12559967732621508</v>
+        <v>5.9789758337282894E-2</v>
       </c>
       <c r="F41" s="3" t="s">
-        <v>770</v>
+        <v>353</v>
       </c>
       <c r="G41" s="3" t="s">
-        <v>771</v>
+        <v>354</v>
       </c>
       <c r="H41" s="3" t="s">
-        <v>772</v>
+        <v>355</v>
       </c>
       <c r="I41" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J41" s="3" t="s">
-        <v>773</v>
+        <v>356</v>
       </c>
       <c r="K41" s="3">
         <f xml:space="preserve"> J41 - I41</f>
-        <v>8.812023417048195</v>
+        <v>8.9242833456891901</v>
       </c>
       <c r="L41" s="3">
         <f xml:space="preserve"> $J41 - B41</f>
-        <v>-5.4624043783809952</v>
+        <v>2.6047892254059946</v>
       </c>
       <c r="M41" s="3">
         <f xml:space="preserve"> $J41 / B41</f>
-        <v>0.95193669146096027</v>
+        <v>1.0246443331289314</v>
       </c>
       <c r="N41" s="3">
         <f xml:space="preserve"> $K41 / C41</f>
-        <v>0.61732936292338736</v>
+        <v>1.4121831867911077</v>
       </c>
       <c r="O41" s="3">
         <f xml:space="preserve"> $J41 - F41</f>
-        <v>-102.17644805913999</v>
+        <v>-8.1924758909350004</v>
       </c>
       <c r="P41" s="3">
         <f xml:space="preserve"> $J41 / F41</f>
-        <v>0.51428793793485217</v>
+        <v>0.92967380693848467</v>
       </c>
       <c r="Q41" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="R41" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S41">
-        <v>49.739843749999999</v>
-      </c>
-      <c r="T41">
-        <v>131.43789062499999</v>
+        <v>1211</v>
+      </c>
+      <c r="S41" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>358</v>
       </c>
       <c r="U41">
-        <v>117.82109375</v>
+        <v>72.943749999999994</v>
       </c>
       <c r="V41" s="1" t="s">
-        <v>774</v>
+        <v>359</v>
       </c>
       <c r="W41">
-        <v>96.3984375</v>
+        <v>62.623828125000003</v>
       </c>
       <c r="X41" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y41" s="1" t="s">
-        <v>775</v>
-      </c>
-      <c r="Z41" s="1" t="s">
-        <v>776</v>
+        <v>360</v>
+      </c>
+      <c r="Z41">
+        <v>9.0632999999999999</v>
       </c>
       <c r="AA41" s="3">
         <f xml:space="preserve"> Z41 - AH41</f>
-        <v>1.2270333333333294</v>
+        <v>0.51346666666666962</v>
       </c>
       <c r="AB41" s="3">
         <f xml:space="preserve"> C41 / AA41</f>
-        <v>11.633284449291708</v>
+        <v>12.307506076895272</v>
       </c>
       <c r="AC41" s="3">
         <f xml:space="preserve"> B41 / Z41</f>
-        <v>11.624398560262975</v>
-      </c>
-      <c r="AD41" s="1" t="s">
-        <v>777</v>
-      </c>
-      <c r="AE41" s="1" t="s">
-        <v>778</v>
-      </c>
-      <c r="AF41" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="AG41">
-        <v>19.273700000000002</v>
+        <v>11.661895902015491</v>
+      </c>
+      <c r="AD41">
+        <v>8.9832999999999998</v>
+      </c>
+      <c r="AE41">
+        <v>9.2432999999999996</v>
+      </c>
+      <c r="AF41">
+        <v>8.91</v>
+      </c>
+      <c r="AG41" s="1" t="s">
+        <v>361</v>
       </c>
       <c r="AH41" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI41">
-        <v>9.4232999999999993</v>
+      <c r="AI41" s="1" t="s">
+        <v>362</v>
       </c>
       <c r="AJ41" t="s">
-        <v>779</v>
+        <v>363</v>
       </c>
       <c r="AK41" t="s">
-        <v>1598</v>
-      </c>
-      <c r="AL41" s="7" t="s">
-        <v>1228</v>
+        <v>1364</v>
+      </c>
+      <c r="AL41" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK41, Classification!A:B, 2, FALSE)</f>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM41" t="s">
-        <v>780</v>
+        <v>364</v>
       </c>
       <c r="AN41" t="s">
-        <v>493</v>
+        <v>365</v>
       </c>
       <c r="AO41" t="s">
-        <v>781</v>
+        <v>366</v>
       </c>
       <c r="AP41" t="s">
-        <v>782</v>
+        <v>367</v>
       </c>
       <c r="AQ41" t="s">
-        <v>783</v>
+        <v>368</v>
       </c>
       <c r="AR41" t="s">
-        <v>784</v>
+        <v>369</v>
       </c>
       <c r="AS41" t="s">
-        <v>785</v>
+        <v>370</v>
       </c>
       <c r="AT41" t="s">
-        <v>786</v>
+        <v>371</v>
       </c>
     </row>
     <row r="42" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>424</v>
+        <v>108</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>425</v>
+        <v>109</v>
       </c>
       <c r="C42" s="3">
         <f xml:space="preserve"> B42 - I42</f>
-        <v>3.1541834513551947</v>
+        <v>8.0963918049931891</v>
       </c>
       <c r="D42" s="3" t="s">
-        <v>426</v>
+        <v>110</v>
       </c>
       <c r="E42" s="9">
         <f xml:space="preserve"> C42 / B42</f>
-        <v>3.0763532384535889E-2</v>
+        <v>7.5334783393037813E-2</v>
       </c>
       <c r="F42" s="3" t="s">
-        <v>427</v>
+        <v>111</v>
       </c>
       <c r="G42" s="3" t="s">
-        <v>428</v>
+        <v>112</v>
       </c>
       <c r="H42" s="3" t="s">
-        <v>429</v>
+        <v>113</v>
       </c>
       <c r="I42" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J42" s="3" t="s">
-        <v>430</v>
+        <v>114</v>
       </c>
       <c r="K42" s="3">
         <f xml:space="preserve"> J42 - I42</f>
-        <v>11.708354186982191</v>
+        <v>13.74294179266019</v>
       </c>
       <c r="L42" s="3">
         <f xml:space="preserve"> $J42 - B42</f>
-        <v>8.5541707356269967</v>
+        <v>5.6465499876670009</v>
       </c>
       <c r="M42" s="3">
         <f xml:space="preserve"> $J42 / B42</f>
-        <v>1.0834309457603821</v>
+        <v>1.05253965352523</v>
       </c>
       <c r="N42" s="8">
         <f xml:space="preserve"> $K42 / C42</f>
-        <v>3.7120079943199555</v>
+        <v>1.6974156048358076</v>
       </c>
       <c r="O42" s="3">
         <f xml:space="preserve"> $J42 - F42</f>
-        <v>-14.875857035350009</v>
+        <v>2.3122456867089909</v>
       </c>
       <c r="P42" s="3">
         <f xml:space="preserve"> $J42 / F42</f>
-        <v>0.88190013015011637</v>
+        <v>1.020867426156556</v>
       </c>
       <c r="Q42" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R42" s="3" t="s">
-        <v>1213</v>
+        <v>1211</v>
       </c>
       <c r="S42" s="1" t="s">
-        <v>431</v>
-      </c>
-      <c r="T42" s="1" t="s">
-        <v>432</v>
-      </c>
-      <c r="U42">
-        <v>51.948828124999999</v>
-      </c>
-      <c r="V42">
-        <v>48.6328125</v>
-      </c>
-      <c r="W42">
-        <v>53.359765625000001</v>
+        <v>115</v>
+      </c>
+      <c r="T42">
+        <v>62.734765625000001</v>
+      </c>
+      <c r="U42" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="V42" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="W42" s="1" t="s">
+        <v>118</v>
       </c>
       <c r="X42" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y42" s="1" t="s">
-        <v>433</v>
+        <v>119</v>
       </c>
       <c r="Z42" s="1" t="s">
-        <v>434</v>
+        <v>120</v>
       </c>
       <c r="AA42" s="3">
         <f xml:space="preserve"> Z42 - AH42</f>
-        <v>0.27340000000000053</v>
+        <v>0.66670000000000051</v>
       </c>
       <c r="AB42" s="3">
         <f xml:space="preserve"> C42 / AA42</f>
-        <v>11.536881680157968</v>
+        <v>12.143980508464351</v>
       </c>
       <c r="AC42" s="3">
         <f xml:space="preserve"> B42 / Z42</f>
-        <v>11.620450982800223</v>
-      </c>
-      <c r="AD42">
-        <v>8.5564999999999998</v>
+        <v>11.660800750836941</v>
+      </c>
+      <c r="AD42" s="1" t="s">
+        <v>121</v>
       </c>
       <c r="AE42" s="1" t="s">
-        <v>435</v>
+        <v>122</v>
       </c>
       <c r="AF42" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="AG42" s="1" t="s">
-        <v>436</v>
+        <v>123</v>
+      </c>
+      <c r="AG42">
+        <v>9.2035</v>
       </c>
       <c r="AH42" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI42" s="1" t="s">
-        <v>437</v>
+        <v>124</v>
       </c>
       <c r="AJ42" t="s">
-        <v>438</v>
+        <v>125</v>
       </c>
       <c r="AK42" t="s">
-        <v>1277</v>
-      </c>
-      <c r="AL42" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK42, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>1591</v>
+      </c>
+      <c r="AL42" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM42" t="s">
-        <v>439</v>
+        <v>126</v>
       </c>
       <c r="AN42" t="s">
-        <v>440</v>
+        <v>127</v>
       </c>
       <c r="AO42" t="s">
-        <v>441</v>
+        <v>128</v>
       </c>
       <c r="AP42" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="AQ42" t="s">
-        <v>442</v>
+        <v>130</v>
       </c>
       <c r="AR42" t="s">
-        <v>443</v>
+        <v>131</v>
       </c>
       <c r="AS42" t="s">
-        <v>444</v>
+        <v>132</v>
       </c>
       <c r="AT42" t="s">
-        <v>445</v>
+        <v>133</v>
       </c>
     </row>
     <row r="43" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>1015</v>
+        <v>31</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>1016</v>
+        <v>32</v>
       </c>
       <c r="C43" s="3">
         <f xml:space="preserve"> B43 - I43</f>
-        <v>11.052341206841191</v>
+        <v>6.8610254924041953</v>
       </c>
       <c r="D43" s="3" t="s">
-        <v>1017</v>
+        <v>33</v>
       </c>
       <c r="E43" s="9">
         <f xml:space="preserve"> C43 / B43</f>
-        <v>0.1000863039806234</v>
+        <v>6.4582385545467066E-2</v>
       </c>
       <c r="F43" s="3" t="s">
-        <v>1018</v>
+        <v>34</v>
       </c>
       <c r="G43" s="3" t="s">
-        <v>1019</v>
+        <v>35</v>
       </c>
       <c r="H43" s="3" t="s">
-        <v>1020</v>
+        <v>36</v>
       </c>
       <c r="I43" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>1021</v>
+        <v>38</v>
       </c>
       <c r="K43" s="3">
         <f xml:space="preserve"> J43 - I43</f>
-        <v>13.531787617793199</v>
+        <v>10.793138122552193</v>
       </c>
       <c r="L43" s="3">
         <f xml:space="preserve"> $J43 - B43</f>
-        <v>2.4794464109520078</v>
+        <v>3.9321126301479978</v>
       </c>
       <c r="M43" s="3">
         <f xml:space="preserve"> $J43 / B43</f>
-        <v>1.022453037102818</v>
-      </c>
-      <c r="N43" s="3">
+        <v>1.0370127197704717</v>
+      </c>
+      <c r="N43" s="8">
         <f xml:space="preserve"> $K43 / C43</f>
-        <v>1.2243367594747507</v>
+        <v>1.5731085877032842</v>
       </c>
       <c r="O43" s="3">
         <f xml:space="preserve"> $J43 - F43</f>
-        <v>1.175466410047008</v>
+        <v>5.5970270792430057</v>
       </c>
       <c r="P43" s="3">
         <f xml:space="preserve"> $J43 / F43</f>
-        <v>1.0105204013351339</v>
+        <v>1.0535232529387344</v>
       </c>
       <c r="Q43" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="R43" s="3" t="s">
-        <v>1212</v>
-      </c>
-      <c r="S43">
-        <v>49.135937499999997</v>
+        <v>1211</v>
+      </c>
+      <c r="S43" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="T43">
-        <v>56.568359375</v>
+        <v>54.607812500000001</v>
       </c>
       <c r="U43" s="1" t="s">
-        <v>1022</v>
-      </c>
-      <c r="V43" s="1" t="s">
-        <v>1023</v>
+        <v>40</v>
+      </c>
+      <c r="V43">
+        <v>56.93359375</v>
       </c>
       <c r="W43">
-        <v>47.126562499999999</v>
+        <v>66.971093749999994</v>
       </c>
       <c r="X43" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y43" s="1" t="s">
-        <v>1024</v>
+        <v>42</v>
       </c>
       <c r="Z43" s="1" t="s">
-        <v>1025</v>
+        <v>43</v>
       </c>
       <c r="AA43" s="3">
         <f xml:space="preserve"> Z43 - AH43</f>
-        <v>0.98043333333333038</v>
+        <v>0.57346666666665946</v>
       </c>
       <c r="AB43" s="3">
         <f xml:space="preserve"> C43 / AA43</f>
-        <v>11.27291456856617</v>
+        <v>11.964122574525019</v>
       </c>
       <c r="AC43" s="3">
         <f xml:space="preserve"> B43 / Z43</f>
-        <v>11.587095311984456</v>
+        <v>11.644557616307489</v>
       </c>
       <c r="AD43" s="1" t="s">
-        <v>1026</v>
-      </c>
-      <c r="AE43">
-        <v>9.3634000000000004</v>
+        <v>44</v>
+      </c>
+      <c r="AE43" s="1" t="s">
+        <v>45</v>
       </c>
       <c r="AF43">
-        <v>9.5434999999999999</v>
-      </c>
-      <c r="AG43">
-        <v>10.023999999999999</v>
+        <v>8.7499000000000002</v>
+      </c>
+      <c r="AG43" s="1" t="s">
+        <v>46</v>
       </c>
       <c r="AH43" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI43" s="1" t="s">
-        <v>1027</v>
+        <v>48</v>
       </c>
       <c r="AJ43" t="s">
-        <v>1028</v>
+        <v>49</v>
       </c>
       <c r="AK43" t="s">
-        <v>1458</v>
-      </c>
-      <c r="AL43" s="17" t="str">
+        <v>1363</v>
+      </c>
+      <c r="AL43" t="str">
         <f xml:space="preserve"> VLOOKUP(AK43, Classification!A:B, 2, FALSE)</f>
-        <v>Scientific</v>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM43" t="s">
-        <v>1029</v>
+        <v>50</v>
       </c>
       <c r="AN43" t="s">
-        <v>1030</v>
+        <v>51</v>
       </c>
       <c r="AO43" t="s">
-        <v>1031</v>
+        <v>52</v>
       </c>
       <c r="AP43" t="s">
-        <v>1032</v>
+        <v>53</v>
       </c>
       <c r="AQ43" t="s">
-        <v>1033</v>
+        <v>54</v>
       </c>
       <c r="AR43" t="s">
-        <v>1034</v>
+        <v>55</v>
       </c>
       <c r="AS43" t="s">
-        <v>1035</v>
+        <v>56</v>
       </c>
       <c r="AT43" t="s">
-        <v>1036</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A44" s="7" t="s">
-        <v>143</v>
+      <c r="A44" t="s">
+        <v>767</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>144</v>
+        <v>768</v>
       </c>
       <c r="C44" s="3">
         <f xml:space="preserve"> B44 - I44</f>
-        <v>8.8532674153951945</v>
+        <v>14.27442779542919</v>
       </c>
       <c r="D44" s="3" t="s">
-        <v>145</v>
+        <v>769</v>
       </c>
       <c r="E44" s="9">
         <f xml:space="preserve"> C44 / B44</f>
-        <v>8.1801223327225003E-2</v>
+        <v>0.12559967732621508</v>
       </c>
       <c r="F44" s="3" t="s">
-        <v>146</v>
+        <v>770</v>
       </c>
       <c r="G44" s="3" t="s">
-        <v>147</v>
+        <v>771</v>
       </c>
       <c r="H44" s="3" t="s">
-        <v>148</v>
+        <v>772</v>
       </c>
       <c r="I44" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>149</v>
+        <v>773</v>
       </c>
       <c r="K44" s="3">
         <f xml:space="preserve"> J44 - I44</f>
-        <v>9.0228708903161987</v>
+        <v>8.812023417048195</v>
       </c>
       <c r="L44" s="3">
         <f xml:space="preserve"> $J44 - B44</f>
-        <v>0.16960347492100425</v>
+        <v>-5.4624043783809952</v>
       </c>
       <c r="M44" s="3">
         <f xml:space="preserve"> $J44 / B44</f>
-        <v>1.0015670792576492</v>
+        <v>0.95193669146096027</v>
       </c>
       <c r="N44" s="3">
         <f xml:space="preserve"> $K44 / C44</f>
-        <v>1.0191571616402411</v>
+        <v>0.61732936292338736</v>
       </c>
       <c r="O44" s="3">
         <f xml:space="preserve"> $J44 - F44</f>
-        <v>-6.8111495972109992</v>
+        <v>-102.17644805913999</v>
       </c>
       <c r="P44" s="3">
         <f xml:space="preserve"> $J44 / F44</f>
-        <v>0.9408804603736588</v>
+        <v>0.51428793793485217</v>
       </c>
       <c r="Q44" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R44" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S44">
-        <v>52.770703124999997</v>
+        <v>49.739843749999999</v>
       </c>
       <c r="T44">
-        <v>58.990625000000001</v>
-      </c>
-      <c r="U44" s="1" t="s">
-        <v>150</v>
+        <v>131.43789062499999</v>
+      </c>
+      <c r="U44">
+        <v>117.82109375</v>
       </c>
       <c r="V44" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="W44" s="1" t="s">
-        <v>152</v>
+        <v>774</v>
+      </c>
+      <c r="W44">
+        <v>96.3984375</v>
       </c>
       <c r="X44" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y44" s="1" t="s">
-        <v>153</v>
+        <v>775</v>
       </c>
       <c r="Z44" s="1" t="s">
-        <v>154</v>
+        <v>776</v>
       </c>
       <c r="AA44" s="3">
         <f xml:space="preserve"> Z44 - AH44</f>
-        <v>0.80023333333332936</v>
+        <v>1.2270333333333294</v>
       </c>
       <c r="AB44" s="3">
         <f xml:space="preserve"> C44 / AA44</f>
-        <v>11.063357456652524</v>
+        <v>11.633284449291708</v>
       </c>
       <c r="AC44" s="3">
         <f xml:space="preserve"> B44 / Z44</f>
-        <v>11.575215266612974</v>
-      </c>
-      <c r="AD44">
-        <v>9.2432999999999996</v>
+        <v>11.624398560262975</v>
+      </c>
+      <c r="AD44" s="1" t="s">
+        <v>777</v>
       </c>
       <c r="AE44" s="1" t="s">
-        <v>155</v>
+        <v>778</v>
       </c>
       <c r="AF44" s="1" t="s">
-        <v>156</v>
+        <v>315</v>
       </c>
       <c r="AG44">
-        <v>8.6966000000000001</v>
+        <v>19.273700000000002</v>
       </c>
       <c r="AH44" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI44">
-        <v>9.3432999999999993</v>
-      </c>
-      <c r="AJ44" s="7" t="s">
-        <v>157</v>
+        <v>9.4232999999999993</v>
+      </c>
+      <c r="AJ44" t="s">
+        <v>779</v>
       </c>
       <c r="AK44" t="s">
-        <v>1235</v>
-      </c>
-      <c r="AL44" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK44, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>1598</v>
+      </c>
+      <c r="AL44" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM44" t="s">
-        <v>158</v>
+        <v>780</v>
       </c>
       <c r="AN44" t="s">
-        <v>159</v>
+        <v>493</v>
       </c>
       <c r="AO44" t="s">
-        <v>160</v>
+        <v>781</v>
       </c>
       <c r="AP44" t="s">
-        <v>161</v>
+        <v>782</v>
       </c>
       <c r="AQ44" t="s">
-        <v>162</v>
+        <v>783</v>
       </c>
       <c r="AR44" t="s">
-        <v>163</v>
+        <v>784</v>
       </c>
       <c r="AS44" t="s">
-        <v>164</v>
+        <v>785</v>
       </c>
       <c r="AT44" t="s">
-        <v>138</v>
+        <v>786</v>
       </c>
     </row>
     <row r="45" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>210</v>
+        <v>424</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>211</v>
+        <v>425</v>
       </c>
       <c r="C45" s="3">
         <f xml:space="preserve"> B45 - I45</f>
-        <v>8.3316975911511975</v>
+        <v>3.1541834513551947</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>212</v>
+        <v>426</v>
       </c>
       <c r="E45" s="9">
         <f xml:space="preserve"> C45 / B45</f>
-        <v>7.7354876211446461E-2</v>
+        <v>3.0763532384535889E-2</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>213</v>
+        <v>427</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>214</v>
+        <v>428</v>
       </c>
       <c r="H45" s="3" t="s">
-        <v>215</v>
+        <v>429</v>
       </c>
       <c r="I45" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>216</v>
+        <v>430</v>
       </c>
       <c r="K45" s="3">
         <f xml:space="preserve"> J45 - I45</f>
-        <v>12.67287089027019</v>
+        <v>11.708354186982191</v>
       </c>
       <c r="L45" s="3">
         <f xml:space="preserve"> $J45 - B45</f>
-        <v>4.3411732991189922</v>
+        <v>8.5541707356269967</v>
       </c>
       <c r="M45" s="3">
         <f xml:space="preserve"> $J45 / B45</f>
-        <v>1.0403052222541584</v>
+        <v>1.0834309457603821</v>
       </c>
       <c r="N45" s="8">
         <f xml:space="preserve"> $K45 / C45</f>
-        <v>1.5210430709498626</v>
+        <v>3.7120079943199555</v>
       </c>
       <c r="O45" s="3">
         <f xml:space="preserve"> $J45 - F45</f>
-        <v>-106.27211812342301</v>
+        <v>-14.875857035350009</v>
       </c>
       <c r="P45" s="3">
         <f xml:space="preserve"> $J45 / F45</f>
-        <v>0.51322943333595594</v>
+        <v>0.88190013015011637</v>
       </c>
       <c r="Q45" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R45" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="S45" s="1" t="s">
-        <v>217</v>
+        <v>431</v>
       </c>
       <c r="T45" s="1" t="s">
-        <v>218</v>
-      </c>
-      <c r="U45" s="1" t="s">
-        <v>219</v>
+        <v>432</v>
+      </c>
+      <c r="U45">
+        <v>51.948828124999999</v>
       </c>
       <c r="V45">
-        <v>124.130078125</v>
+        <v>48.6328125</v>
       </c>
       <c r="W45">
-        <v>130.68203124999999</v>
+        <v>53.359765625000001</v>
       </c>
       <c r="X45" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y45" s="1" t="s">
-        <v>220</v>
+        <v>433</v>
       </c>
       <c r="Z45" s="1" t="s">
-        <v>221</v>
+        <v>434</v>
       </c>
       <c r="AA45" s="3">
         <f xml:space="preserve"> Z45 - AH45</f>
-        <v>0.76670000000000016</v>
+        <v>0.27340000000000053</v>
       </c>
       <c r="AB45" s="3">
         <f xml:space="preserve"> C45 / AA45</f>
-        <v>10.866959164146596</v>
+        <v>11.536881680157968</v>
       </c>
       <c r="AC45" s="3">
         <f xml:space="preserve"> B45 / Z45</f>
-        <v>11.560895104002029</v>
-      </c>
-      <c r="AD45" s="1" t="s">
-        <v>222</v>
-      </c>
-      <c r="AE45">
-        <v>18.153500000000001</v>
-      </c>
-      <c r="AF45">
-        <v>18.239999999999998</v>
+        <v>11.620450982800223</v>
+      </c>
+      <c r="AD45">
+        <v>8.5564999999999998</v>
+      </c>
+      <c r="AE45" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="AF45" s="1" t="s">
+        <v>96</v>
       </c>
       <c r="AG45" s="1" t="s">
-        <v>223</v>
+        <v>436</v>
       </c>
       <c r="AH45" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI45">
-        <v>9.5832999999999995</v>
+      <c r="AI45" s="1" t="s">
+        <v>437</v>
       </c>
       <c r="AJ45" t="s">
-        <v>224</v>
+        <v>438</v>
       </c>
       <c r="AK45" t="s">
-        <v>1596</v>
-      </c>
-      <c r="AL45" s="7" t="s">
-        <v>1228</v>
+        <v>1277</v>
+      </c>
+      <c r="AL45" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK45, Classification!A:B, 2, FALSE)</f>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM45" t="s">
-        <v>225</v>
+        <v>439</v>
       </c>
       <c r="AN45" t="s">
-        <v>226</v>
+        <v>440</v>
       </c>
       <c r="AO45" t="s">
-        <v>227</v>
+        <v>441</v>
       </c>
       <c r="AP45" t="s">
-        <v>228</v>
+        <v>140</v>
       </c>
       <c r="AQ45" t="s">
-        <v>229</v>
+        <v>442</v>
       </c>
       <c r="AR45" t="s">
-        <v>230</v>
+        <v>443</v>
       </c>
       <c r="AS45" t="s">
-        <v>231</v>
+        <v>444</v>
       </c>
       <c r="AT45" t="s">
-        <v>140</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>262</v>
+        <v>1015</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>263</v>
+        <v>1016</v>
       </c>
       <c r="C46" s="3">
         <f xml:space="preserve"> B46 - I46</f>
-        <v>12.431981404608194</v>
+        <v>11.052341206841191</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>264</v>
+        <v>1017</v>
       </c>
       <c r="E46" s="9">
         <f xml:space="preserve"> C46 / B46</f>
-        <v>0.1111906963610388</v>
+        <v>0.1000863039806234</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>265</v>
+        <v>1018</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>266</v>
+        <v>1019</v>
       </c>
       <c r="H46" s="3" t="s">
-        <v>267</v>
+        <v>1020</v>
       </c>
       <c r="I46" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>268</v>
+        <v>1021</v>
       </c>
       <c r="K46" s="3">
         <f xml:space="preserve"> J46 - I46</f>
-        <v>8.6650029499871977</v>
+        <v>13.531787617793199</v>
       </c>
       <c r="L46" s="3">
         <f xml:space="preserve"> $J46 - B46</f>
-        <v>-3.7669784546209968</v>
+        <v>2.4794464109520078</v>
       </c>
       <c r="M46" s="3">
         <f xml:space="preserve"> $J46 / B46</f>
-        <v>0.96630843114106646</v>
-      </c>
-      <c r="N46" s="8">
+        <v>1.022453037102818</v>
+      </c>
+      <c r="N46" s="3">
         <f xml:space="preserve"> $K46 / C46</f>
-        <v>0.69699291432139032</v>
+        <v>1.2243367594747507</v>
       </c>
       <c r="O46" s="3">
         <f xml:space="preserve"> $J46 - F46</f>
-        <v>-1.9562754312899955</v>
+        <v>1.175466410047008</v>
       </c>
       <c r="P46" s="3">
         <f xml:space="preserve"> $J46 / F46</f>
-        <v>0.98221520019598063</v>
+        <v>1.0105204013351339</v>
       </c>
       <c r="Q46" s="3" t="s">
         <v>1210</v>
       </c>
       <c r="R46" s="3" t="s">
-        <v>1213</v>
+        <v>1212</v>
       </c>
       <c r="S46">
-        <v>56.8671875</v>
-      </c>
-      <c r="T46" s="1" t="s">
-        <v>269</v>
+        <v>49.135937499999997</v>
+      </c>
+      <c r="T46">
+        <v>56.568359375</v>
       </c>
       <c r="U46" s="1" t="s">
-        <v>270</v>
+        <v>1022</v>
       </c>
       <c r="V46" s="1" t="s">
-        <v>271</v>
-      </c>
-      <c r="W46" s="1" t="s">
-        <v>272</v>
+        <v>1023</v>
+      </c>
+      <c r="W46">
+        <v>47.126562499999999</v>
       </c>
       <c r="X46" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y46" s="1" t="s">
-        <v>273</v>
+        <v>1024</v>
       </c>
       <c r="Z46" s="1" t="s">
-        <v>274</v>
+        <v>1025</v>
       </c>
       <c r="AA46" s="3">
         <f xml:space="preserve"> Z46 - AH46</f>
-        <v>1.1471</v>
+        <v>0.98043333333333038</v>
       </c>
       <c r="AB46" s="3">
         <f xml:space="preserve"> C46 / AA46</f>
-        <v>10.837748587401443</v>
+        <v>11.27291456856617</v>
       </c>
       <c r="AC46" s="3">
         <f xml:space="preserve"> B46 / Z46</f>
-        <v>11.530217293411873</v>
+        <v>11.587095311984456</v>
       </c>
       <c r="AD46" s="1" t="s">
-        <v>275</v>
+        <v>1026</v>
       </c>
       <c r="AE46">
-        <v>9.2301000000000002</v>
+        <v>9.3634000000000004</v>
       </c>
       <c r="AF46">
-        <v>8.6832999999999991</v>
+        <v>9.5434999999999999</v>
       </c>
       <c r="AG46">
-        <v>9.4033999999999995</v>
+        <v>10.023999999999999</v>
       </c>
       <c r="AH46" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI46" s="1" t="s">
-        <v>276</v>
+        <v>1027</v>
       </c>
       <c r="AJ46" t="s">
-        <v>277</v>
+        <v>1028</v>
       </c>
       <c r="AK46" t="s">
-        <v>1380</v>
-      </c>
-      <c r="AL46" t="str">
+        <v>1458</v>
+      </c>
+      <c r="AL46" s="17" t="str">
         <f xml:space="preserve"> VLOOKUP(AK46, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>Scientific</v>
       </c>
       <c r="AM46" t="s">
-        <v>278</v>
+        <v>1029</v>
       </c>
       <c r="AN46" t="s">
-        <v>279</v>
+        <v>1030</v>
       </c>
       <c r="AO46" t="s">
-        <v>280</v>
+        <v>1031</v>
       </c>
       <c r="AP46" t="s">
-        <v>281</v>
+        <v>1032</v>
       </c>
       <c r="AQ46" t="s">
-        <v>282</v>
+        <v>1033</v>
       </c>
       <c r="AR46" t="s">
-        <v>283</v>
+        <v>1034</v>
       </c>
       <c r="AS46" t="s">
-        <v>284</v>
+        <v>1035</v>
       </c>
       <c r="AT46" t="s">
-        <v>232</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="47" spans="1:46" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>608</v>
+      <c r="A47" s="7" t="s">
+        <v>143</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>609</v>
+        <v>144</v>
       </c>
       <c r="C47" s="3">
         <f xml:space="preserve"> B47 - I47</f>
-        <v>7.5791264851011988</v>
+        <v>8.8532674153951945</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>610</v>
+        <v>145</v>
       </c>
       <c r="E47" s="9">
         <f xml:space="preserve"> C47 / B47</f>
-        <v>7.0862830465610344E-2</v>
+        <v>8.1801223327225003E-2</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>611</v>
+        <v>146</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>612</v>
+        <v>147</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>613</v>
+        <v>148</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>614</v>
+        <v>149</v>
       </c>
       <c r="K47" s="3">
         <f xml:space="preserve"> J47 - I47</f>
-        <v>8.1277654013531873</v>
+        <v>9.0228708903161987</v>
       </c>
       <c r="L47" s="3">
         <f xml:space="preserve"> $J47 - B47</f>
-        <v>0.54863891625198846</v>
+        <v>0.16960347492100425</v>
       </c>
       <c r="M47" s="3">
         <f xml:space="preserve"> $J47 / B47</f>
-        <v>1.0051296289335752</v>
+        <v>1.0015670792576492</v>
       </c>
       <c r="N47" s="3">
         <f xml:space="preserve"> $K47 / C47</f>
-        <v>1.0723881462237745</v>
+        <v>1.0191571616402411</v>
       </c>
       <c r="O47" s="3">
         <f xml:space="preserve"> $J47 - F47</f>
-        <v>0.82163899752198688</v>
+        <v>-6.8111495972109992</v>
       </c>
       <c r="P47" s="3">
         <f xml:space="preserve"> $J47 / F47</f>
-        <v>1.0077017661689474</v>
+        <v>0.9408804603736588</v>
       </c>
       <c r="Q47" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R47" s="3" t="s">
-        <v>1212</v>
+        <v>1213</v>
       </c>
       <c r="S47">
-        <v>60.770312500000003</v>
+        <v>52.770703124999997</v>
       </c>
       <c r="T47">
-        <v>54.888671875</v>
+        <v>58.990625000000001</v>
       </c>
       <c r="U47" s="1" t="s">
-        <v>615</v>
-      </c>
-      <c r="V47">
-        <v>74.237109375000003</v>
-      </c>
-      <c r="W47">
-        <v>44.706249999999997</v>
+        <v>150</v>
+      </c>
+      <c r="V47" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="W47" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="X47" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y47" s="1" t="s">
-        <v>616</v>
+        <v>153</v>
       </c>
       <c r="Z47" s="1" t="s">
-        <v>316</v>
+        <v>154</v>
       </c>
       <c r="AA47" s="3">
         <f xml:space="preserve"> Z47 - AH47</f>
-        <v>0.74690000000000012</v>
+        <v>0.80023333333332936</v>
       </c>
       <c r="AB47" s="3">
         <f xml:space="preserve"> C47 / AA47</f>
-        <v>10.147444751775602</v>
+        <v>11.063357456652524</v>
       </c>
       <c r="AC47" s="3">
         <f xml:space="preserve"> B47 / Z47</f>
-        <v>11.504567212879977</v>
-      </c>
-      <c r="AD47" s="1" t="s">
-        <v>617</v>
-      </c>
-      <c r="AE47">
-        <v>8.6898</v>
+        <v>11.575215266612974</v>
+      </c>
+      <c r="AD47">
+        <v>9.2432999999999996</v>
+      </c>
+      <c r="AE47" s="1" t="s">
+        <v>155</v>
       </c>
       <c r="AF47" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="AG47" s="1" t="s">
-        <v>580</v>
+        <v>156</v>
+      </c>
+      <c r="AG47">
+        <v>8.6966000000000001</v>
       </c>
       <c r="AH47" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI47">
-        <v>9.7367000000000008</v>
-      </c>
-      <c r="AJ47" t="s">
-        <v>618</v>
+        <v>9.3432999999999993</v>
+      </c>
+      <c r="AJ47" s="7" t="s">
+        <v>157</v>
       </c>
       <c r="AK47" t="s">
-        <v>1307</v>
+        <v>1235</v>
       </c>
       <c r="AL47" t="str">
         <f xml:space="preserve"> VLOOKUP(AK47, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM47" t="s">
-        <v>619</v>
+        <v>158</v>
       </c>
       <c r="AN47" t="s">
-        <v>63</v>
+        <v>159</v>
       </c>
       <c r="AO47" t="s">
-        <v>620</v>
+        <v>160</v>
       </c>
       <c r="AP47" t="s">
-        <v>621</v>
+        <v>161</v>
       </c>
       <c r="AQ47" t="s">
-        <v>622</v>
+        <v>162</v>
       </c>
       <c r="AR47" t="s">
-        <v>623</v>
+        <v>163</v>
       </c>
       <c r="AS47" t="s">
-        <v>624</v>
+        <v>164</v>
       </c>
       <c r="AT47" t="s">
-        <v>625</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>811</v>
+        <v>210</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>812</v>
+        <v>211</v>
       </c>
       <c r="C48" s="3">
         <f xml:space="preserve"> B48 - I48</f>
-        <v>16.616583760755191</v>
+        <v>8.3316975911511975</v>
       </c>
       <c r="D48" s="3" t="s">
-        <v>813</v>
+        <v>212</v>
       </c>
       <c r="E48" s="9">
         <f xml:space="preserve"> C48 / B48</f>
-        <v>0.14325585825756176</v>
+        <v>7.7354876211446461E-2</v>
       </c>
       <c r="F48" s="3" t="s">
-        <v>814</v>
+        <v>213</v>
       </c>
       <c r="G48" s="3" t="s">
-        <v>815</v>
+        <v>214</v>
       </c>
       <c r="H48" s="3" t="s">
-        <v>816</v>
+        <v>215</v>
       </c>
       <c r="I48" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>817</v>
+        <v>216</v>
       </c>
       <c r="K48" s="3">
         <f xml:space="preserve"> J48 - I48</f>
-        <v>14.317712402252198</v>
+        <v>12.67287089027019</v>
       </c>
       <c r="L48" s="3">
         <f xml:space="preserve"> $J48 - B48</f>
-        <v>-2.2988713585029927</v>
+        <v>4.3411732991189922</v>
       </c>
       <c r="M48" s="3">
         <f xml:space="preserve"> $J48 / B48</f>
-        <v>0.98018083655294586</v>
+        <v>1.0403052222541584</v>
       </c>
       <c r="N48" s="8">
         <f xml:space="preserve"> $K48 / C48</f>
-        <v>0.86165198625649908</v>
+        <v>1.5210430709498626</v>
       </c>
       <c r="O48" s="3">
         <f xml:space="preserve"> $J48 - F48</f>
-        <v>-3.2381225588069924</v>
+        <v>-106.27211812342301</v>
       </c>
       <c r="P48" s="3">
         <f xml:space="preserve"> $J48 / F48</f>
-        <v>0.97230754984737788</v>
+        <v>0.51322943333595594</v>
       </c>
       <c r="Q48" s="3" t="s">
-        <v>1210</v>
+        <v>1209</v>
       </c>
       <c r="R48" s="3" t="s">
         <v>1212</v>
       </c>
       <c r="S48" s="1" t="s">
-        <v>818</v>
+        <v>217</v>
       </c>
       <c r="T48" s="1" t="s">
-        <v>819</v>
+        <v>218</v>
       </c>
       <c r="U48" s="1" t="s">
-        <v>820</v>
+        <v>219</v>
       </c>
       <c r="V48">
-        <v>57.158593750000001</v>
+        <v>124.130078125</v>
       </c>
       <c r="W48">
-        <v>52.734375</v>
+        <v>130.68203124999999</v>
       </c>
       <c r="X48" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y48" s="1" t="s">
-        <v>821</v>
+        <v>220</v>
       </c>
       <c r="Z48" s="1" t="s">
-        <v>822</v>
+        <v>221</v>
       </c>
       <c r="AA48" s="3">
         <f xml:space="preserve"> Z48 - AH48</f>
-        <v>1.8471999999999689</v>
+        <v>0.76670000000000016</v>
       </c>
       <c r="AB48" s="3">
         <f xml:space="preserve"> C48 / AA48</f>
-        <v>8.995552057576587</v>
+        <v>10.866959164146596</v>
       </c>
       <c r="AC48" s="3">
         <f xml:space="preserve"> B48 / Z48</f>
-        <v>11.156293054994153</v>
+        <v>11.560895104002029</v>
       </c>
       <c r="AD48" s="1" t="s">
-        <v>823</v>
-      </c>
-      <c r="AE48" s="1" t="s">
-        <v>517</v>
+        <v>222</v>
+      </c>
+      <c r="AE48">
+        <v>18.153500000000001</v>
       </c>
       <c r="AF48">
-        <v>8.5899000000000001</v>
+        <v>18.239999999999998</v>
       </c>
       <c r="AG48" s="1" t="s">
-        <v>312</v>
+        <v>223</v>
       </c>
       <c r="AH48" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI48" s="1" t="s">
-        <v>414</v>
+      <c r="AI48">
+        <v>9.5832999999999995</v>
       </c>
       <c r="AJ48" t="s">
-        <v>824</v>
+        <v>224</v>
       </c>
       <c r="AK48" t="s">
-        <v>1599</v>
+        <v>1596</v>
       </c>
       <c r="AL48" s="7" t="s">
         <v>1228</v>
       </c>
       <c r="AM48" t="s">
-        <v>825</v>
+        <v>225</v>
       </c>
       <c r="AN48" t="s">
-        <v>826</v>
+        <v>226</v>
       </c>
       <c r="AO48" t="s">
-        <v>827</v>
+        <v>227</v>
       </c>
       <c r="AP48" t="s">
-        <v>828</v>
+        <v>228</v>
       </c>
       <c r="AQ48" t="s">
-        <v>829</v>
+        <v>229</v>
       </c>
       <c r="AR48" t="s">
-        <v>285</v>
+        <v>230</v>
       </c>
       <c r="AS48" t="s">
-        <v>830</v>
+        <v>231</v>
       </c>
       <c r="AT48" t="s">
-        <v>831</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>1120</v>
+        <v>262</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>1121</v>
+        <v>263</v>
       </c>
       <c r="C49" s="3">
         <f xml:space="preserve"> B49 - I49</f>
-        <v>1.0895304362751972</v>
+        <v>12.431981404608194</v>
       </c>
       <c r="D49" s="3" t="s">
-        <v>1122</v>
+        <v>264</v>
       </c>
       <c r="E49" s="9">
         <f xml:space="preserve"> C49 / B49</f>
-        <v>1.0844843582676919E-2</v>
+        <v>0.1111906963610388</v>
       </c>
       <c r="F49" s="3" t="s">
-        <v>1123</v>
+        <v>265</v>
       </c>
       <c r="G49" s="3" t="s">
-        <v>1124</v>
+        <v>266</v>
       </c>
       <c r="H49" s="3" t="s">
-        <v>1125</v>
+        <v>267</v>
       </c>
       <c r="I49" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>1126</v>
+        <v>268</v>
       </c>
       <c r="K49" s="3">
         <f xml:space="preserve"> J49 - I49</f>
-        <v>8.7341934203341935</v>
+        <v>8.6650029499871977</v>
       </c>
       <c r="L49" s="3">
         <f xml:space="preserve"> $J49 - B49</f>
-        <v>7.6446629840589964</v>
+        <v>-3.7669784546209968</v>
       </c>
       <c r="M49" s="3">
         <f xml:space="preserve"> $J49 / B49</f>
-        <v>1.0760925730425943</v>
+        <v>0.96630843114106646</v>
       </c>
       <c r="N49" s="8">
         <f xml:space="preserve"> $K49 / C49</f>
-        <v>8.0164749230815264</v>
+        <v>0.69699291432139032</v>
       </c>
       <c r="O49" s="3">
         <f xml:space="preserve"> $J49 - F49</f>
-        <v>0.98891092924199597</v>
+        <v>-1.9562754312899955</v>
       </c>
       <c r="P49" s="3">
         <f xml:space="preserve"> $J49 / F49</f>
-        <v>1.0092317143443053</v>
+        <v>0.98221520019598063</v>
       </c>
       <c r="Q49" s="3" t="s">
         <v>1210</v>
@@ -13207,389 +13201,395 @@
         <v>1213</v>
       </c>
       <c r="S49">
-        <v>44.183984375000001</v>
-      </c>
-      <c r="T49">
-        <v>57.812890625000001</v>
+        <v>56.8671875</v>
+      </c>
+      <c r="T49" s="1" t="s">
+        <v>269</v>
       </c>
       <c r="U49" s="1" t="s">
-        <v>1127</v>
+        <v>270</v>
       </c>
       <c r="V49" s="1" t="s">
-        <v>1128</v>
-      </c>
-      <c r="W49">
-        <v>58.811718749999997</v>
+        <v>271</v>
+      </c>
+      <c r="W49" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="X49" s="1" t="s">
         <v>41</v>
       </c>
       <c r="Y49" s="1" t="s">
-        <v>1129</v>
-      </c>
-      <c r="Z49">
-        <v>8.5099</v>
+        <v>273</v>
+      </c>
+      <c r="Z49" s="1" t="s">
+        <v>274</v>
       </c>
       <c r="AA49" s="3">
         <f xml:space="preserve"> Z49 - AH49</f>
-        <v>-3.9933333333330268E-2</v>
+        <v>1.1471</v>
       </c>
       <c r="AB49" s="3">
         <f xml:space="preserve"> C49 / AA49</f>
-        <v>-27.283733796542926</v>
+        <v>10.837748587401443</v>
       </c>
       <c r="AC49" s="3">
         <f xml:space="preserve"> B49 / Z49</f>
-        <v>11.805696593935181</v>
-      </c>
-      <c r="AD49">
-        <v>9.7835000000000001</v>
+        <v>11.530217293411873</v>
+      </c>
+      <c r="AD49" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="AE49">
-        <v>8.9099000000000004</v>
-      </c>
-      <c r="AF49" s="1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AG49" s="1" t="s">
-        <v>95</v>
+        <v>9.2301000000000002</v>
+      </c>
+      <c r="AF49">
+        <v>8.6832999999999991</v>
+      </c>
+      <c r="AG49">
+        <v>9.4033999999999995</v>
       </c>
       <c r="AH49" s="1" t="s">
         <v>47</v>
       </c>
       <c r="AI49" s="1" t="s">
-        <v>855</v>
+        <v>276</v>
       </c>
       <c r="AJ49" t="s">
-        <v>1130</v>
+        <v>277</v>
       </c>
       <c r="AK49" t="s">
-        <v>1592</v>
-      </c>
-      <c r="AL49" s="7" t="s">
-        <v>1228</v>
+        <v>1380</v>
+      </c>
+      <c r="AL49" t="str">
+        <f xml:space="preserve"> VLOOKUP(AK49, Classification!A:B, 2, FALSE)</f>
+        <v>Non-Scientific</v>
       </c>
       <c r="AM49" t="s">
-        <v>1131</v>
+        <v>278</v>
       </c>
       <c r="AN49" t="s">
-        <v>1132</v>
+        <v>279</v>
       </c>
       <c r="AO49" t="s">
-        <v>1133</v>
+        <v>280</v>
       </c>
       <c r="AP49" t="s">
-        <v>1134</v>
+        <v>281</v>
       </c>
       <c r="AQ49" t="s">
-        <v>1135</v>
+        <v>282</v>
       </c>
       <c r="AR49" t="s">
-        <v>1136</v>
+        <v>283</v>
       </c>
       <c r="AS49" t="s">
-        <v>1137</v>
+        <v>284</v>
       </c>
       <c r="AT49" t="s">
-        <v>1138</v>
+        <v>232</v>
       </c>
     </row>
     <row r="50" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>494</v>
+        <v>608</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>495</v>
+        <v>609</v>
       </c>
       <c r="C50" s="3">
         <f xml:space="preserve"> B50 - I50</f>
-        <v>6.0253417969091885</v>
+        <v>7.5791264851011988</v>
       </c>
       <c r="D50" s="3" t="s">
-        <v>496</v>
+        <v>610</v>
       </c>
       <c r="E50" s="9">
         <f xml:space="preserve"> C50 / B50</f>
-        <v>5.7165829327619072E-2</v>
+        <v>7.0862830465610344E-2</v>
       </c>
       <c r="F50" s="3" t="s">
-        <v>497</v>
+        <v>611</v>
       </c>
       <c r="G50" s="3" t="s">
-        <v>498</v>
+        <v>612</v>
       </c>
       <c r="H50" s="3" t="s">
-        <v>499</v>
+        <v>613</v>
       </c>
       <c r="I50" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>500</v>
+        <v>614</v>
       </c>
       <c r="K50" s="3">
         <f xml:space="preserve"> J50 - I50</f>
-        <v>12.3446858723822</v>
+        <v>8.1277654013531873</v>
       </c>
       <c r="L50" s="3">
         <f xml:space="preserve"> $J50 - B50</f>
-        <v>6.3193440754730119</v>
+        <v>0.54863891625198846</v>
       </c>
       <c r="M50" s="3">
         <f xml:space="preserve"> $J50 / B50</f>
-        <v>1.0599551954158519</v>
-      </c>
-      <c r="N50" s="8">
+        <v>1.0051296289335752</v>
+      </c>
+      <c r="N50" s="3">
         <f xml:space="preserve"> $K50 / C50</f>
-        <v>2.0487942905935457</v>
+        <v>1.0723881462237745</v>
       </c>
       <c r="O50" s="3">
         <f xml:space="preserve"> $J50 - F50</f>
-        <v>3.6312433878220105</v>
+        <v>0.82163899752198688</v>
       </c>
       <c r="P50" s="3">
         <f xml:space="preserve"> $J50 / F50</f>
-        <v>1.0335948741308605</v>
+        <v>1.0077017661689474</v>
       </c>
       <c r="Q50" s="3" t="s">
         <v>1209</v>
       </c>
       <c r="R50" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="S50" s="1" t="s">
-        <v>501</v>
-      </c>
-      <c r="T50" s="1" t="s">
-        <v>502</v>
+        <v>1212</v>
+      </c>
+      <c r="S50">
+        <v>60.770312500000003</v>
+      </c>
+      <c r="T50">
+        <v>54.888671875</v>
       </c>
       <c r="U50" s="1" t="s">
-        <v>503</v>
-      </c>
-      <c r="V50" s="1" t="s">
-        <v>504</v>
+        <v>615</v>
+      </c>
+      <c r="V50">
+        <v>74.237109375000003</v>
       </c>
       <c r="W50">
-        <v>54.454687499999999</v>
+        <v>44.706249999999997</v>
       </c>
       <c r="X50" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y50">
-        <v>99.778515624999997</v>
+      <c r="Y50" s="1" t="s">
+        <v>616</v>
       </c>
       <c r="Z50" s="1" t="s">
-        <v>505</v>
+        <v>316</v>
       </c>
       <c r="AA50" s="3">
         <f xml:space="preserve"> Z50 - AH50</f>
-        <v>-3.3300000000000551E-2</v>
+        <v>0.74690000000000012</v>
       </c>
       <c r="AB50" s="3">
         <f xml:space="preserve"> C50 / AA50</f>
-        <v>-180.94119510237505</v>
+        <v>10.147444751775602</v>
       </c>
       <c r="AC50" s="3">
         <f xml:space="preserve"> B50 / Z50</f>
-        <v>12.376057801926024</v>
+        <v>11.504567212879977</v>
       </c>
       <c r="AD50" s="1" t="s">
-        <v>506</v>
-      </c>
-      <c r="AE50" s="1" t="s">
-        <v>507</v>
+        <v>617</v>
+      </c>
+      <c r="AE50">
+        <v>8.6898</v>
       </c>
       <c r="AF50" s="1" t="s">
-        <v>508</v>
+        <v>261</v>
       </c>
       <c r="AG50" s="1" t="s">
-        <v>313</v>
+        <v>580</v>
       </c>
       <c r="AH50" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI50" s="1" t="s">
-        <v>509</v>
+      <c r="AI50">
+        <v>9.7367000000000008</v>
       </c>
       <c r="AJ50" t="s">
-        <v>510</v>
+        <v>618</v>
       </c>
       <c r="AK50" t="s">
-        <v>1379</v>
+        <v>1307</v>
       </c>
       <c r="AL50" t="str">
         <f xml:space="preserve"> VLOOKUP(AK50, Classification!A:B, 2, FALSE)</f>
         <v>Non-Scientific</v>
       </c>
       <c r="AM50" t="s">
-        <v>511</v>
+        <v>619</v>
       </c>
       <c r="AN50" t="s">
-        <v>512</v>
+        <v>63</v>
       </c>
       <c r="AO50" t="s">
-        <v>513</v>
+        <v>620</v>
       </c>
       <c r="AP50" t="s">
-        <v>233</v>
+        <v>621</v>
+      </c>
+      <c r="AQ50" t="s">
+        <v>622</v>
+      </c>
+      <c r="AR50" t="s">
+        <v>623</v>
       </c>
       <c r="AS50" t="s">
-        <v>514</v>
+        <v>624</v>
       </c>
       <c r="AT50" t="s">
-        <v>490</v>
+        <v>625</v>
       </c>
     </row>
     <row r="51" spans="1:46" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>1061</v>
+        <v>811</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>1062</v>
+        <v>812</v>
       </c>
       <c r="C51" s="3">
         <f xml:space="preserve"> B51 - I51</f>
-        <v>6.7532735189381867</v>
+        <v>16.616583760755191</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>1063</v>
+        <v>813</v>
       </c>
       <c r="E51" s="9">
         <f xml:space="preserve"> C51 / B51</f>
-        <v>6.3632663457417776E-2</v>
+        <v>0.14325585825756176</v>
       </c>
       <c r="F51" s="3" t="s">
-        <v>1064</v>
+        <v>814</v>
       </c>
       <c r="G51" s="3" t="s">
-        <v>1065</v>
+        <v>815</v>
       </c>
       <c r="H51" s="3" t="s">
-        <v>1066</v>
+        <v>816</v>
       </c>
       <c r="I51" s="3" t="s">
         <v>37</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>1067</v>
+        <v>817</v>
       </c>
       <c r="K51" s="3">
         <f xml:space="preserve"> J51 - I51</f>
-        <v>11.599691263836192</v>
+        <v>14.317712402252198</v>
       </c>
       <c r="L51" s="3">
         <f xml:space="preserve"> $J51 - B51</f>
-        <v>4.8464177448980053</v>
+        <v>-2.2988713585029927</v>
       </c>
       <c r="M51" s="3">
         <f xml:space="preserve"> $J51 / B51</f>
-        <v>1.0456653308162824</v>
+        <v>0.98018083655294586</v>
       </c>
       <c r="N51" s="8">
         <f xml:space="preserve"> $K51 / C51</f>
-        <v>1.7176397833298487</v>
+        <v>0.86165198625649908</v>
       </c>
       <c r="O51" s="3">
         <f xml:space="preserve"> $J51 - F51</f>
-        <v>-98.377396647149013</v>
+        <v>-3.2381225588069924</v>
       </c>
       <c r="P51" s="3">
         <f xml:space="preserve"> $J51 / F51</f>
-        <v>0.53008810562910369</v>
+        <v>0.97230754984737788</v>
       </c>
       <c r="Q51" s="3" t="s">
-        <v>1209</v>
+        <v>1210</v>
       </c>
       <c r="R51" s="3" t="s">
-        <v>1213</v>
-      </c>
-      <c r="S51">
-        <v>60.364843749999999</v>
-      </c>
-      <c r="T51">
-        <v>144.19999999999999</v>
-      </c>
-      <c r="U51">
-        <v>138.96796875000001</v>
-      </c>
-      <c r="V51" s="1" t="s">
-        <v>1068</v>
+        <v>1212</v>
+      </c>
+      <c r="S51" s="1" t="s">
+        <v>818</v>
+      </c>
+      <c r="T51" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="U51" s="1" t="s">
+        <v>820</v>
+      </c>
+      <c r="V51">
+        <v>57.158593750000001</v>
       </c>
       <c r="W51">
-        <v>104.508984375</v>
+        <v>52.734375</v>
       </c>
       <c r="X51" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="Y51">
-        <v>120.8390625</v>
-      </c>
-      <c r="Z51">
-        <v>8.5297999999999998</v>
+      <c r="Y51" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="Z51" s="1" t="s">
+        <v>822</v>
       </c>
       <c r="AA51" s="3">
         <f xml:space="preserve"> Z51 - AH51</f>
-        <v>-2.0033333333330461E-2</v>
+        <v>1.8471999999999689</v>
       </c>
       <c r="AB51" s="3">
         <f xml:space="preserve"> C51 / AA51</f>
-        <v>-337.10183954771156</v>
+        <v>8.995552057576587</v>
       </c>
       <c r="AC51" s="3">
         <f xml:space="preserve"> B51 / Z51</f>
-        <v>12.442148764026355</v>
+        <v>11.156293054994153</v>
       </c>
       <c r="AD51" s="1" t="s">
-        <v>1069</v>
+        <v>823</v>
       </c>
       <c r="AE51" s="1" t="s">
-        <v>1070</v>
-      </c>
-      <c r="AF51" s="1" t="s">
-        <v>1071</v>
-      </c>
-      <c r="AG51">
-        <v>18.133099999999999</v>
+        <v>517</v>
+      </c>
+      <c r="AF51">
+        <v>8.5899000000000001</v>
+      </c>
+      <c r="AG51" s="1" t="s">
+        <v>312</v>
       </c>
       <c r="AH51" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="AI51">
-        <v>9.3498999999999999</v>
+      <c r="AI51" s="1" t="s">
+        <v>414</v>
       </c>
       <c r="AJ51" t="s">
-        <v>1072</v>
+        <v>824</v>
       </c>
       <c r="AK51" t="s">
-        <v>1229</v>
-      </c>
-      <c r="AL51" t="str">
-        <f xml:space="preserve"> VLOOKUP(AK51, Classification!A:B, 2, FALSE)</f>
-        <v>Non-Scientific</v>
+        <v>1599</v>
+      </c>
+      <c r="AL51" s="7" t="s">
+        <v>1228</v>
       </c>
       <c r="AM51" t="s">
-        <v>1073</v>
+        <v>825</v>
       </c>
       <c r="AN51" t="s">
-        <v>1074</v>
+        <v>826</v>
       </c>
       <c r="AO51" t="s">
-        <v>1075</v>
+        <v>827</v>
       </c>
       <c r="AP51" t="s">
-        <v>1076</v>
+        <v>828</v>
       </c>
       <c r="AQ51" t="s">
-        <v>1077</v>
+        <v>829</v>
       </c>
       <c r="AR51" t="s">
-        <v>1078</v>
+        <v>285</v>
       </c>
       <c r="AS51" t="s">
-        <v>1079</v>
+        <v>830</v>
       </c>
       <c r="AT51" t="s">
-        <v>140</v>
+        <v>831</v>
       </c>
     </row>
     <row r="52" spans="1:46" x14ac:dyDescent="0.25">
@@ -13606,7 +13606,7 @@
     </row>
   </sheetData>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AT51">
-    <sortCondition descending="1" ref="AB2:AB51"/>
+    <sortCondition descending="1" ref="AC2:AC51"/>
   </sortState>
   <conditionalFormatting sqref="Q2:Q51">
     <cfRule type="cellIs" dxfId="6" priority="1" operator="equal">
